--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA58F9B-C2E3-4DC3-9B88-87D753ABD1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F12C041-536E-4EC7-AF40-D9C6FF7C26AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -956,6 +947,15 @@
   </si>
   <si>
     <t>六福珠宝</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1514,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2149,6 +2149,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3563,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3574,29 +3575,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3612,23 +3613,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3636,7 +3638,7 @@
         <v>587107850</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
@@ -3644,7 +3646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3660,7 +3662,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3668,15 +3670,15 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3690,25 +3692,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3717,16 +3719,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3735,7 +3737,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3890,7 +3892,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C29" s="151">
         <v>59596</v>
@@ -4269,31 +4271,31 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.2265943012211665E-2</v>
+        <v>9.2016239822123591E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4626865671641798E-2</v>
+        <v>7.4424899856129392E-2</v>
       </c>
       <c r="E45" s="153">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4626865671641798E-2</v>
+        <v>7.4424899856129392E-2</v>
       </c>
       <c r="F45" s="153">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7842605156037988E-2</v>
+        <v>6.7658999869208536E-2</v>
       </c>
       <c r="G45" s="153">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7842605156037988E-2</v>
+        <v>6.7658999869208536E-2</v>
       </c>
       <c r="H45" s="153">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8018995929443682E-2</v>
+        <v>7.7807849849589814E-2</v>
       </c>
       <c r="I45" s="153" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4318,7 +4320,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4718,7 +4720,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4726,21 +4728,21 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="237" t="s">
         <v>255</v>
-      </c>
-      <c r="C87" s="237" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4754,10 +4756,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4806,7 +4808,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4827,7 +4829,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4845,7 +4847,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4951,7 +4953,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4987,8 +4989,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5031,17 +5033,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.74</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -5051,40 +5053,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>8653.9697090000009</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>8677.4538662252908</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5107,11 +5109,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5174,7 +5176,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5224,7 +5226,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5264,7 +5266,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5298,7 +5300,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.67273307896253531</v>
+        <v>0.6745586653614084</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5314,12 +5316,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>9.7069616274063589E-2</v>
+        <v>9.6806912701619202E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5346,7 +5348,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.4626865671641798E-2</v>
+        <v>7.4424899856129392E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5363,12 +5365,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>265</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5376,22 +5378,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.431861826906614</v>
+        <v>12.41964624007173</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>28.681270013074275</v>
+        <v>28.646826025956059</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.736409777527648</v>
-      </c>
-      <c r="G29" s="271">
+        <v>14.720052962619061</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>24.940234793977634</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>24.910283500831358</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5439,7 +5441,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5449,7 +5451,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5476,7 +5478,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6422,12 +6424,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6913,7 +6912,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6964,7 +6963,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7015,7 +7014,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7066,7 +7065,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7168,7 +7167,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7321,7 +7320,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8392,7 +8391,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8461,7 +8460,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8665,7 +8664,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -11615,11 +11614,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>2034922</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11630,11 +11629,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11646,11 +11645,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11864,19 +11863,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11886,18 +11885,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11974,7 +11973,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12034,7 +12033,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12097,7 +12096,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12127,7 +12126,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12264,17 +12263,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4131418814976572E-2</v>
+        <v>8.3903730428786738E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7655693019250988E-2</v>
+        <v>7.7445530161295489E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.7069616274063589E-2</v>
+        <v>9.6806912701619202E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12315,17 +12314,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2265943012211665E-2</v>
+        <v>9.2016239822123591E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7842605156037988E-2</v>
+        <v>6.7658999869208536E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4626865671641798E-2</v>
+        <v>7.4424899856129392E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12356,15 +12355,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12385,14 +12384,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>25.207338041353953</v>
+        <v>25.182768132974079</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>34.451473157785486</v>
+        <v>34.410244271703363</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12410,14 +12409,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>21.037410771297456</v>
+        <v>21.019331085295654</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>23.88565847179672</v>
+        <v>23.863221504578124</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12443,7 +12442,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12460,21 +12459,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10056259.753714258</v>
+        <v>10044225.191769715</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.532502032960748</v>
+        <v>12.520286446125864</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.128470950804452</v>
+        <v>17.107972907822159</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>25.027748016633403</v>
+        <v>24.997796723487127</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12523,27 +12522,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10004880.053714259</v>
+        <v>9992845.4917697161</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.431861826906614</v>
+        <v>12.41964624007173</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.431861826906614</v>
+        <v>12.41964624007173</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.736409777527648</v>
+        <v>14.720052962619061</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>17.040957728148683</v>
+        <v>17.02045968516639</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>24.940234793977634</v>
+        <v>24.910283500831358</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12567,7 +12566,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12584,27 +12583,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6972136.8627922349</v>
+        <v>6965587.5936390003</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.4922495849907467</v>
+        <v>9.4836884116070816</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.459311206402747</v>
+        <v>10.450322407141154</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.16735245293029</v>
+        <v>11.157280484243625</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.875393699457833</v>
+        <v>11.864238561346097</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>17.352066157101294</v>
+        <v>17.335766512693269</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12628,7 +12627,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12645,27 +12644,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6719793.6917821188</v>
+        <v>6713569.061016283</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.96205570594868</v>
+        <v>10.951667325839406</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.44558651665468</v>
+        <v>11.434984323606443</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.951881115228968</v>
+        <v>12.938666723431343</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.458175713803257</v>
+        <v>14.442349123256243</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.146150475539464</v>
+        <v>21.123025006762312</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F12C041-536E-4EC7-AF40-D9C6FF7C26AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CC2FF17-6495-4AB7-87FA-0E5071821EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -943,6 +940,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1514,7 +1515,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2150,6 +2151,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3564,7 +3568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3578,20 +3582,20 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>263</v>
@@ -3615,7 +3619,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3624,15 +3628,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>587107850</v>
@@ -3640,7 +3644,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>2</v>
@@ -3664,7 +3668,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45382</v>
@@ -3672,10 +3676,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3689,7 +3693,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>264</v>
@@ -3698,16 +3702,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>265</v>
@@ -3716,7 +3720,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>265</v>
@@ -3725,7 +3729,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>264</v>
@@ -3734,7 +3738,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>266</v>
@@ -3892,7 +3896,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C29" s="151">
         <v>59596</v>
@@ -4237,7 +4241,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.72+0.64</f>
@@ -4271,31 +4275,31 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.2016239822123591E-2</v>
+        <v>9.2769440654843105E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4424899856129392E-2</v>
+        <v>7.5034106412005461E-2</v>
       </c>
       <c r="E45" s="153">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4424899856129392E-2</v>
+        <v>7.5034106412005461E-2</v>
       </c>
       <c r="F45" s="153">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7658999869208536E-2</v>
+        <v>6.8212824010914053E-2</v>
       </c>
       <c r="G45" s="153">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7658999869208536E-2</v>
+        <v>6.8212824010914053E-2</v>
       </c>
       <c r="H45" s="153">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.7807849849589814E-2</v>
+        <v>7.8444747612551158E-2</v>
       </c>
       <c r="I45" s="153" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4320,13 +4324,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4700,7 +4704,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>12890860</v>
@@ -4720,7 +4724,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4728,26 +4732,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4756,10 +4760,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4808,7 +4812,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4829,7 +4833,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4847,7 +4851,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4904,7 +4908,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4990,7 +4994,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5031,19 +5035,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>14.66</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -5051,42 +5055,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>8677.4538662252908</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>8607.0010810000003</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5109,16 +5113,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5143,40 +5147,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5189,29 +5193,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5221,12 +5225,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5236,7 +5240,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5244,7 +5248,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5258,7 +5262,7 @@
         <v>0.72762956087193742</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5266,7 +5270,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5277,14 +5281,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5296,11 +5300,11 @@
         <v>0.02</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.6745586653614084</v>
+        <v>0.6690818817904185</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5312,16 +5316,16 @@
         <v>3.8885650375487034E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>9.6806912701619202E-2</v>
+        <v>262</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>10.24597221832493</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5344,11 +5348,11 @@
         <v>7.3081874090513851E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.4424899856129392E-2</v>
+        <v>7.5034106412005461E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5365,12 +5369,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>261</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5378,42 +5382,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.41964624007173</v>
+        <v>12.456522142732988</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>28.646826025956059</v>
+        <v>28.75082273841975</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.720052962619061</v>
-      </c>
-      <c r="G29" s="272">
+        <v>14.769435779228814</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>24.910283500831358</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>25.000715424712826</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5423,7 +5427,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5434,14 +5438,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5451,7 +5455,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5461,14 +5465,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5478,7 +5482,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5493,14 +5497,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6485,16 +6489,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6512,7 +6516,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6545,7 +6549,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6912,7 +6916,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6963,7 +6967,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7014,7 +7018,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7065,7 +7069,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7167,7 +7171,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7320,7 +7324,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8391,7 +8395,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8460,7 +8464,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8664,7 +8668,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10562,7 +10566,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11614,11 +11618,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>2034922</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11629,11 +11633,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11645,11 +11649,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11863,19 +11867,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11885,18 +11889,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11973,7 +11977,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12033,7 +12037,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12096,7 +12100,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12126,7 +12130,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12259,28 +12263,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3903730428786738E-2</v>
+        <v>8.4590526148209735E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7445530161295489E-2</v>
+        <v>7.8079462148960416E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6806912701619202E-2</v>
+        <v>9.759932768620036E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12310,21 +12314,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2016239822123591E-2</v>
+        <v>9.2769440654843105E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7658999869208536E-2</v>
+        <v>6.8212824010914053E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4424899856129392E-2</v>
+        <v>7.5034106412005461E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12355,15 +12359,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12380,24 +12384,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>25.182768132974079</v>
+        <v>25.256938744837353</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>34.410244271703363</v>
+        <v>34.534726626094127</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12405,18 +12409,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>21.019331085295654</v>
+        <v>21.073904204117678</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>23.863221504578124</v>
+        <v>23.930951348782877</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12435,14 +12439,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12459,21 +12463,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10044225.191769715</v>
+        <v>10080561.138414847</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.520286446125864</v>
+        <v>12.557162348787122</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.107972907822159</v>
+        <v>17.169862638380405</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.997796723487127</v>
+        <v>25.088228647368595</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12522,27 +12526,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9992845.4917697161</v>
+        <v>10029181.438414847</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.41964624007173</v>
+        <v>12.456522142732988</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.41964624007173</v>
+        <v>12.456522142732988</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.720052962619061</v>
+        <v>14.769435779228814</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>17.02045968516639</v>
+        <v>17.082349415724639</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>24.910283500831358</v>
+        <v>25.000715424712826</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12559,14 +12563,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12583,27 +12587,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6965587.5936390003</v>
+        <v>6985357.688905526</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.4836884116070816</v>
+        <v>9.509531041453938</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.450322407141154</v>
+        <v>10.477454892192133</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.157280484243625</v>
+        <v>11.187683578181105</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.864238561346097</v>
+        <v>11.897912264170078</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>17.335766512693269</v>
+        <v>17.384969792512361</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12613,21 +12617,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12640,31 +12644,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6713569.061016283</v>
+        <v>6732358.974462131</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.951667325839406</v>
+        <v>10.983026592093463</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.434984323606443</v>
+        <v>11.466988517462561</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.938666723431343</v>
+        <v>12.97855967870496</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.442349123256243</v>
+        <v>14.490130839947359</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.123025006762312</v>
+        <v>21.192842608612594</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CC2FF17-6495-4AB7-87FA-0E5071821EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC614D0E-EEB5-4D75-B415-5576F2BF1477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
   <si>
     <t>Company Info:</t>
   </si>
@@ -957,6 +957,10 @@
   </si>
   <si>
     <t>Consumer Monopoly</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4279,27 +4283,27 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.2769440654843105E-2</v>
+        <v>9.1767881241565444E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.5034106412005461E-2</v>
+        <v>7.4224021592442652E-2</v>
       </c>
       <c r="E45" s="153">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.5034106412005461E-2</v>
+        <v>7.4224021592442652E-2</v>
       </c>
       <c r="F45" s="153">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.8212824010914053E-2</v>
+        <v>6.7476383265856948E-2</v>
       </c>
       <c r="G45" s="153">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.8212824010914053E-2</v>
+        <v>6.7476383265856948E-2</v>
       </c>
       <c r="H45" s="153">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8444747612551158E-2</v>
+        <v>7.7597840755735489E-2</v>
       </c>
       <c r="I45" s="153" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5047,10 +5051,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.66</v>
+        <v>14.82</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5088,7 +5092,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>8607.0010810000003</v>
+        <v>8700.9383369999996</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5304,7 +5308,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.6690818817904185</v>
+        <v>0.67638427613465224</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5324,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.24597221832493</v>
+        <v>10.35779729028482</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5352,7 +5356,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.5034106412005461E-2</v>
+        <v>7.4224021592442652E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5382,20 +5386,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.456522142732988</v>
+        <v>12.407505882510392</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>28.75082273841975</v>
+        <v>28.612600231833653</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.769435779228814</v>
+        <v>14.70379868702323</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>25.000715424712826</v>
+        <v>24.880521940724918</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12267,17 +12271,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4590526148209735E-2</v>
+        <v>8.3677268106123803E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8079462148960416E-2</v>
+        <v>7.7236498994855574E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.759932768620036E-2</v>
+        <v>9.6545623743569314E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12318,17 +12322,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2769440654843105E-2</v>
+        <v>9.1767881241565444E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8212824010914053E-2</v>
+        <v>6.7476383265856948E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5034106412005461E-2</v>
+        <v>7.4224021592442652E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12388,14 +12392,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>25.256938744837353</v>
+        <v>25.158349537534264</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>34.534726626094127</v>
+        <v>34.369276559048615</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12413,14 +12417,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>21.073904204117678</v>
+        <v>21.00136108749923</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>23.930951348782877</v>
+        <v>23.840922084767893</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12463,21 +12467,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10080561.138414847</v>
+        <v>10032266.865399033</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.557162348787122</v>
+        <v>12.508146088564526</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.169862638380405</v>
+        <v>17.087604714191833</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>25.088228647368595</v>
+        <v>24.968035163380687</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12526,27 +12530,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10029181.438414847</v>
+        <v>9980887.1653990336</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.456522142732988</v>
+        <v>12.407505882510392</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.456522142732988</v>
+        <v>12.407505882510392</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.769435779228814</v>
+        <v>14.70379868702323</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>17.082349415724639</v>
+        <v>17.000091491536068</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>25.000715424712826</v>
+        <v>24.880521940724918</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12587,27 +12591,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6985357.688905526</v>
+        <v>6959078.4740741625</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.509531041453938</v>
+        <v>9.4751794791364148</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.477454892192133</v>
+        <v>10.44138814230341</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.187683578181105</v>
+        <v>11.147269975454606</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.897912264170078</v>
+        <v>11.8531518086058</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>17.384969792512361</v>
+        <v>17.319566791497852</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12648,27 +12652,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6732358.974462131</v>
+        <v>6707382.5228931392</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.983026592093463</v>
+        <v>10.941342680823404</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.466988517462561</v>
+        <v>11.424447012406901</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.97855967870496</v>
+        <v>12.925534331238918</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.490130839947359</v>
+        <v>14.426621650070935</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.192842608612594</v>
+        <v>21.100044366111383</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC614D0E-EEB5-4D75-B415-5576F2BF1477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C789532D-8AA2-4026-8CB2-F4CF2A149EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4283,27 +4283,27 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1767881241565444E-2</v>
+        <v>9.1644204851752009E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4224021592442652E-2</v>
+        <v>7.4123989218328842E-2</v>
       </c>
       <c r="E45" s="153">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4224021592442652E-2</v>
+        <v>7.4123989218328842E-2</v>
       </c>
       <c r="F45" s="153">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7476383265856948E-2</v>
+        <v>6.7385444743935305E-2</v>
       </c>
       <c r="G45" s="153">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7476383265856948E-2</v>
+        <v>6.7385444743935305E-2</v>
       </c>
       <c r="H45" s="153">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.7597840755735489E-2</v>
+        <v>7.7493261455525597E-2</v>
       </c>
       <c r="I45" s="153" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4961,7 +4961,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.82</v>
+        <v>14.84</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>8700.9383369999996</v>
+        <v>8712.6804940000002</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.67638427613465224</v>
+        <v>0.67729707542768147</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.35779729028482</v>
+        <v>10.371775424279805</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.4224021592442652E-2</v>
+        <v>7.4123989218328842E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5386,20 +5386,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.407505882510392</v>
+        <v>12.401463800260084</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>28.612600231833653</v>
+        <v>28.595568801312204</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.70379868702323</v>
+        <v>14.695709838363477</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>24.880521940724918</v>
+        <v>24.865712001141048</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12271,17 +12271,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3677268106123803E-2</v>
+        <v>8.3564495507598036E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7236498994855574E-2</v>
+        <v>7.7132406678150925E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6545623743569314E-2</v>
+        <v>9.64155083476885E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12322,17 +12322,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1767881241565444E-2</v>
+        <v>9.1644204851752009E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7476383265856948E-2</v>
+        <v>6.7385444743935305E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4224021592442652E-2</v>
+        <v>7.4123989218328842E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12392,14 +12392,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>25.158349537534264</v>
+        <v>25.146196751972639</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>34.369276559048615</v>
+        <v>34.348890216829453</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12417,14 +12417,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>21.00136108749923</v>
+        <v>20.992417061217971</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>23.840922084767893</v>
+        <v>23.829823748337397</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12467,21 +12467,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10032266.865399033</v>
+        <v>10026316.166227328</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.508146088564526</v>
+        <v>12.502104006314218</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.087604714191833</v>
+        <v>17.077469099122634</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.968035163380687</v>
+        <v>24.953225223796817</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12530,27 +12530,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9980887.1653990336</v>
+        <v>9974936.4662273284</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.407505882510392</v>
+        <v>12.401463800260084</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.407505882510392</v>
+        <v>12.401463800260084</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.70379868702323</v>
+        <v>14.695709838363477</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>17.000091491536068</v>
+        <v>16.989955876466869</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>24.880521940724918</v>
+        <v>24.865712001141048</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12591,27 +12591,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6959078.4740741625</v>
+        <v>6955838.9100221982</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.4751794791364148</v>
+        <v>9.4709445256406184</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.44138814230341</v>
+        <v>10.436941380516471</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.147269975454606</v>
+        <v>11.142287677224257</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.8531518086058</v>
+        <v>11.847633973932044</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>17.319566791497852</v>
+        <v>17.3115042518696</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12652,27 +12652,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6707382.5228931392</v>
+        <v>6704303.4815572919</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.941342680823404</v>
+        <v>10.93620416295035</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.424447012406901</v>
+        <v>11.419202590388277</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.925534331238918</v>
+        <v>12.918998757793867</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.426621650070935</v>
+        <v>14.418794925199457</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.100044366111383</v>
+        <v>21.088608126505324</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C789532D-8AA2-4026-8CB2-F4CF2A149EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16278109-4745-40C2-97C3-CA400FD17B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4283,27 +4283,27 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1644204851752009E-2</v>
+        <v>9.1891891891891883E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4123989218328842E-2</v>
+        <v>7.4324324324324328E-2</v>
       </c>
       <c r="E45" s="153">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4123989218328842E-2</v>
+        <v>7.4324324324324328E-2</v>
       </c>
       <c r="F45" s="153">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7385444743935305E-2</v>
+        <v>6.7567567567567557E-2</v>
       </c>
       <c r="G45" s="153">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7385444743935305E-2</v>
+        <v>6.7567567567567557E-2</v>
       </c>
       <c r="H45" s="153">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.7493261455525597E-2</v>
+        <v>7.7702702702702686E-2</v>
       </c>
       <c r="I45" s="153" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.84</v>
+        <v>14.8</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>8712.6804940000002</v>
+        <v>8689.1961800000008</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.67729707542768147</v>
+        <v>0.67547147684162301</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.371775424279805</v>
+        <v>10.343819156289834</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.4123989218328842E-2</v>
+        <v>7.4324324324324328E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5386,20 +5386,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.401463800260084</v>
+        <v>12.41356664000493</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>28.595568801312204</v>
+        <v>28.629685811733218</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.695709838363477</v>
+        <v>14.711912985787608</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>24.865712001141048</v>
+        <v>24.89537896672454</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12271,17 +12271,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3564495507598036E-2</v>
+        <v>8.37903454954564E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7132406678150925E-2</v>
+        <v>7.7340872642145925E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.64155083476885E-2</v>
+        <v>9.6676090802682246E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12322,17 +12322,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1644204851752009E-2</v>
+        <v>9.1891891891891883E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7385444743935305E-2</v>
+        <v>6.7567567567567557E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4123989218328842E-2</v>
+        <v>7.4324324324324328E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12392,14 +12392,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>25.146196751972639</v>
+        <v>25.170539885682597</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>34.348890216829453</v>
+        <v>34.389727717182794</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12417,14 +12417,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>20.992417061217971</v>
+        <v>21.010332347487005</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>23.829823748337397</v>
+        <v>23.852054568185238</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12467,21 +12467,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10026316.166227328</v>
+        <v>10038236.484100668</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.502104006314218</v>
+        <v>12.514206846059064</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.077469099122634</v>
+        <v>17.097772554226054</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.953225223796817</v>
+        <v>24.982892189380308</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12530,27 +12530,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9974936.4662273284</v>
+        <v>9986856.7841006685</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.401463800260084</v>
+        <v>12.41356664000493</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.401463800260084</v>
+        <v>12.41356664000493</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.695709838363477</v>
+        <v>14.711912985787608</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>16.989955876466869</v>
+        <v>17.010259331570285</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>24.865712001141048</v>
+        <v>24.89537896672454</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12591,27 +12591,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6955838.9100221982</v>
+        <v>6962328.0055074338</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.4709445256406184</v>
+        <v>9.4794274023796223</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.436941380516471</v>
+        <v>10.445848444055644</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.142287677224257</v>
+        <v>11.15226753221132</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.847633973932044</v>
+        <v>11.858686620366997</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>17.3115042518696</v>
+        <v>17.32765413767584</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12652,27 +12652,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6704303.4815572919</v>
+        <v>6710471.0211301865</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.93620416295035</v>
+        <v>10.946497021192275</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.419202590388277</v>
+        <v>11.429707542030286</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.918998757793867</v>
+        <v>12.932090258999464</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.418794925199457</v>
+        <v>14.434472975968642</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.088608126505324</v>
+        <v>21.11151655220019</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16278109-4745-40C2-97C3-CA400FD17B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BF7D3F-04B1-4B30-B956-F3C10FBFDD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BF7D3F-04B1-4B30-B956-F3C10FBFDD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{747AD185-F914-4200-BC02-65E2FA4BC505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4754,7 +4754,7 @@
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>206</v>
       </c>
       <c r="H89" s="31"/>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{747AD185-F914-4200-BC02-65E2FA4BC505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D15DBBBA-A58B-4F76-8D70-CE9F9A8BA397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5190,7 +5190,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5237,7 +5237,7 @@
         <v>258</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5386,20 +5386,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.41356664000493</v>
+        <v>12.704594706192351</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>28.629685811733218</v>
+        <v>29.505546231349502</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.711912985787608</v>
+        <v>15.056238327651389</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>24.89537896672454</v>
+        <v>25.656996722912613</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12392,14 +12392,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>25.170539885682597</v>
+        <v>25.755901278372892</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>34.389727717182794</v>
+        <v>35.18948882688472</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12417,14 +12417,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>21.010332347487005</v>
+        <v>21.498944727661122</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>23.852054568185238</v>
+        <v>24.406753511631408</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12467,21 +12467,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10038236.484100668</v>
+        <v>10271683.844196031</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.514206846059064</v>
+        <v>12.805234912246485</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.097772554226054</v>
+        <v>17.495395171766194</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.982892189380308</v>
+        <v>25.744509945568382</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12530,27 +12530,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9986856.7841006685</v>
+        <v>10220304.144196032</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.41356664000493</v>
+        <v>12.704594706192351</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.41356664000493</v>
+        <v>12.704594706192351</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.711912985787608</v>
+        <v>15.056238327651389</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>17.010259331570285</v>
+        <v>17.407881949110426</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>24.89537896672454</v>
+        <v>25.656996722912613</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12591,27 +12591,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6962328.0055074338</v>
+        <v>7124242.6102866773</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.4794274023796223</v>
+        <v>9.6998792024349623</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.445848444055644</v>
+        <v>10.688775152056939</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.15226753221132</v>
+        <v>11.411622591099956</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.858686620366997</v>
+        <v>12.134470030142975</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>17.32765413767584</v>
+        <v>17.855897583802921</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12652,27 +12652,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6710471.0211301865</v>
+        <v>6867215.5408657733</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.946497021192275</v>
+        <v>11.202236954313657</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.429707542030286</v>
+        <v>11.696684929124645</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.932090258999464</v>
+        <v>13.233930459375673</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.434472975968642</v>
+        <v>14.7711759896267</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.11151655220019</v>
+        <v>21.756447153357769</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D15DBBBA-A58B-4F76-8D70-CE9F9A8BA397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A53F4B00-777D-47C2-8927-9234AB5C4BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -948,6 +948,9 @@
   </si>
   <si>
     <t>六福珠宝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>Strongly agree</t>
@@ -967,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +983,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1523,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1823,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2157,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3600,7 @@
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3601,7 +3608,7 @@
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3609,7 +3616,7 @@
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45593</v>
       </c>
     </row>
@@ -3617,7 +3624,7 @@
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3632,16 @@
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="268"/>
+      <c r="C8" s="191" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3642,7 +3649,7 @@
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>587107850</v>
       </c>
     </row>
@@ -3650,102 +3657,102 @@
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45382</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45382</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>259</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="243" t="s">
-        <v>264</v>
+      <c r="C17" s="242" t="s">
+        <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>248</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="241" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="242" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="224" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="242" t="s">
         <v>265</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="243" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="243" t="s">
-        <v>264</v>
-      </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="244" t="s">
-        <v>266</v>
+      <c r="C22" s="243" t="s">
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3802,526 +3809,526 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>15325962</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>11977844</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="149">
         <v>11737803</v>
       </c>
-      <c r="F25" s="150">
+      <c r="F25" s="149">
         <v>8861335</v>
       </c>
-      <c r="G25" s="150">
+      <c r="G25" s="149">
         <v>11233771</v>
       </c>
-      <c r="H25" s="150">
+      <c r="H25" s="149">
         <v>15859990</v>
       </c>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>11151623</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>8747447</v>
       </c>
-      <c r="E26" s="151">
+      <c r="E26" s="150">
         <v>8503976</v>
       </c>
-      <c r="F26" s="151">
+      <c r="F26" s="150">
         <v>6229020</v>
       </c>
-      <c r="G26" s="151">
+      <c r="G26" s="150">
         <v>7910751</v>
       </c>
-      <c r="H26" s="151">
+      <c r="H26" s="150">
         <v>11826154</v>
       </c>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>2297566</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>1867515</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="150">
         <v>1815111</v>
       </c>
-      <c r="F27" s="151">
+      <c r="F27" s="150">
         <v>1694480</v>
       </c>
-      <c r="G27" s="151">
+      <c r="G27" s="150">
         <v>2118252</v>
       </c>
-      <c r="H27" s="151">
+      <c r="H27" s="150">
         <v>2416769</v>
       </c>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>59596</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>20763</v>
       </c>
-      <c r="E29" s="151">
+      <c r="E29" s="150">
         <v>23097</v>
       </c>
-      <c r="F29" s="151">
+      <c r="F29" s="150">
         <v>28849</v>
       </c>
-      <c r="G29" s="151">
+      <c r="G29" s="150">
         <v>63075</v>
       </c>
-      <c r="H29" s="151">
+      <c r="H29" s="150">
         <v>34253</v>
       </c>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>-9467</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>-30</v>
       </c>
-      <c r="E30" s="151">
+      <c r="E30" s="150">
         <v>-27</v>
       </c>
-      <c r="F30" s="151">
+      <c r="F30" s="150">
         <v>1799</v>
       </c>
-      <c r="G30" s="151">
+      <c r="G30" s="150">
         <v>1337</v>
       </c>
-      <c r="H30" s="151">
+      <c r="H30" s="150">
         <v>10908</v>
       </c>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="151">
+      <c r="C31" s="150">
         <v>626583</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="150">
         <v>352099</v>
       </c>
-      <c r="E31" s="151">
+      <c r="E31" s="150">
         <v>1045251</v>
       </c>
-      <c r="F31" s="151">
+      <c r="F31" s="150">
         <v>-818677</v>
       </c>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <v>456554</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <v>373191</v>
       </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <v>676387</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <v>107280</v>
       </c>
-      <c r="E33" s="151">
+      <c r="E33" s="150">
         <v>455483</v>
       </c>
-      <c r="F33" s="151">
+      <c r="F33" s="150">
         <v>138937</v>
       </c>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151">
+      <c r="C34" s="217"/>
+      <c r="D34" s="150">
         <v>11972903</v>
       </c>
-      <c r="E34" s="151">
+      <c r="E34" s="150">
         <v>13002006</v>
       </c>
-      <c r="F34" s="151">
+      <c r="F34" s="150">
         <v>11732726</v>
       </c>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151">
+      <c r="C35" s="217"/>
+      <c r="D35" s="150">
         <v>213823</v>
       </c>
-      <c r="E35" s="151">
+      <c r="E35" s="150">
         <v>187711</v>
       </c>
-      <c r="F35" s="151">
+      <c r="F35" s="150">
         <v>277338</v>
       </c>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151">
+      <c r="C36" s="217"/>
+      <c r="D36" s="150">
         <v>8852611</v>
       </c>
-      <c r="E36" s="151">
+      <c r="E36" s="150">
         <v>8769304</v>
       </c>
-      <c r="F36" s="151">
+      <c r="F36" s="150">
         <v>7321614</v>
       </c>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151">
+      <c r="C37" s="217"/>
+      <c r="D37" s="150">
         <v>2466431</v>
       </c>
-      <c r="E37" s="151">
+      <c r="E37" s="150">
         <v>3908586</v>
       </c>
-      <c r="F37" s="151">
+      <c r="F37" s="150">
         <v>2946772</v>
       </c>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151">
+      <c r="C38" s="217"/>
+      <c r="D38" s="150">
         <v>241133</v>
       </c>
-      <c r="E38" s="151">
+      <c r="E38" s="150">
         <v>233155</v>
       </c>
-      <c r="F38" s="151">
+      <c r="F38" s="150">
         <v>241043</v>
       </c>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151">
+      <c r="C39" s="217"/>
+      <c r="D39" s="150">
         <f>35175+1000000</f>
         <v>1035175</v>
       </c>
-      <c r="E39" s="151">
+      <c r="E39" s="150">
         <v>1587989</v>
       </c>
-      <c r="F39" s="151">
+      <c r="F39" s="150">
         <v>1050082</v>
       </c>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151">
+      <c r="C40" s="217"/>
+      <c r="D40" s="150">
         <v>67759</v>
       </c>
-      <c r="E40" s="151">
+      <c r="E40" s="150">
         <v>153013</v>
       </c>
-      <c r="F40" s="151">
+      <c r="F40" s="150">
         <v>81854</v>
       </c>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151">
+      <c r="C41" s="217"/>
+      <c r="D41" s="150">
         <v>12220942</v>
       </c>
-      <c r="E41" s="151">
+      <c r="E41" s="150">
         <v>12078528</v>
       </c>
-      <c r="F41" s="151">
+      <c r="F41" s="150">
         <v>11324224</v>
       </c>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151">
+      <c r="C42" s="217"/>
+      <c r="D42" s="150">
         <v>-498</v>
       </c>
-      <c r="E42" s="151">
+      <c r="E42" s="150">
         <v>468</v>
       </c>
-      <c r="F42" s="151">
+      <c r="F42" s="150">
         <v>411</v>
       </c>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151">
+      <c r="C43" s="217"/>
+      <c r="D43" s="150">
         <v>3475378</v>
       </c>
-      <c r="E43" s="151">
+      <c r="E43" s="150">
         <v>4499643</v>
       </c>
-      <c r="F43" s="151">
+      <c r="F43" s="150">
         <v>4455433</v>
       </c>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.72+0.64</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="D44" s="251">
+      <c r="D44" s="250">
         <f>0.55+0.55</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E44" s="251">
+      <c r="E44" s="250">
         <f>0.55+0.55</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F44" s="251">
+      <c r="F44" s="250">
         <f>0.5+0.5</f>
         <v>1</v>
       </c>
-      <c r="G44" s="251">
+      <c r="G44" s="250">
         <f>0.5+0.5</f>
         <v>1</v>
       </c>
-      <c r="H44" s="251">
+      <c r="H44" s="250">
         <f>0.6+0.55</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1891891891891883E-2</v>
-      </c>
-      <c r="D45" s="153">
+        <v>9.2016238159675232E-2</v>
+      </c>
+      <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4324324324324328E-2</v>
-      </c>
-      <c r="E45" s="153">
+        <v>7.4424898511502038E-2</v>
+      </c>
+      <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4324324324324328E-2</v>
-      </c>
-      <c r="F45" s="153">
+        <v>7.4424898511502038E-2</v>
+      </c>
+      <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7567567567567557E-2</v>
-      </c>
-      <c r="G45" s="153">
+        <v>6.7658998646820026E-2</v>
+      </c>
+      <c r="G45" s="152">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7567567567567557E-2</v>
-      </c>
-      <c r="H45" s="153">
+        <v>6.7658998646820026E-2</v>
+      </c>
+      <c r="H45" s="152">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.7702702702702686E-2</v>
-      </c>
-      <c r="I45" s="153" t="str">
+        <v>7.7807848443843031E-2</v>
+      </c>
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4330,10 +4337,10 @@
       <c r="B47" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4440,7 +4447,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4452,7 +4459,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4474,7 +4481,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4544,7 +4551,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4558,7 +4565,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4571,7 +4578,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4625,16 +4632,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="248">
+      <c r="C72" s="247">
         <v>277674</v>
       </c>
-      <c r="D72" s="249">
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4730,7 +4737,7 @@
       <c r="B86" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4738,19 +4745,20 @@
       <c r="B87" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>254</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
@@ -4764,14 +4772,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4783,12 +4791,12 @@
         <f>C25</f>
         <v>15325962</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91*0.8</f>
         <v>12260769.600000001</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>15325962</v>
       </c>
@@ -4801,15 +4809,15 @@
         <f>C26</f>
         <v>11151623</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>8921298.4000000004</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>11151623</v>
       </c>
@@ -4822,15 +4830,15 @@
         <f>C27+C28</f>
         <v>2297566</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.14991333007350532</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*16.54%</f>
         <v>2027931.2918400001</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*16.54%</f>
         <v>2534914.1148000001</v>
       </c>
@@ -4843,12 +4851,12 @@
         <f>C29</f>
         <v>59596</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>59596</v>
       </c>
@@ -4861,15 +4869,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>219833</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>1.4343830423173436E-2</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*0.01</f>
         <v>122607.69600000001</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*0.01</f>
         <v>153259.62</v>
       </c>
@@ -4882,12 +4890,12 @@
         <f>MAX(C31,0)</f>
         <v>626583</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>4.0883763120383568E-2</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*2%</f>
         <v>306519.24</v>
       </c>
@@ -4900,12 +4908,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4914,15 +4922,15 @@
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <v>1</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>0.55+0.55</f>
         <v>1.1000000000000001</v>
       </c>
@@ -5041,60 +5049,60 @@
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.8</v>
+        <v>14.78</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>8689.1961800000008</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>8677.4540230000002</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5102,11 +5110,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45626</v>
       </c>
@@ -5117,22 +5125,22 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
-      </c>
-      <c r="D7" s="188" t="str">
+        <v xml:space="preserve">Superior Cycl. </v>
+      </c>
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0003</v>
       </c>
@@ -5161,7 +5169,7 @@
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5172,7 +5180,7 @@
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5186,11 +5194,11 @@
       <c r="B12" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5199,7 +5207,7 @@
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5210,7 +5218,7 @@
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5221,10 +5229,10 @@
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -5236,10 +5244,10 @@
       <c r="B17" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5261,14 +5269,14 @@
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.72762956087193742</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5276,7 +5284,7 @@
       <c r="B21" s="137" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.16540000000000002</v>
       </c>
@@ -5287,7 +5295,7 @@
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
@@ -5299,46 +5307,46 @@
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0.02</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.67547147684162301</v>
+        <v>0.67455867754859378</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.8885650375487034E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>262</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.343819156289834</v>
+        <v>10.329841022294847</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>246</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0.01</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.76879736972424439</v>
       </c>
@@ -5347,16 +5355,16 @@
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>7.3081874090513851E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.4324324324324328E-2</v>
+        <v>7.4424898511502038E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5375,10 +5383,10 @@
       <c r="F28" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5386,22 +5394,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.704594706192351</v>
+        <v>12.419646158775766</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>29.505546231349502</v>
+        <v>28.646825796748232</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.056238327651389</v>
-      </c>
-      <c r="G29" s="273">
+        <v>14.72005285376887</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>25.656996722912613</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>24.910283301520202</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5413,17 +5421,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5433,7 +5441,7 @@
       <c r="B34" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>agree</v>
@@ -5441,17 +5449,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5461,24 +5469,24 @@
       <c r="B37" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5488,7 +5496,7 @@
       <c r="B40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5507,10 +5515,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6492,16 +6500,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>205</v>
       </c>
       <c r="I2" s="7"/>
@@ -6515,11 +6523,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45382</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F3" s="85">
@@ -6552,7 +6560,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>202</v>
       </c>
       <c r="F4" s="93">
@@ -6616,47 +6624,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>15325962</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>11977844</v>
       </c>
-      <c r="E6" s="201">
+      <c r="E6" s="200">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>11737803</v>
       </c>
-      <c r="F6" s="201">
+      <c r="F6" s="200">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>8861335</v>
       </c>
-      <c r="G6" s="201">
+      <c r="G6" s="200">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>11233771</v>
       </c>
-      <c r="H6" s="201">
+      <c r="H6" s="200">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>15859990</v>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6718,47 +6726,47 @@
       <c r="B8" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>11151623</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>8747447</v>
       </c>
-      <c r="E8" s="200">
+      <c r="E8" s="199">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>8503976</v>
       </c>
-      <c r="F8" s="200">
+      <c r="F8" s="199">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>6229020</v>
       </c>
-      <c r="G8" s="200">
+      <c r="G8" s="199">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>7910751</v>
       </c>
-      <c r="H8" s="200">
+      <c r="H8" s="199">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>11826154</v>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6769,47 +6777,47 @@
       <c r="B9" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>4174339</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>3230397</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
         <v>3233827</v>
       </c>
-      <c r="F9" s="152">
+      <c r="F9" s="151">
         <f t="shared" si="2"/>
         <v>2632315</v>
       </c>
-      <c r="G9" s="152">
+      <c r="G9" s="151">
         <f t="shared" si="2"/>
         <v>3323020</v>
       </c>
-      <c r="H9" s="152">
+      <c r="H9" s="151">
         <f t="shared" si="2"/>
         <v>4033836</v>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6820,47 +6828,47 @@
       <c r="B10" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>2297566</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1867515</v>
       </c>
-      <c r="E10" s="200">
+      <c r="E10" s="199">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>1815111</v>
       </c>
-      <c r="F10" s="200">
+      <c r="F10" s="199">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>1694480</v>
       </c>
-      <c r="G10" s="200">
+      <c r="G10" s="199">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>2118252</v>
       </c>
-      <c r="H10" s="200">
+      <c r="H10" s="199">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>2416769</v>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6871,47 +6879,47 @@
       <c r="B11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6922,47 +6930,47 @@
       <c r="B12" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="200">
+      <c r="E12" s="199">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="200">
+      <c r="F12" s="199">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2398.6666666666665</v>
       </c>
-      <c r="G12" s="200">
+      <c r="G12" s="199">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1782.6666666666667</v>
       </c>
-      <c r="H12" s="200">
+      <c r="H12" s="199">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>14544</v>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6970,50 +6978,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.12245710905455723</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.11378358242100998</v>
       </c>
-      <c r="E13" s="230">
+      <c r="E13" s="229">
         <f t="shared" si="3"/>
         <v>0.12086725258551366</v>
       </c>
-      <c r="F13" s="230">
+      <c r="F13" s="229">
         <f t="shared" si="3"/>
         <v>0.10556381553494291</v>
       </c>
-      <c r="G13" s="230">
+      <c r="G13" s="229">
         <f t="shared" si="3"/>
         <v>0.10708651024961549</v>
       </c>
-      <c r="H13" s="230">
+      <c r="H13" s="229">
         <f t="shared" si="3"/>
         <v>0.10104186698730579</v>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7021,50 +7029,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1876773</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1362882</v>
       </c>
-      <c r="E14" s="231">
+      <c r="E14" s="230">
         <f t="shared" si="4"/>
         <v>1418716</v>
       </c>
-      <c r="F14" s="231">
+      <c r="F14" s="230">
         <f t="shared" si="4"/>
         <v>935436.33333333337</v>
       </c>
-      <c r="G14" s="231">
+      <c r="G14" s="230">
         <f t="shared" si="4"/>
         <v>1202985.3333333333</v>
       </c>
-      <c r="H14" s="231">
+      <c r="H14" s="230">
         <f t="shared" si="4"/>
         <v>1602523</v>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7072,50 +7080,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.37706199069325153</v>
       </c>
-      <c r="D15" s="233">
+      <c r="D15" s="232">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-3.9355304373814071E-2</v>
       </c>
-      <c r="E15" s="233">
+      <c r="E15" s="232">
         <f t="shared" si="5"/>
         <v>0.51663555225030455</v>
       </c>
-      <c r="F15" s="233">
+      <c r="F15" s="232">
         <f t="shared" si="5"/>
         <v>-0.22240420775426459</v>
       </c>
-      <c r="G15" s="233">
+      <c r="G15" s="232">
         <f t="shared" si="5"/>
         <v>-0.24931789850546091</v>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7126,47 +7134,47 @@
       <c r="B16" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>626583</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>352099</v>
       </c>
-      <c r="E16" s="200">
+      <c r="E16" s="199">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>1045251</v>
       </c>
-      <c r="F16" s="200">
+      <c r="F16" s="199">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>-818677</v>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7177,47 +7185,47 @@
       <c r="B17" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>59596</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>20763</v>
       </c>
-      <c r="E17" s="200">
+      <c r="E17" s="199">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>23097</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="199">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>28849</v>
       </c>
-      <c r="G17" s="200">
+      <c r="G17" s="199">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>63075</v>
       </c>
-      <c r="H17" s="200">
+      <c r="H17" s="199">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>34253</v>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7228,47 +7236,47 @@
       <c r="B18" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>2.9789581887257714E-2</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>3.1156775793707115E-2</v>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7279,47 +7287,47 @@
       <c r="B19" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>456554</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>373191</v>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7330,47 +7338,47 @@
       <c r="B20" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>4.413341231043115E-2</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>8.9565367523571013E-3</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="152">
         <f t="shared" si="7"/>
         <v>3.8804791663312119E-2</v>
       </c>
-      <c r="F20" s="153">
+      <c r="F20" s="152">
         <f t="shared" si="7"/>
         <v>1.5679014505150749E-2</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="153">
+      <c r="H20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7381,47 +7389,47 @@
       <c r="B21" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>676387</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>107280</v>
       </c>
-      <c r="E21" s="200">
+      <c r="E21" s="199">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>455483</v>
       </c>
-      <c r="F21" s="200">
+      <c r="F21" s="199">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>138937</v>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7432,47 +7440,47 @@
       <c r="B22" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>970761</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>724109</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="161">
         <f t="shared" si="8"/>
         <v>-105115</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="161">
         <f t="shared" si="8"/>
         <v>767650.33333333337</v>
       </c>
-      <c r="G22" s="162">
+      <c r="G22" s="161">
         <f t="shared" si="8"/>
         <v>1139910.3333333333</v>
       </c>
-      <c r="H22" s="162">
+      <c r="H22" s="161">
         <f t="shared" si="8"/>
         <v>1568270</v>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7483,47 +7491,47 @@
       <c r="B23" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>4.7505712855088637E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>4.5340526224919943E-2</v>
       </c>
-      <c r="E23" s="154">
+      <c r="E23" s="153">
         <f t="shared" si="9"/>
         <v>-6.7164400356693665E-3</v>
       </c>
-      <c r="F23" s="154">
+      <c r="F23" s="153">
         <f t="shared" si="9"/>
         <v>6.4971897575252485E-2</v>
       </c>
-      <c r="G23" s="154">
+      <c r="G23" s="153">
         <f t="shared" si="9"/>
         <v>7.6103807884280353E-2</v>
       </c>
-      <c r="H23" s="154">
+      <c r="H23" s="153">
         <f t="shared" si="9"/>
         <v>7.4161616747551548E-2</v>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7534,7 +7542,7 @@
       <c r="B24" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>728070.75</v>
       </c>
@@ -7582,50 +7590,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.34062827557729569</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="F25" s="234">
+      <c r="F25" s="233">
         <f t="shared" si="10"/>
         <v>-0.32656954596721205</v>
       </c>
-      <c r="G25" s="234">
+      <c r="G25" s="233">
         <f t="shared" si="10"/>
         <v>-0.27314152962606353</v>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7742,43 +7750,43 @@
         <f>Fin_Analysis!C28</f>
         <v>12332308</v>
       </c>
-      <c r="D28" s="200">
+      <c r="D28" s="199">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v>11972903</v>
       </c>
-      <c r="E28" s="200">
+      <c r="E28" s="199">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v>13002006</v>
       </c>
-      <c r="F28" s="200">
+      <c r="F28" s="199">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v>11732726</v>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7793,43 +7801,43 @@
         <f>Fin_Analysis!C13</f>
         <v>265773</v>
       </c>
-      <c r="D29" s="200">
+      <c r="D29" s="199">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>213823</v>
       </c>
-      <c r="E29" s="200">
+      <c r="E29" s="199">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v>187711</v>
       </c>
-      <c r="F29" s="200">
+      <c r="F29" s="199">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v>277338</v>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7844,43 +7852,43 @@
         <f>Fin_Analysis!C18</f>
         <v>9672256</v>
       </c>
-      <c r="D30" s="200">
+      <c r="D30" s="199">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>8852611</v>
       </c>
-      <c r="E30" s="200">
+      <c r="E30" s="199">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v>8769304</v>
       </c>
-      <c r="F30" s="200">
+      <c r="F30" s="199">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v>7321614</v>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7895,43 +7903,43 @@
         <f>Fin_Analysis!I28</f>
         <v>3516809</v>
       </c>
-      <c r="D31" s="200">
+      <c r="D31" s="199">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>2466431</v>
       </c>
-      <c r="E31" s="200">
+      <c r="E31" s="199">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>3908586</v>
       </c>
-      <c r="F31" s="200">
+      <c r="F31" s="199">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>2946772</v>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7946,43 +7954,43 @@
         <f>Fin_Analysis!I48</f>
         <v>473357</v>
       </c>
-      <c r="D32" s="200">
+      <c r="D32" s="199">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v>241133</v>
       </c>
-      <c r="E32" s="200">
+      <c r="E32" s="199">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v>233155</v>
       </c>
-      <c r="F32" s="200">
+      <c r="F32" s="199">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v>241043</v>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7997,43 +8005,43 @@
         <f>Fin_Analysis!I15</f>
         <v>1715502</v>
       </c>
-      <c r="D33" s="200">
+      <c r="D33" s="199">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>1035175</v>
       </c>
-      <c r="E33" s="200">
+      <c r="E33" s="199">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>1587989</v>
       </c>
-      <c r="F33" s="200">
+      <c r="F33" s="199">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>1050082</v>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -8048,43 +8056,43 @@
         <f>Fin_Analysis!I34</f>
         <v>319420</v>
       </c>
-      <c r="D34" s="200">
+      <c r="D34" s="199">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>67759</v>
       </c>
-      <c r="E34" s="200">
+      <c r="E34" s="199">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>153013</v>
       </c>
-      <c r="F34" s="200">
+      <c r="F34" s="199">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>81854</v>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8150,43 +8158,43 @@
         <f>Fin_Analysis!D3</f>
         <v>12863898</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="199">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>12220942</v>
       </c>
-      <c r="E36" s="200">
+      <c r="E36" s="199">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>12078528</v>
       </c>
-      <c r="F36" s="200">
+      <c r="F36" s="199">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>11324224</v>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8201,43 +8209,43 @@
         <f>Fin_Analysis!D4</f>
         <v>-26962</v>
       </c>
-      <c r="D37" s="200">
+      <c r="D37" s="199">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>-498</v>
       </c>
-      <c r="E37" s="200">
+      <c r="E37" s="199">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>468</v>
       </c>
-      <c r="F37" s="200">
+      <c r="F37" s="199">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>411</v>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8252,43 +8260,43 @@
         <f>Fin_Analysis!C63</f>
         <v>2923945</v>
       </c>
-      <c r="D38" s="200">
+      <c r="D38" s="199">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>3475378</v>
       </c>
-      <c r="E38" s="200">
+      <c r="E38" s="199">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v>4499643</v>
       </c>
-      <c r="F38" s="200">
+      <c r="F38" s="199">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v>4455433</v>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8350,47 +8358,47 @@
       <c r="B40" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>0.13472770763839131</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>0.11899648724785054</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v>0.12104438790214789</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v>9.3017100732924546E-2</v>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8419,47 +8427,47 @@
       <c r="B42" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.7303022981431383</v>
       </c>
-      <c r="E42" s="157">
+      <c r="E42" s="156">
         <f t="shared" si="34"/>
         <v>0.7244946946204498</v>
       </c>
-      <c r="F42" s="157">
+      <c r="F42" s="156">
         <f t="shared" si="34"/>
         <v>0.70294374380383995</v>
       </c>
-      <c r="G42" s="157">
+      <c r="G42" s="156">
         <f t="shared" si="34"/>
         <v>0.70419372087965826</v>
       </c>
-      <c r="H42" s="157">
+      <c r="H42" s="156">
         <f t="shared" si="34"/>
         <v>0.74565961264792724</v>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8470,47 +8478,47 @@
       <c r="B43" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.14991333007350532</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.15591411943585173</v>
       </c>
-      <c r="E43" s="154">
+      <c r="E43" s="153">
         <f t="shared" si="35"/>
         <v>0.1546380527940365</v>
       </c>
-      <c r="F43" s="154">
+      <c r="F43" s="153">
         <f t="shared" si="35"/>
         <v>0.19122175157580659</v>
       </c>
-      <c r="G43" s="154">
+      <c r="G43" s="153">
         <f t="shared" si="35"/>
         <v>0.18856108069142588</v>
       </c>
-      <c r="H43" s="154">
+      <c r="H43" s="153">
         <f t="shared" si="35"/>
         <v>0.15238149582692045</v>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8521,47 +8529,47 @@
       <c r="B44" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>4.0883763120383568E-2</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>2.9395857885609465E-2</v>
       </c>
-      <c r="E44" s="154">
+      <c r="E44" s="153">
         <f t="shared" si="36"/>
         <v>8.9049969572670459E-2</v>
       </c>
-      <c r="F44" s="154">
+      <c r="F44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G44" s="154">
+      <c r="G44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H44" s="154">
+      <c r="H44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8572,47 +8580,47 @@
       <c r="B45" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>1.7334505274905901E-3</v>
       </c>
-      <c r="E45" s="154">
+      <c r="E45" s="153">
         <f t="shared" si="37"/>
         <v>1.9677447304235723E-3</v>
       </c>
-      <c r="F45" s="154">
+      <c r="F45" s="153">
         <f t="shared" si="37"/>
         <v>3.2556042627888463E-3</v>
       </c>
-      <c r="G45" s="154">
+      <c r="G45" s="153">
         <f t="shared" si="37"/>
         <v>5.6147664039083583E-3</v>
       </c>
-      <c r="H45" s="154">
+      <c r="H45" s="153">
         <f t="shared" si="37"/>
         <v>2.1597113239037349E-3</v>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8623,47 +8631,47 @@
       <c r="B46" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="154">
+      <c r="E46" s="153">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F46" s="154">
+      <c r="F46" s="153">
         <f t="shared" si="38"/>
         <v>2.7068908541056925E-4</v>
       </c>
-      <c r="G46" s="154">
+      <c r="G46" s="153">
         <f t="shared" si="38"/>
         <v>1.5868817930031392E-4</v>
       </c>
-      <c r="H46" s="154">
+      <c r="H46" s="153">
         <f t="shared" si="38"/>
         <v>9.1702453784649294E-4</v>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8674,47 +8682,47 @@
       <c r="B47" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.4343830423173436E-2</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>2.2200239041350014E-2</v>
       </c>
-      <c r="E47" s="154">
+      <c r="E47" s="153">
         <f t="shared" si="39"/>
         <v>3.8804791663312119E-2</v>
       </c>
-      <c r="F47" s="154">
+      <c r="F47" s="153">
         <f t="shared" si="39"/>
         <v>1.5679014505150749E-2</v>
       </c>
-      <c r="G47" s="154">
+      <c r="G47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H47" s="154">
+      <c r="H47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8725,47 +8733,47 @@
       <c r="B48" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>6.3340950473451521E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>6.0454034966559926E-2</v>
       </c>
-      <c r="E48" s="154">
+      <c r="E48" s="153">
         <f t="shared" si="40"/>
         <v>-8.9552533808924892E-3</v>
       </c>
-      <c r="F48" s="154">
+      <c r="F48" s="153">
         <f t="shared" si="40"/>
         <v>8.6629196767003327E-2</v>
       </c>
-      <c r="G48" s="154">
+      <c r="G48" s="153">
         <f t="shared" si="40"/>
         <v>0.10147174384570713</v>
       </c>
-      <c r="H48" s="154">
+      <c r="H48" s="153">
         <f t="shared" si="40"/>
         <v>9.8882155663402055E-2</v>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8794,47 +8802,47 @@
       <c r="B50" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>1.7341358408692387E-2</v>
       </c>
-      <c r="D50" s="157">
+      <c r="D50" s="156">
         <f t="shared" si="41"/>
         <v>1.7851543232655226E-2</v>
       </c>
-      <c r="E50" s="157">
+      <c r="E50" s="156">
         <f t="shared" si="41"/>
         <v>1.5992004636642819E-2</v>
       </c>
-      <c r="F50" s="157">
+      <c r="F50" s="156">
         <f t="shared" si="41"/>
         <v>3.1297541510393184E-2</v>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8845,47 +8853,47 @@
       <c r="B51" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0.63110270011109249</v>
       </c>
-      <c r="D51" s="154">
+      <c r="D51" s="153">
         <f t="shared" si="42"/>
         <v>0.73908217538982812</v>
       </c>
-      <c r="E51" s="154">
+      <c r="E51" s="153">
         <f t="shared" si="42"/>
         <v>0.74709926550990846</v>
       </c>
-      <c r="F51" s="154">
+      <c r="F51" s="153">
         <f t="shared" si="42"/>
         <v>0.82624277267477186</v>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8913,47 +8921,47 @@
       <c r="B53" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.23674800333023538</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.1813687183432823</v>
       </c>
-      <c r="E53" s="157">
+      <c r="E53" s="156">
         <f t="shared" si="43"/>
         <v>0.2553435457821322</v>
       </c>
-      <c r="F53" s="157">
+      <c r="F53" s="156">
         <f t="shared" si="43"/>
         <v>0.21966692619831024</v>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8963,47 +8971,47 @@
       <c r="B54" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>0.4770507174230757</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="157">
         <f t="shared" si="44"/>
         <v>0.6565297651536719</v>
       </c>
-      <c r="E54" s="158">
+      <c r="E54" s="157">
         <f t="shared" si="44"/>
         <v>-6.0376151204880865E-2</v>
       </c>
-      <c r="F54" s="158">
+      <c r="F54" s="157">
         <f t="shared" si="44"/>
         <v>0.67817467889821803</v>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -9013,47 +9021,47 @@
       <c r="B55" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>6.1391011793840093E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>2.8673859874687374E-2</v>
       </c>
-      <c r="E55" s="154">
+      <c r="E55" s="153">
         <f t="shared" si="45"/>
         <v>-0.21973077106026734</v>
       </c>
-      <c r="F55" s="154">
+      <c r="F55" s="153">
         <f t="shared" si="45"/>
         <v>3.7580912490105083E-2</v>
       </c>
-      <c r="G55" s="154">
+      <c r="G55" s="153">
         <f t="shared" si="45"/>
         <v>5.5333299607483753E-2</v>
       </c>
-      <c r="H55" s="154">
+      <c r="H55" s="153">
         <f t="shared" si="45"/>
         <v>2.1841264578165751E-2</v>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9063,47 +9071,47 @@
       <c r="B56" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>3.5066755118062995</v>
       </c>
-      <c r="D56" s="159">
+      <c r="D56" s="158">
         <f t="shared" si="46"/>
         <v>4.8543433811852026</v>
       </c>
-      <c r="E56" s="159">
+      <c r="E56" s="158">
         <f t="shared" si="46"/>
         <v>3.3265242212912804</v>
       </c>
-      <c r="F56" s="159">
+      <c r="F56" s="158">
         <f t="shared" si="46"/>
         <v>3.9815520169188523</v>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10401,8 +10409,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10451,7 +10459,7 @@
       <c r="H3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>12890860</v>
       </c>
@@ -10548,7 +10556,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45382</v>
       </c>
@@ -10595,7 +10603,7 @@
         <f>Inputs!C48</f>
         <v>1998219</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10623,7 +10631,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10651,7 +10659,7 @@
         <f>Inputs!C50</f>
         <v>265773</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10679,7 +10687,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10692,7 +10700,7 @@
       <c r="H14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10707,7 +10715,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10734,7 +10742,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10756,7 +10764,7 @@
         <f>Inputs!C54</f>
         <v>366595</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10778,7 +10786,7 @@
         <f>Inputs!C55</f>
         <v>9672256</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10799,7 +10807,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10824,7 +10832,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10851,7 +10859,7 @@
         <f>Inputs!C58</f>
         <v>29465</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10872,7 +10880,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -11037,7 +11045,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>3516809</v>
       </c>
@@ -11066,7 +11074,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -11092,7 +11100,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -11119,7 +11127,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11146,7 +11154,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11162,7 +11170,7 @@
       <c r="H33" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11176,7 +11184,7 @@
         <f>Inputs!C64</f>
         <v>103050</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11203,7 +11211,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11229,7 +11237,7 @@
         <f>Inputs!C66</f>
         <v>925726</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11256,7 +11264,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11283,7 +11291,7 @@
         <f>Inputs!C68</f>
         <v>2522337</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11304,7 +11312,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11325,7 +11333,7 @@
         <f>Inputs!C70</f>
         <v>538321</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11346,7 +11354,7 @@
         <f>Inputs!C71</f>
         <v>154648</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11367,7 +11375,7 @@
         <f>Inputs!C72</f>
         <v>277674</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11513,7 +11521,7 @@
       <c r="H48" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>473357</v>
       </c>
@@ -11622,11 +11630,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>2034922</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11637,11 +11645,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11653,11 +11661,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11753,8 +11761,8 @@
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>2034922</v>
@@ -11834,8 +11842,8 @@
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>1955244</v>
@@ -11871,19 +11879,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11893,18 +11901,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11915,17 +11923,17 @@
         <f>Data!C6</f>
         <v>15325962</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>12260769.600000001</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>15325962</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11936,23 +11944,23 @@
         <f>Data!C8</f>
         <v>11151623</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>8921298.4000000004</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>11151623</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.72762956087193742</v>
       </c>
@@ -11962,21 +11970,21 @@
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>4174339</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>3339471.2000000011</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>4174339</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11987,23 +11995,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>2297566</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.14991333007350532</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>2027931.2918400001</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.16539999999999999</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>2534914.1148000001</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.16540000000000002</v>
       </c>
@@ -12017,54 +12025,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>1876773</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.12245710905455723</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>1311539.908160001</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.10697043912806263</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>1639424.8851999999</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.10697043912806256</v>
       </c>
@@ -12078,27 +12086,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>626583</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>4.0883763120383568E-2</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>245215.39200000002</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0.02</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>306519.24</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0.02</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>132</v>
       </c>
     </row>
@@ -12110,23 +12118,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>59596</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>47676.80000000001</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>59596</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>3.8885650375487034E-3</v>
       </c>
@@ -12140,23 +12148,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>219833</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>1.4343830423173436E-2</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>122607.69600000001</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0.01</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>153259.62</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0.01</v>
       </c>
@@ -12166,27 +12174,27 @@
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>970761</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>6.3340950473451521E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>896040.020160001</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>7.3081874090513935E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>1120050.0251999998</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>7.3081874090513851E-2</v>
       </c>
@@ -12196,49 +12204,49 @@
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>728070.75</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>4.7505712855088637E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>672030.01512000081</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>5.4811405567885454E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>840037.51889999979</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>5.4811405567885385E-2</v>
       </c>
@@ -12248,69 +12256,69 @@
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.2400971133327547</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.1446449151037597</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.4308061438796973</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.37903454954564E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>8.3903728912906275E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7340872642145925E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>7.7445528762094706E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6676090802682246E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>9.680691095261823E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>1.0966883039869408</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>1</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.87363337468663993</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.76879736972424439</v>
       </c>
@@ -12320,21 +12328,21 @@
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1891891891891883E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>9.2016238159675232E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7567567567567557E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>6.7658998646820026E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4324324324324328E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>7.4424898511502038E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12356,22 +12364,22 @@
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12381,9 +12389,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12391,15 +12399,15 @@
         <v>210</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>25.755901278372892</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>25.182767969458858</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>35.18948882688472</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>34.410243997345361</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12407,24 +12415,27 @@
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>21.498944727661122</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>21.01933096496797</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>24.406753511631408</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>23.863221355255725</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12445,14 +12456,14 @@
       <c r="D96" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12467,21 +12478,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10271683.844196031</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>10044225.111685611</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.805234912246485</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>12.5202863648299</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.495395171766194</v>
+        <v>17.107972771417742</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>25.744509945568382</v>
+        <v>24.997796524175971</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12493,14 +12504,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12511,17 +12522,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>-51379.699999999953</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>-0.1006402060541346</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>-8.7513222655769218E-2</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12530,27 +12541,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10220304.144196032</v>
+        <v>9992845.4116856121</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.704594706192351</v>
+        <v>12.419646158775766</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.704594706192351</v>
+        <v>12.419646158775766</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.056238327651389</v>
+        <v>14.72005285376887</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>17.407881949110426</v>
+        <v>17.020459548761973</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>25.656996722912613</v>
+        <v>24.910283301520202</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12569,14 +12580,14 @@
       <c r="D102" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12591,27 +12602,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7124242.6102866773</v>
+        <v>6965587.5500523346</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.6998792024349623</v>
+        <v>9.4836883546299884</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.688775152056939</v>
+        <v>10.450322347317028</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.411622591099956</v>
+        <v>11.157280417211751</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>12.134470030142975</v>
+        <v>11.864238487106475</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>17.855897583802921</v>
+        <v>17.335766404215953</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12630,14 +12641,14 @@
       <c r="D105" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12652,27 +12663,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6867215.5408657733</v>
+        <v>6713569.019589927</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.202236954313657</v>
+        <v>10.951667256702876</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.696684929124645</v>
+        <v>11.434984253046398</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.233930459375673</v>
+        <v>12.938666635490311</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.7711759896267</v>
+        <v>14.442349017934223</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.756447153357769</v>
+        <v>21.123024852868078</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A53F4B00-777D-47C2-8927-9234AB5C4BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70781611-02B3-4ACA-90D9-69EC0E7F6531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3580,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4290,27 +4290,27 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.2016238159675232E-2</v>
+        <v>9.1275167785234895E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4424898511502038E-2</v>
+        <v>7.3825503355704702E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4424898511502038E-2</v>
+        <v>7.3825503355704702E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7658998646820026E-2</v>
+        <v>6.7114093959731544E-2</v>
       </c>
       <c r="G45" s="152">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7658998646820026E-2</v>
+        <v>6.7114093959731544E-2</v>
       </c>
       <c r="H45" s="152">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.7807848443843031E-2</v>
+        <v>7.7181208053691261E-2</v>
       </c>
       <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4748,7 +4748,9 @@
       <c r="C87" s="236" t="s">
         <v>254</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -5059,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.78</v>
+        <v>14.9</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5100,7 +5102,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>8677.4540230000002</v>
+        <v>8747.9069650000001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5195,10 +5197,10 @@
         <v>257</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5245,7 +5247,7 @@
         <v>258</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5316,7 +5318,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.67455867754859378</v>
+        <v>0.68003547330676917</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5332,7 +5334,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.329841022294847</v>
+        <v>10.413709826264764</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5364,7 +5366,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.4424898511502038E-2</v>
+        <v>7.3825503355704702E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5394,20 +5396,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.419646158775766</v>
+        <v>12.383448752455315</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>28.646825796748232</v>
+        <v>26.002475615962307</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.72005285376887</v>
+        <v>14.671594812844084</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>24.910283301520202</v>
+        <v>22.610848361706356</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12279,17 +12281,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3903728912906275E-2</v>
+        <v>8.3227994183406359E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7445528762094706E-2</v>
+        <v>7.6821806382802657E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.680691095261823E-2</v>
+        <v>9.6027257978503172E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12330,17 +12332,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2016238159675232E-2</v>
+        <v>9.1275167785234895E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7658998646820026E-2</v>
+        <v>6.7114093959731544E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4424898511502038E-2</v>
+        <v>7.3825503355704702E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12389,7 +12391,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12400,14 +12402,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>25.182767969458858</v>
+        <v>25.109962056087362</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>34.410243997345361</v>
+        <v>34.288117052904383</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12421,21 +12423,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.01933096496797</v>
+        <v>20.96574715783747</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.863221355255725</v>
+        <v>23.796732068459022</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12478,21 +12480,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10044225.111685611</v>
+        <v>10008576.700640863</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.5202863648299</v>
+        <v>12.484088958509449</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.107972771417742</v>
+        <v>17.047254095888622</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.997796524175971</v>
+        <v>22.698361584362125</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12541,27 +12543,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9992845.4116856121</v>
+        <v>9957197.0006408636</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.419646158775766</v>
+        <v>12.383448752455315</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.419646158775766</v>
+        <v>12.383448752455315</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.72005285376887</v>
+        <v>14.671594812844084</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>17.020459548761973</v>
+        <v>16.959740873232853</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>24.910283301520202</v>
+        <v>22.610848361706356</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12602,27 +12604,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6965587.5500523346</v>
+        <v>6946179.5689827139</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.4836883546299884</v>
+        <v>9.4583168963747344</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.450322347317028</v>
+        <v>10.423681725023034</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.157280417211751</v>
+        <v>11.127431642793805</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.864238487106475</v>
+        <v>11.831181560564577</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>17.335766404215953</v>
+        <v>15.753178519037844</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12663,27 +12665,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6713569.019589927</v>
+        <v>6695122.6696508937</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.951667256702876</v>
+        <v>10.920882824415024</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.434984253046398</v>
+        <v>11.403565238739175</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.938666635490311</v>
+        <v>12.899513227818945</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.442349017934223</v>
+        <v>14.395461216898715</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.123024852868078</v>
+        <v>19.182013440372099</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70781611-02B3-4ACA-90D9-69EC0E7F6531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF6FE2F5-EFE3-42A3-BCBB-45CCFF25E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4290,27 +4290,27 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1275167785234895E-2</v>
+        <v>9.0666666666666659E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3825503355704702E-2</v>
+        <v>7.3333333333333334E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3825503355704702E-2</v>
+        <v>7.3333333333333334E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7114093959731544E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G45" s="152">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7114093959731544E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="H45" s="152">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.7181208053691261E-2</v>
+        <v>7.6666666666666661E-2</v>
       </c>
       <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>8747.9069650000001</v>
+        <v>8806.6177499999994</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.68003547330676917</v>
+        <v>0.68459946977191521</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.413709826264764</v>
+        <v>10.483600496239696</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3825503355704702E-2</v>
+        <v>7.3333333333333334E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5396,20 +5396,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.383448752455315</v>
+        <v>12.353789297553718</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>26.002475615962307</v>
+        <v>25.926331397777052</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.671594812844084</v>
+        <v>14.63190119856484</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.610848361706356</v>
+        <v>22.544635998067005</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12281,17 +12281,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3227994183406359E-2</v>
+        <v>8.2673140888850319E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6821806382802657E-2</v>
+        <v>7.6309661006917315E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6027257978503172E-2</v>
+        <v>9.538707625864648E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12332,17 +12332,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1275167785234895E-2</v>
+        <v>9.0666666666666659E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7114093959731544E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3825503355704702E-2</v>
+        <v>7.3333333333333334E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12402,14 +12402,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>25.109962056087362</v>
+        <v>25.050306298293702</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>34.288117052904383</v>
+        <v>34.188096737941223</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12430,14 +12430,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.96574715783747</v>
+        <v>20.921830652201027</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.796732068459022</v>
+        <v>23.742247857558294</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12480,21 +12480,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10008576.700640863</v>
+        <v>9979381.1343638785</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.484088958509449</v>
+        <v>12.454429503607852</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.047254095888622</v>
+        <v>16.997526322231732</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>22.698361584362125</v>
+        <v>22.632149220722773</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12543,27 +12543,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9957197.0006408636</v>
+        <v>9928001.4343638793</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.383448752455315</v>
+        <v>12.353789297553718</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.383448752455315</v>
+        <v>12.353789297553718</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.671594812844084</v>
+        <v>14.63190119856484</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>16.959740873232853</v>
+        <v>16.910013099575963</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>22.610848361706356</v>
+        <v>22.544635998067005</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12604,27 +12604,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6946179.5689827139</v>
+        <v>6930275.8259182451</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.4583168963747344</v>
+        <v>9.4375248139001755</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.423681725023034</v>
+        <v>10.401847460124998</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.127431642793805</v>
+        <v>11.102970369294324</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.831181560564577</v>
+        <v>11.80409327846365</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.753178519037844</v>
+        <v>15.717110562382329</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12665,27 +12665,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6695122.6696508937</v>
+        <v>6680006.4860908603</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.920882824415024</v>
+        <v>10.895657055726947</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.403565238739175</v>
+        <v>11.377818378839358</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.899513227818945</v>
+        <v>12.867435783929583</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.395461216898715</v>
+        <v>14.357053189019807</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>19.182013440372099</v>
+        <v>19.130873280224666</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF6FE2F5-EFE3-42A3-BCBB-45CCFF25E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB642E13-52F2-433C-B491-37C84050B1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -944,6 +944,14 @@
   </si>
   <si>
     <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3609,7 +3617,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3641,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3707,7 +3715,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4290,27 +4298,27 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.0666666666666659E-2</v>
+        <v>9.4052558782849224E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3333333333333334E-2</v>
+        <v>7.6071922544951598E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3333333333333334E-2</v>
+        <v>7.6071922544951598E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>6.9156293222683254E-2</v>
       </c>
       <c r="G45" s="152">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>6.9156293222683254E-2</v>
       </c>
       <c r="H45" s="152">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6666666666666661E-2</v>
+        <v>7.9529737206085749E-2</v>
       </c>
       <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4415,7 +4423,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>264</v>
       </c>
       <c r="C54" s="59">
         <v>366595</v>
@@ -4533,7 +4541,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c r="C64" s="59">
         <v>103050</v>
@@ -5061,10 +5069,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>15</v>
+        <v>14.46</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5102,7 +5110,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>8806.6177499999994</v>
+        <v>8489.5795110000017</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5197,10 +5205,10 @@
         <v>257</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5247,7 +5255,7 @@
         <v>258</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5318,7 +5326,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.68459946977191521</v>
+        <v>0.65995388886012629</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5334,7 +5342,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.483600496239696</v>
+        <v>10.106190878375067</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5366,7 +5374,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3333333333333334E-2</v>
+        <v>7.6071922544951598E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5396,20 +5404,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.353789297553718</v>
+        <v>14.975052899011292</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>25.926331397777052</v>
+        <v>33.110767301108886</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.63190119856484</v>
+        <v>17.762291965859077</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.544635998067005</v>
+        <v>28.79197156618164</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12281,17 +12289,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2673140888850319E-2</v>
+        <v>8.5760519594243065E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6309661006917315E-2</v>
+        <v>7.9159399384768986E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.538707625864648E-2</v>
+        <v>9.8949249230961073E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12332,17 +12340,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0666666666666659E-2</v>
+        <v>9.4052558782849224E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6666666666666666E-2</v>
+        <v>6.9156293222683254E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3333333333333334E-2</v>
+        <v>7.6071922544951598E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12391,7 +12399,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12402,14 +12410,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>25.050306298293702</v>
+        <v>30.322603683417526</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>34.188096737941223</v>
+        <v>41.508467291779205</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12430,14 +12438,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.921830652201027</v>
+        <v>25.285625462441864</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.742247857558294</v>
+        <v>28.725453995086379</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12480,21 +12488,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9979381.1343638785</v>
+        <v>12116170.683120806</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.454429503607852</v>
+        <v>15.075693105065426</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>16.997526322231732</v>
+        <v>20.637044255362632</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>22.632149220722773</v>
+        <v>28.879484788837409</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12543,27 +12551,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9928001.4343638793</v>
+        <v>12064790.983120807</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.353789297553718</v>
+        <v>14.975052899011292</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.353789297553718</v>
+        <v>14.975052899011292</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.63190119856484</v>
+        <v>17.762291965859077</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>16.910013099575963</v>
+        <v>20.549531032706863</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>22.544635998067005</v>
+        <v>28.79197156618164</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12604,27 +12612,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6930275.8259182451</v>
+        <v>8384855.5791779673</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.4375248139001755</v>
+        <v>11.412547165717928</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.401847460124998</v>
+        <v>12.571424717392157</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.102970369294324</v>
+        <v>13.426526077315209</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.80409327846365</v>
+        <v>14.281627437238264</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.717110562382329</v>
+        <v>19.985712935920532</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12665,27 +12673,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6680006.4860908603</v>
+        <v>8086376.6242198776</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.895657055726947</v>
+        <v>13.19380003236461</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.377818378839358</v>
+        <v>13.773238808201725</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.867435783929583</v>
+        <v>15.594409021587143</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.357053189019807</v>
+        <v>17.415579234972562</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>19.130873280224666</v>
+        <v>24.388842251051088</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB642E13-52F2-433C-B491-37C84050B1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E1E5B2A-3A2E-43AE-9757-5F0E15C5B792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -952,6 +952,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3617,7 +3621,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3715,7 +3719,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -5072,7 +5076,7 @@
         <v>14.46</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5180,7 +5184,7 @@
         <v>176</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>183</v>
@@ -5191,7 +5195,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>190</v>
@@ -5218,7 +5222,7 @@
         <v>177</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>182</v>
@@ -5452,8 +5456,8 @@
         <v>226</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>agree</v>
       </c>
     </row>
@@ -6479,12 +6483,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8910,118 +8914,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>0.18714483778648183</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v>1.4668285834503272</v>
+      </c>
+      <c r="E52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.3633800202192411</v>
+      </c>
+      <c r="F52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.34507864490338203</v>
+      </c>
+      <c r="G52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.23674800333023538</v>
       </c>
-      <c r="D53" s="156">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
+      <c r="D54" s="156">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.1813687183432823</v>
       </c>
-      <c r="E53" s="156">
-        <f t="shared" si="43"/>
+      <c r="E54" s="156">
+        <f t="shared" si="44"/>
         <v>0.2553435457821322</v>
       </c>
-      <c r="F53" s="156">
-        <f t="shared" si="43"/>
+      <c r="F54" s="156">
+        <f t="shared" si="44"/>
         <v>0.21966692619831024</v>
       </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.4770507174230757</v>
-      </c>
-      <c r="D54" s="157">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>0.6565297651536719</v>
-      </c>
-      <c r="E54" s="157">
+        <v/>
+      </c>
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>-6.0376151204880865E-2</v>
-      </c>
-      <c r="F54" s="157">
+        <v/>
+      </c>
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>0.67817467889821803</v>
-      </c>
-      <c r="G54" s="157" t="str">
+        <v/>
+      </c>
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -9029,107 +9034,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>6.1391011793840093E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>121</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.4770507174230757</v>
+      </c>
+      <c r="D55" s="157">
         <f t="shared" si="45"/>
-        <v>2.8673859874687374E-2</v>
-      </c>
-      <c r="E55" s="153">
+        <v>0.6565297651536719</v>
+      </c>
+      <c r="E55" s="157">
         <f t="shared" si="45"/>
-        <v>-0.21973077106026734</v>
-      </c>
-      <c r="F55" s="153">
+        <v>-6.0376151204880865E-2</v>
+      </c>
+      <c r="F55" s="157">
         <f t="shared" si="45"/>
-        <v>3.7580912490105083E-2</v>
-      </c>
-      <c r="G55" s="153">
+        <v>0.67817467889821803</v>
+      </c>
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>5.5333299607483753E-2</v>
-      </c>
-      <c r="H55" s="153">
+        <v/>
+      </c>
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>2.1841264578165751E-2</v>
-      </c>
-      <c r="I55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>6.1391011793840093E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>2.8673859874687374E-2</v>
+      </c>
+      <c r="E56" s="153">
+        <f t="shared" si="46"/>
+        <v>-0.21973077106026734</v>
+      </c>
+      <c r="F56" s="153">
+        <f t="shared" si="46"/>
+        <v>3.7580912490105083E-2</v>
+      </c>
+      <c r="G56" s="153">
+        <f t="shared" si="46"/>
+        <v>5.5333299607483753E-2</v>
+      </c>
+      <c r="H56" s="153">
+        <f t="shared" si="46"/>
+        <v>2.1841264578165751E-2</v>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>3.5066755118062995</v>
       </c>
-      <c r="D56" s="158">
-        <f t="shared" si="46"/>
+      <c r="D57" s="158">
+        <f t="shared" si="47"/>
         <v>4.8543433811852026</v>
       </c>
-      <c r="E56" s="158">
-        <f t="shared" si="46"/>
+      <c r="E57" s="158">
+        <f t="shared" si="47"/>
         <v>3.3265242212912804</v>
       </c>
-      <c r="F56" s="158">
-        <f t="shared" si="46"/>
+      <c r="F57" s="158">
+        <f t="shared" si="47"/>
         <v>3.9815520169188523</v>
       </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9697,7 +9749,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10380,6 +10434,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E1E5B2A-3A2E-43AE-9757-5F0E15C5B792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5ACD2D5-6E4D-45A7-825E-E57D84506FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4302,27 +4302,27 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.4052558782849224E-2</v>
+        <v>9.4182825484764532E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6071922544951598E-2</v>
+        <v>7.6177285318559565E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6071922544951598E-2</v>
+        <v>7.6177285318559565E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9156293222683254E-2</v>
+        <v>6.9252077562326875E-2</v>
       </c>
       <c r="G45" s="152">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9156293222683254E-2</v>
+        <v>6.9252077562326875E-2</v>
       </c>
       <c r="H45" s="152">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.9529737206085749E-2</v>
+        <v>7.9639889196675903E-2</v>
       </c>
       <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5073,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.46</v>
+        <v>14.44</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>8489.5795110000017</v>
+        <v>8477.8373539999993</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.65995388886012629</v>
+        <v>0.65904108956709706</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.106190878375067</v>
+        <v>10.092212744380079</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.6071922544951598E-2</v>
+        <v>7.6177285318559565E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5408,20 +5408,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>14.975052899011292</v>
+        <v>14.982712660261091</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.110767301108886</v>
+        <v>33.13148126790788</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>17.762291965859077</v>
+        <v>17.772557512443676</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.79197156618164</v>
+        <v>28.809983711224245</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10474,8 +10474,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12344,17 +12344,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5760519594243065E-2</v>
+        <v>8.5879301477337591E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9159399384768986E-2</v>
+        <v>7.9269038442088616E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.8949249230961073E-2</v>
+        <v>9.9086298052610614E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12395,17 +12395,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.4052558782849224E-2</v>
+        <v>9.4182825484764532E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9156293222683254E-2</v>
+        <v>6.9252077562326875E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6071922544951598E-2</v>
+        <v>7.6177285318559565E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12465,14 +12465,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>30.322603683417526</v>
+        <v>30.338010199261845</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>41.508467291779205</v>
+        <v>41.534356137747977</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12493,14 +12493,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>25.285625462441864</v>
+        <v>25.296954025690511</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>28.725453995086379</v>
+        <v>28.739519905523885</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12543,21 +12543,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12116170.683120806</v>
+        <v>12123727.543130638</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.075693105065426</v>
+        <v>15.083352866315225</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>20.637044255362632</v>
+        <v>20.649915587282027</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>28.879484788837409</v>
+        <v>28.897496933880014</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12566,7 +12566,7 @@
         <v>145</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12605,28 +12605,28 @@
         <v>115</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>12064790.983120807</v>
+        <f>C97+C98+$C$99</f>
+        <v>12072347.843130639</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.975052899011292</v>
+        <v>14.982712660261091</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>14.975052899011292</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>14.982712660261091</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>17.762291965859077</v>
+        <v>17.772557512443676</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>20.549531032706863</v>
+        <v>20.562402364626259</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>28.79197156618164</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>28.809983711224245</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12667,27 +12667,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8384855.5791779673</v>
+        <v>8388961.3672928661</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>11.412547165717928</v>
+        <v>11.417913020864736</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>12.571424717392157</v>
+        <v>12.57705701548374</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>13.426526077315209</v>
+        <v>13.432838848076161</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>14.281627437238264</v>
+        <v>14.288620680668581</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>19.985712935920532</v>
+        <v>19.995499282490876</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12728,27 +12728,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>8086376.6242198776</v>
+        <v>8090278.5604108721</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.19380003236461</v>
+        <v>13.200312840562914</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.773238808201725</v>
+        <v>13.779884837872416</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.594409021587143</v>
+        <v>15.602698180259917</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>17.415579234972562</v>
+        <v>17.425511522647419</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>24.388842251051088</v>
+        <v>24.402741496857558</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5ACD2D5-6E4D-45A7-825E-E57D84506FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2217C714-CB4D-46FB-93F8-0638C87FB55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4302,27 +4302,27 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.4182825484764532E-2</v>
+        <v>9.4313453536754494E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6177285318559565E-2</v>
+        <v>7.6282940360610271E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6177285318559565E-2</v>
+        <v>7.6282940360610271E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9252077562326875E-2</v>
+        <v>6.9348127600554782E-2</v>
       </c>
       <c r="G45" s="152">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9252077562326875E-2</v>
+        <v>6.9348127600554782E-2</v>
       </c>
       <c r="H45" s="152">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.9639889196675903E-2</v>
+        <v>7.9750346740637995E-2</v>
       </c>
       <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5073,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.44</v>
+        <v>14.42</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>8477.8373539999993</v>
+        <v>8466.0951970000006</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.65904108956709706</v>
+        <v>0.65812829027406783</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.092212744380079</v>
+        <v>10.078234610385094</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.6177285318559565E-2</v>
+        <v>7.6282940360610271E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5408,20 +5408,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>14.982712660261091</v>
+        <v>14.990396795223978</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.13148126790788</v>
+        <v>33.152263070899856</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>17.772557512443676</v>
+        <v>17.782856322054446</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.809983711224245</v>
+        <v>28.828054844260745</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12344,17 +12344,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5879301477337591E-2</v>
+        <v>8.5998412852479528E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9269038442088616E-2</v>
+        <v>7.9378981629941725E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9086298052610614E-2</v>
+        <v>9.9223727037427004E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12395,17 +12395,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.4182825484764532E-2</v>
+        <v>9.4313453536754494E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9252077562326875E-2</v>
+        <v>6.9348127600554782E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6177285318559565E-2</v>
+        <v>7.6282940360610271E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12465,14 +12465,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>30.338010199261845</v>
+        <v>30.353465739349168</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>41.534356137747977</v>
+        <v>41.560329767127293</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12493,14 +12493,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>25.296954025690511</v>
+        <v>25.308318090444448</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>28.739519905523885</v>
+        <v>28.753630366242355</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12543,21 +12543,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12123727.543130638</v>
+        <v>12131309.151109748</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.083352866315225</v>
+        <v>15.091037001278112</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>20.649915587282027</v>
+        <v>20.662829071540685</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>28.897496933880014</v>
+        <v>28.915568066916514</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12606,27 +12606,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>12072347.843130639</v>
+        <v>12079929.451109748</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.982712660261091</v>
+        <v>14.990396795223978</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>14.982712660261091</v>
+        <v>14.990396795223978</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>17.772557512443676</v>
+        <v>17.782856322054446</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>20.562402364626259</v>
+        <v>20.575315848884916</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>28.809983711224245</v>
+        <v>28.828054844260745</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12667,27 +12667,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8388961.3672928661</v>
+        <v>8393080.1594728027</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>11.417913020864736</v>
+        <v>11.423295790962985</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>12.57705701548374</v>
+        <v>12.58270696409782</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>13.432838848076161</v>
+        <v>13.439171518779983</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>14.288620680668581</v>
+        <v>14.295636073462145</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>19.995499282490876</v>
+        <v>20.005316624885573</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12728,27 +12728,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>8090278.5604108721</v>
+        <v>8094192.8329811683</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.200312840562914</v>
+        <v>13.206846293093481</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.779884837872416</v>
+        <v>13.786551879660898</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.602698180259917</v>
+        <v>15.611013920417214</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>17.425511522647419</v>
+        <v>17.43547596117353</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>24.402741496857558</v>
+        <v>24.416685734573157</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2217C714-CB4D-46FB-93F8-0638C87FB55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40E87830-C902-491F-B14D-F7492E9F4D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4302,27 +4302,27 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.4313453536754494E-2</v>
+        <v>9.5104895104895087E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6282940360610271E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6282940360610271E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9348127600554782E-2</v>
+        <v>6.9930069930069921E-2</v>
       </c>
       <c r="G45" s="152">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9348127600554782E-2</v>
+        <v>6.9930069930069921E-2</v>
       </c>
       <c r="H45" s="152">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.9750346740637995E-2</v>
+        <v>8.0419580419580403E-2</v>
       </c>
       <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5073,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.42</v>
+        <v>14.3</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>8466.0951970000006</v>
+        <v>8395.6422550000007</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5209,10 +5209,10 @@
         <v>257</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5259,7 +5259,7 @@
         <v>258</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.65812829027406783</v>
+        <v>0.65265149451589255</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.078234610385094</v>
+        <v>9.9943658064151766</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.6282940360610271E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5408,20 +5408,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>14.990396795223978</v>
+        <v>13.694918145052885</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.152263070899856</v>
+        <v>29.569974250208492</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>17.782856322054446</v>
+        <v>16.254850278106638</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.828054844260745</v>
+        <v>25.713021087137822</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12344,17 +12344,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5998412852479528E-2</v>
+        <v>8.6720077855437394E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9378981629941725E-2</v>
+        <v>8.0045098958304861E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9223727037427004E-2</v>
+        <v>0.10005637369788092</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12395,17 +12395,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.4313453536754494E-2</v>
+        <v>9.5104895104895087E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9348127600554782E-2</v>
+        <v>6.9930069930069921E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6282940360610271E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12454,7 +12454,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12465,14 +12465,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>30.353465739349168</v>
+        <v>27.747795445074743</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>41.560329767127293</v>
+        <v>38.019268183325991</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12493,14 +12493,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>25.308318090444448</v>
+        <v>23.127314974352181</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>28.753630366242355</v>
+        <v>26.282359437086686</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12543,21 +12543,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12131309.151109748</v>
+        <v>11097686.149634194</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.091037001278112</v>
+        <v>13.795558351107019</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>20.662829071540685</v>
+        <v>18.902295633816159</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>28.915568066916514</v>
+        <v>25.800534309793591</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12606,27 +12606,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>12079929.451109748</v>
+        <v>11046306.449634194</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.990396795223978</v>
+        <v>13.694918145052885</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>14.990396795223978</v>
+        <v>13.694918145052885</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>17.782856322054446</v>
+        <v>16.254850278106638</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>20.575315848884916</v>
+        <v>18.81478241116039</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>28.828054844260745</v>
+        <v>25.713021087137822</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12667,27 +12667,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8393080.1594728027</v>
+        <v>7671725.1604696289</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>11.423295790962985</v>
+        <v>10.440269761813019</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>12.58270696409782</v>
+        <v>11.498362955163671</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>13.439171518779983</v>
+        <v>12.282670308015316</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>14.295636073462145</v>
+        <v>13.066977660866959</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.005316624885573</v>
+        <v>17.835664619559257</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12728,27 +12728,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>8094192.8329811683</v>
+        <v>7395586.5505968882</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.206846293093481</v>
+        <v>12.067593953432951</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.786551879660898</v>
+        <v>12.596640550108278</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.611013920417214</v>
+        <v>14.268760293060977</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>17.43547596117353</v>
+        <v>15.940880036013674</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>24.416685734573157</v>
+        <v>21.774342853348539</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40E87830-C902-491F-B14D-F7492E9F4D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5099287F-6AE8-4E94-B456-D71E84D9CFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4302,27 +4313,27 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.5104895104895087E-2</v>
+        <v>9.9125364431486868E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6923076923076927E-2</v>
+        <v>8.0174927113702624E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6923076923076927E-2</v>
+        <v>8.0174927113702624E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9930069930069921E-2</v>
+        <v>7.2886297376093284E-2</v>
       </c>
       <c r="G45" s="152">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9930069930069921E-2</v>
+        <v>7.2886297376093284E-2</v>
       </c>
       <c r="H45" s="152">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.0419580419580403E-2</v>
+        <v>8.3819241982507273E-2</v>
       </c>
       <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5073,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.3</v>
+        <v>13.72</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5114,7 +5125,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>8395.6422550000007</v>
+        <v>8055.119702</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5330,7 +5341,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.65265149451589255</v>
+        <v>0.62618031501804516</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5346,7 +5357,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.9943658064151766</v>
+        <v>9.5889999205605747</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5378,7 +5389,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.6923076923076927E-2</v>
+        <v>8.0174927113702624E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5408,20 +5419,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>13.694918145052885</v>
+        <v>13.912387140776209</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>29.569974250208492</v>
+        <v>30.144805032960274</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>16.254850278106638</v>
+        <v>16.546688860499636</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>25.713021087137822</v>
+        <v>26.21287394170459</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12344,17 +12355,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6720077855437394E-2</v>
+        <v>9.0386086977606028E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0045098958304861E-2</v>
+        <v>8.3428929672285684E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10005637369788092</v>
+        <v>0.10428616209035695</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12395,17 +12406,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.5104895104895087E-2</v>
+        <v>9.9125364431486868E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9930069930069921E-2</v>
+        <v>7.2886297376093284E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6923076923076927E-2</v>
+        <v>8.0174927113702624E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12465,14 +12476,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>27.747795445074743</v>
+        <v>28.185203272681257</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>38.019268183325991</v>
+        <v>38.755843616291401</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12493,14 +12504,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.127314974352181</v>
+        <v>23.448590459280108</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>26.282359437086686</v>
+        <v>26.681570866791425</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12543,21 +12554,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11097686.149634194</v>
+        <v>11312689.840425013</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.795558351107019</v>
+        <v>14.013027346830343</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>18.902295633816159</v>
+        <v>19.268503802878829</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>25.800534309793591</v>
+        <v>26.300387164360359</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12606,27 +12617,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>11046306.449634194</v>
+        <v>11261310.140425013</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.694918145052885</v>
+        <v>13.912387140776209</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.694918145052885</v>
+        <v>13.912387140776209</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.254850278106638</v>
+        <v>16.546688860499636</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.81478241116039</v>
+        <v>19.18099058022306</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>25.713021087137822</v>
+        <v>26.21287394170459</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12667,27 +12678,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7671725.1604696289</v>
+        <v>7788253.5253199795</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.440269761813019</v>
+        <v>10.592508727930955</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.498362955163671</v>
+        <v>11.658093651891512</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>12.282670308015316</v>
+        <v>12.461774974036418</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>13.066977660866959</v>
+        <v>13.265456296181323</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>17.835664619559257</v>
+        <v>18.106576414581028</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12728,27 +12739,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7395586.5505968882</v>
+        <v>7506315.0008247215</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.067593953432951</v>
+        <v>12.252447934353583</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.596640550108278</v>
+        <v>12.785240396333862</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.268760293060977</v>
+        <v>14.504231917268026</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.940880036013674</v>
+        <v>16.22322343820219</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.774342853348539</v>
+        <v>22.159725178142807</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5099287F-6AE8-4E94-B456-D71E84D9CFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA8ABF6-985A-445A-AD77-ED4E02AF2787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -129,13 +126,7 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
-  </si>
-  <si>
-    <t>Orderly Liquidation Value per Shares =</t>
   </si>
   <si>
     <t>Book Quick Ratio</t>
@@ -452,10 +443,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -552,10 +539,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -926,10 +909,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -967,6 +946,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2689,25 +2714,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.72762956087193742</c:v>
+                  <c:v>0.72762956087193753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16540000000000002</c:v>
+                  <c:v>0.16539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>1.9999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.8885650375487034E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>9.9999999999999985E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3081874090513851E-2</c:v>
+                  <c:v>7.3081874090513838E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C10" s="193">
         <v>587107850</v>
@@ -3678,7 +3703,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C14" s="219">
         <v>45382</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3858,7 +3883,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="150">
         <v>11151623</v>
@@ -3886,7 +3911,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="150">
         <v>2297566</v>
@@ -3914,7 +3939,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3930,7 +3955,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C29" s="150">
         <v>59596</v>
@@ -3958,7 +3983,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="150">
         <v>-9467</v>
@@ -3986,7 +4011,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C31" s="150">
         <v>626583</v>
@@ -4010,7 +4035,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="150">
         <v>456554</v>
@@ -4030,7 +4055,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="150">
         <v>676387</v>
@@ -4076,7 +4101,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -4098,7 +4123,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4142,7 +4167,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -4209,7 +4234,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150">
@@ -4231,7 +4256,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4253,7 +4278,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -4275,7 +4300,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C44" s="250">
         <f>0.72+0.64</f>
@@ -4309,31 +4334,31 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9125364431486868E-2</v>
+        <v>9.855072463768115E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.0174927113702624E-2</v>
+        <v>7.9710144927536239E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.0174927113702624E-2</v>
+        <v>7.9710144927536239E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2886297376093284E-2</v>
+        <v>7.2463768115942032E-2</v>
       </c>
       <c r="G45" s="152">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2886297376093284E-2</v>
+        <v>7.2463768115942032E-2</v>
       </c>
       <c r="H45" s="152">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3819241982507273E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4358,21 +4383,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C48" s="59">
         <v>1998219</v>
@@ -4384,7 +4409,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4394,7 +4419,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C50" s="59">
         <v>265773</v>
@@ -4407,7 +4432,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4417,7 +4442,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4427,7 +4452,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4438,7 +4463,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C54" s="59">
         <v>366595</v>
@@ -4450,7 +4475,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C55" s="59">
         <v>9672256</v>
@@ -4463,7 +4488,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4471,24 +4496,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58" s="59">
         <v>29465</v>
@@ -4501,7 +4526,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4512,7 +4537,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4523,7 +4548,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4534,7 +4559,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4545,7 +4570,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4556,7 +4581,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C64" s="59">
         <v>103050</v>
@@ -4568,19 +4593,19 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" s="59">
         <v>925726</v>
@@ -4589,12 +4614,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4602,12 +4627,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" s="59">
         <v>2522337</v>
@@ -4620,7 +4645,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4631,7 +4656,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C70" s="59">
         <v>538321</v>
@@ -4643,7 +4668,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C71" s="59">
         <v>154648</v>
@@ -4656,7 +4681,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="247">
         <v>277674</v>
@@ -4668,7 +4693,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73" s="59">
         <v>1427805</v>
@@ -4676,7 +4701,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C74" s="59">
         <v>287697</v>
@@ -4684,13 +4709,13 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4704,13 +4729,13 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C79" s="59">
         <v>319420</v>
@@ -4718,19 +4743,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C82" s="83">
         <v>473357</v>
@@ -4738,7 +4763,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C83" s="59">
         <v>12890860</v>
@@ -4746,19 +4771,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4766,10 +4791,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4777,18 +4802,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="271">
+        <v>124</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4797,20 +4822,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4822,13 +4847,13 @@
         <v>12260769.600000001</v>
       </c>
       <c r="F91" s="251">
-        <f>C91</f>
-        <v>15325962</v>
+        <f>C91*0.9</f>
+        <v>13793365.800000001</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4844,12 +4869,12 @@
       </c>
       <c r="F92" s="252">
         <f>F91*D92</f>
-        <v>11151623</v>
+        <v>10036460.700000001</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4865,12 +4890,12 @@
       </c>
       <c r="F93" s="252">
         <f>F91*16.54%</f>
-        <v>2534914.1148000001</v>
+        <v>2281422.7033199999</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4883,12 +4908,12 @@
       <c r="E94" s="253"/>
       <c r="F94" s="252">
         <f>F91*D94</f>
-        <v>59596</v>
+        <v>53636.4</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4904,12 +4929,12 @@
       </c>
       <c r="F95" s="252">
         <f>F91*0.01</f>
-        <v>153259.62</v>
+        <v>137933.658</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4922,12 +4947,12 @@
       <c r="E96" s="253"/>
       <c r="F96" s="252">
         <f>F91*2%</f>
-        <v>306519.24</v>
+        <v>275867.31599999999</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4945,7 +4970,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5072,62 +5097,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>190</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>13.72</v>
+        <v>13.8</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>191</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="281">
+        <v>159</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="275">
+        <v>97</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>8055.119702</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>8102.0883299999996</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5150,16 +5175,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5184,40 +5209,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5230,29 +5255,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5262,12 +5287,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5277,29 +5302,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
-        <v>0.72762956087193742</v>
+        <v>0.72762956087193753</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5307,89 +5332,89 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
-        <v>0.16540000000000002</v>
+        <v>0.16539999999999999</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
-        <v>0.02</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62618031501804516</v>
+        <v>0.62983151219016198</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.8885650375487034E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5889999205605747</v>
+        <v>10.716569396156132</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
-        <v>0.01</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.76879736972424439</v>
+        <v>0.85421929969360477</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
-        <v>7.3081874090513851E-2</v>
+        <v>7.3081874090513838E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.0174927113702624E-2</v>
+        <v>7.9710144927536239E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5399,62 +5424,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>261</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>233</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>255</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>13.912387140776209</v>
+        <v>12.873528678401001</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>30.144805032960274</v>
+        <v>25.794471219186686</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>16.546688860499636</v>
-      </c>
-      <c r="G29" s="274">
+        <v>15.145327856942355</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>26.21287394170459</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>22.429974973205816</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5464,25 +5489,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5492,7 +5517,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5502,14 +5527,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5519,7 +5544,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5534,14 +5559,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6494,12 +6519,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6526,16 +6551,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>200</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6553,7 +6578,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6586,7 +6611,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6597,7 +6622,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6749,7 +6774,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6800,7 +6825,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6851,7 +6876,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6902,7 +6927,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6953,7 +6978,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -7004,7 +7029,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7055,7 +7080,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7106,7 +7131,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7157,7 +7182,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7208,7 +7233,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7259,7 +7284,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7310,7 +7335,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7361,7 +7386,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7412,7 +7437,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7463,7 +7488,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7514,7 +7539,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7565,7 +7590,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7616,7 +7641,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7667,7 +7692,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7820,7 +7845,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7871,7 +7896,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7973,7 +7998,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8177,7 +8202,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8228,7 +8253,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8279,7 +8304,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8330,7 +8355,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8381,7 +8406,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8432,7 +8457,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8450,7 +8475,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8501,7 +8526,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8552,7 +8577,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8603,7 +8628,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8654,7 +8679,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8705,7 +8730,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8756,7 +8781,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8807,7 +8832,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8824,50 +8849,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>1.7341358408692387E-2</v>
-      </c>
-      <c r="D50" s="156">
+      <c r="B50" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C27)</f>
+        <v>0.90933332162498015</v>
+      </c>
+      <c r="D50" s="272">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
+        <v>0.80234713373193545</v>
+      </c>
+      <c r="E50" s="272">
         <f t="shared" si="41"/>
-        <v>1.7851543232655226E-2</v>
-      </c>
-      <c r="E50" s="156">
+        <v>0.72365032910366656</v>
+      </c>
+      <c r="F50" s="272">
         <f t="shared" si="41"/>
-        <v>1.5992004636642819E-2</v>
-      </c>
-      <c r="F50" s="156">
+        <v>0.6106195690350612</v>
+      </c>
+      <c r="G50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v>3.1297541510393184E-2</v>
-      </c>
-      <c r="G50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8876,23 +8901,23 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>0.63110270011109249</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>1.7341358408692387E-2</v>
       </c>
       <c r="D51" s="153">
         <f t="shared" si="42"/>
-        <v>0.73908217538982812</v>
+        <v>1.7851543232655226E-2</v>
       </c>
       <c r="E51" s="153">
         <f t="shared" si="42"/>
-        <v>0.74709926550990846</v>
+        <v>1.5992004636642819E-2</v>
       </c>
       <c r="F51" s="153">
         <f t="shared" si="42"/>
-        <v>0.82624277267477186</v>
+        <v>3.1297541510393184E-2</v>
       </c>
       <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8927,167 +8952,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>265</v>
+        <v>144</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0.63110270011109249</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.73908217538982812</v>
+      </c>
+      <c r="E52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.74709926550990846</v>
+      </c>
+      <c r="F52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.82624277267477186</v>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>0.18714483778648183</v>
       </c>
-      <c r="D52" s="153">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>1.4668285834503272</v>
       </c>
-      <c r="E52" s="153">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153">
+        <f t="shared" si="44"/>
         <v>0.3633800202192411</v>
       </c>
-      <c r="F52" s="153">
-        <f t="shared" si="43"/>
+      <c r="F53" s="153">
+        <f t="shared" si="44"/>
         <v>0.34507864490338203</v>
       </c>
-      <c r="G52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="G53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.23674800333023538</v>
-      </c>
-      <c r="D54" s="156">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v>0.1813687183432823</v>
-      </c>
-      <c r="E54" s="156">
-        <f t="shared" si="44"/>
-        <v>0.2553435457821322</v>
-      </c>
-      <c r="F54" s="156">
-        <f t="shared" si="44"/>
-        <v>0.21966692619831024</v>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.4770507174230757</v>
-      </c>
-      <c r="D55" s="157">
+      <c r="B55" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.76485172952944758</v>
+      </c>
+      <c r="D55" s="156">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v>0.81866464065459732</v>
+      </c>
+      <c r="E55" s="156">
         <f t="shared" si="45"/>
-        <v>0.6565297651536719</v>
-      </c>
-      <c r="E55" s="157">
+        <v>0.74462760142880491</v>
+      </c>
+      <c r="F55" s="156">
         <f t="shared" si="45"/>
-        <v>-6.0376151204880865E-2</v>
-      </c>
-      <c r="F55" s="157">
+        <v>0.7803047524886062</v>
+      </c>
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>0.67817467889821803</v>
-      </c>
-      <c r="G55" s="157" t="str">
+        <v/>
+      </c>
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9095,112 +9121,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>6.1391011793840093E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>118</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.4770507174230757</v>
+      </c>
+      <c r="D56" s="157">
         <f t="shared" si="46"/>
-        <v>2.8673859874687374E-2</v>
-      </c>
-      <c r="E56" s="153">
+        <v>0.6565297651536719</v>
+      </c>
+      <c r="E56" s="157">
         <f t="shared" si="46"/>
-        <v>-0.21973077106026734</v>
-      </c>
-      <c r="F56" s="153">
+        <v>-6.0376151204880865E-2</v>
+      </c>
+      <c r="F56" s="157">
         <f t="shared" si="46"/>
-        <v>3.7580912490105083E-2</v>
-      </c>
-      <c r="G56" s="153">
+        <v>0.67817467889821803</v>
+      </c>
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>5.5333299607483753E-2</v>
-      </c>
-      <c r="H56" s="153">
+        <v/>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>2.1841264578165751E-2</v>
-      </c>
-      <c r="I56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>6.1391011793840093E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>2.8673859874687374E-2</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.21973077106026734</v>
+      </c>
+      <c r="F57" s="153">
+        <f t="shared" si="47"/>
+        <v>3.7580912490105083E-2</v>
+      </c>
+      <c r="G57" s="153">
+        <f t="shared" si="47"/>
+        <v>5.5333299607483753E-2</v>
+      </c>
+      <c r="H57" s="153">
+        <f t="shared" si="47"/>
+        <v>2.1841264578165751E-2</v>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>3.5066755118062995</v>
       </c>
-      <c r="D57" s="158">
-        <f t="shared" si="47"/>
+      <c r="D58" s="158">
+        <f t="shared" si="48"/>
         <v>4.8543433811852026</v>
       </c>
-      <c r="E57" s="158">
-        <f t="shared" si="47"/>
+      <c r="E58" s="158">
+        <f t="shared" si="48"/>
         <v>3.3265242212912804</v>
       </c>
-      <c r="F57" s="158">
-        <f t="shared" si="47"/>
+      <c r="F58" s="158">
+        <f t="shared" si="48"/>
         <v>3.9815520169188523</v>
       </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>0.14558943313324324</v>
+      </c>
+      <c r="D60" s="274">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>0.11151566427524089</v>
+      </c>
+      <c r="E60" s="274">
+        <f t="shared" si="50"/>
+        <v>0.11746224145268362</v>
+      </c>
+      <c r="F60" s="274">
+        <f t="shared" si="50"/>
+        <v>8.2607893059814155E-2</v>
+      </c>
+      <c r="G60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>268</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>7.5306147146117483E-2</v>
+      </c>
+      <c r="D61" s="274">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>5.9249073758902385E-2</v>
+      </c>
+      <c r="E61" s="274">
+        <f t="shared" si="51"/>
+        <v>-8.7029705101647117E-3</v>
+      </c>
+      <c r="F61" s="274">
+        <f t="shared" si="51"/>
+        <v>6.7790799206356847E-2</v>
+      </c>
+      <c r="G61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9763,7 +9979,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10446,6 +10664,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10485,8 +10704,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10504,7 +10723,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10519,7 +10738,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10533,7 +10752,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10543,7 +10762,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10561,10 +10780,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10573,12 +10792,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>27</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>3511699.0500000007</v>
       </c>
       <c r="E6" s="56">
@@ -10588,7 +10808,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10598,8 +10818,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>29</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10611,7 +10832,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10629,7 +10850,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10648,32 +10869,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10690,7 +10911,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10701,7 +10922,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10718,7 +10939,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10729,7 +10950,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10746,7 +10967,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10757,7 +10978,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10774,7 +10995,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10785,7 +11006,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10802,7 +11023,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10812,7 +11033,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10834,7 +11055,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10856,7 +11077,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10877,7 +11098,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10902,7 +11123,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10929,7 +11150,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10950,7 +11171,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10967,7 +11188,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10979,13 +11200,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -11007,7 +11228,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -11027,7 +11248,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -11036,7 +11257,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -11056,7 +11277,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -11069,7 +11290,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11089,7 +11310,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11135,7 +11356,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11144,7 +11365,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11160,7 +11381,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11170,7 +11391,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11187,7 +11408,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11197,7 +11418,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11214,7 +11435,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11224,7 +11445,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11244,7 +11465,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11254,7 +11475,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11271,7 +11492,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11281,7 +11502,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11307,7 +11528,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11334,7 +11555,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11361,7 +11582,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11382,7 +11603,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11403,7 +11624,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11424,7 +11645,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11445,7 +11666,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11462,7 +11683,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11480,7 +11701,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11499,7 +11720,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11518,7 +11739,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11535,7 +11756,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11548,7 +11769,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11565,7 +11786,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11578,7 +11799,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11595,7 +11816,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11622,7 +11843,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11638,14 +11859,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11662,7 +11883,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11692,7 +11913,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11703,14 +11924,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>2034922</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11718,30 +11939,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11758,11 +11979,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11772,7 +11993,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11793,7 +12014,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11814,7 +12035,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11835,7 +12056,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11850,7 +12071,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11881,11 +12102,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11895,7 +12116,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11916,7 +12137,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11931,7 +12152,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11953,21 +12174,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="271">
+        <v>124</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11977,23 +12198,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -12007,14 +12228,14 @@
       <c r="F74" s="209"/>
       <c r="H74" s="238">
         <f>Inputs!F91</f>
-        <v>15325962</v>
+        <v>13793365.800000001</v>
       </c>
       <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -12034,17 +12255,17 @@
       </c>
       <c r="H75" s="238">
         <f>Inputs!F92</f>
-        <v>11151623</v>
+        <v>10036460.700000001</v>
       </c>
       <c r="I75" s="160">
         <f>H75/$H$74</f>
-        <v>0.72762956087193742</v>
+        <v>0.72762956087193753</v>
       </c>
       <c r="K75" s="24"/>
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -12058,14 +12279,14 @@
       <c r="F76" s="210"/>
       <c r="H76" s="162">
         <f>H74-H75</f>
-        <v>4174339</v>
+        <v>3756905.0999999996</v>
       </c>
       <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12085,17 +12306,17 @@
       </c>
       <c r="H77" s="238">
         <f>Inputs!F93</f>
-        <v>2534914.1148000001</v>
+        <v>2281422.7033199999</v>
       </c>
       <c r="I77" s="160">
         <f>H77/$H$74</f>
-        <v>0.16540000000000002</v>
+        <v>0.16539999999999999</v>
       </c>
       <c r="K77" s="24"/>
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12125,7 +12346,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12146,17 +12367,17 @@
       <c r="G79" s="260"/>
       <c r="H79" s="259">
         <f>H76-H77-H78</f>
-        <v>1639424.8851999999</v>
+        <v>1475482.3966799998</v>
       </c>
       <c r="I79" s="258">
         <f>H79/H74</f>
-        <v>0.10697043912806256</v>
+        <v>0.10697043912806255</v>
       </c>
       <c r="K79" s="24"/>
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12168,27 +12389,27 @@
       </c>
       <c r="E80" s="180">
         <f>E74*F80</f>
-        <v>245215.39200000002</v>
+        <v>245215.39199999999</v>
       </c>
       <c r="F80" s="160">
         <f>I80</f>
-        <v>0.02</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="H80" s="238">
         <f>Inputs!F96</f>
-        <v>306519.24</v>
+        <v>275867.31599999999</v>
       </c>
       <c r="I80" s="160">
         <f>H80/$H$74</f>
-        <v>0.02</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12208,7 +12429,7 @@
       </c>
       <c r="H81" s="238">
         <f>Inputs!F94</f>
-        <v>59596</v>
+        <v>53636.4</v>
       </c>
       <c r="I81" s="160">
         <f>H81/$H$74</f>
@@ -12218,7 +12439,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12238,17 +12459,17 @@
       </c>
       <c r="H82" s="238">
         <f>Inputs!F95</f>
-        <v>153259.62</v>
+        <v>137933.658</v>
       </c>
       <c r="I82" s="160">
         <f>H82/$H$74</f>
-        <v>0.01</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12268,17 +12489,17 @@
       </c>
       <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
-        <v>1120050.0251999998</v>
+        <v>1008045.0226799998</v>
       </c>
       <c r="I83" s="164">
         <f>H83/$H$74</f>
-        <v>7.3081874090513851E-2</v>
+        <v>7.3081874090513838E-2</v>
       </c>
       <c r="K83" s="24"/>
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12299,7 +12520,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12320,17 +12541,17 @@
       <c r="G85" s="260"/>
       <c r="H85" s="264">
         <f>H83*(1-I84)</f>
-        <v>840037.51889999979</v>
+        <v>756033.76700999984</v>
       </c>
       <c r="I85" s="258">
         <f>H85/$H$74</f>
-        <v>5.4811405567885385E-2</v>
+        <v>5.4811405567885378E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12344,35 +12565,35 @@
       <c r="F86" s="209"/>
       <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
-        <v>1.4308061438796973</v>
+        <v>1.2877255294917278</v>
       </c>
       <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0386086977606028E-2</v>
+        <v>8.9862109661793824E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3428929672285684E-2</v>
+        <v>8.2945283703170988E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10428616209035695</v>
+        <v>9.3313444166067225E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12396,27 +12617,27 @@
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.76879736972424439</v>
+        <v>0.85421929969360477</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9125364431486868E-2</v>
+        <v>9.855072463768115E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2886297376093284E-2</v>
+        <v>7.2463768115942032E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0174927113702624E-2</v>
+        <v>7.9710144927536239E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12433,29 +12654,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>152</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12472,24 +12693,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.185203272681257</v>
+        <v>28.122349611581328</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>38.755843616291401</v>
+        <v>33.181422223817037</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12500,18 +12721,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.448590459280108</v>
+        <v>23.402453627881719</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>26.681570866791425</v>
+        <v>26.624216955368194</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12530,51 +12751,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11312689.840425013</v>
+        <v>9685536.5038276892</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.013027346830343</v>
+        <v>13.981777968803135</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.268503802878829</v>
+        <v>16.497031173791477</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.300387164360359</v>
+        <v>22.517488195861585</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12592,7 +12813,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12613,31 +12834,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>11261310.140425013</v>
+        <v>9634156.80382769</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.912387140776209</v>
+        <v>12.873528678401001</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.912387140776209</v>
+        <v>13.881137762749001</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.546688860499636</v>
+        <v>15.145327856942355</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.18099058022306</v>
+        <v>16.409517951135708</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>26.21287394170459</v>
+        <v>22.429974973205816</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12647,58 +12868,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7788253.5253199795</v>
+        <v>7771512.1271068482</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.592508727930955</v>
+        <v>10.570641122329855</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.658093651891512</v>
+        <v>11.635155492679853</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>12.461774974036418</v>
+        <v>12.436048379211595</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>13.265456296181323</v>
+        <v>13.236941265743335</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>18.106576414581028</v>
+        <v>18.06765505627553</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12708,58 +12929,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7506315.0008247215</v>
+        <v>7490408.0365821682</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.252447934353583</v>
+        <v>11.722084900365427</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.785240396333862</v>
+        <v>12.758146627714428</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.504231917268026</v>
+        <v>13.790688118076975</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>16.22322343820219</v>
+        <v>14.823229608439522</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>22.159725178142807</v>
+        <v>20.248815014740671</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12768,7 +12989,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12777,6 +12998,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA8ABF6-985A-445A-AD77-ED4E02AF2787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C6D89-1532-43F6-A9D4-19A991EC1772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -601,21 +601,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -643,9 +631,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -667,9 +652,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -875,14 +857,6 @@
     <t>C0003</t>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -1001,6 +975,30 @@
   </si>
   <si>
     <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2254,6 +2368,30 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.72762956087193753</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16539999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8885650375487034E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.9999999999999985E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.3081874090513838E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3628,7 +2791,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3641,23 +2804,23 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C10" s="193">
         <v>587107850</v>
@@ -3703,7 +2866,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C14" s="219">
         <v>45382</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3955,7 +3118,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C29" s="150">
         <v>59596</v>
@@ -4256,7 +3419,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4300,7 +3463,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C44" s="250">
         <f>0.72+0.64</f>
@@ -4334,7 +3497,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4383,13 +3546,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -4463,7 +3626,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C54" s="59">
         <v>366595</v>
@@ -4581,7 +3744,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C64" s="59">
         <v>103050</v>
@@ -4763,7 +3926,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C83" s="59">
         <v>12890860</v>
@@ -4783,7 +3946,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4791,10 +3954,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4810,10 +3973,10 @@
       </c>
       <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4874,7 +4037,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4895,7 +4058,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4913,7 +4076,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4952,7 +4115,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4970,7 +4133,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5055,8 +4218,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5097,7 +4260,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
@@ -5112,12 +4275,12 @@
         <v>13.8</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
@@ -5184,7 +4347,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5209,40 +4372,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5255,29 +4418,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5287,12 +4450,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5300,9 +4463,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -5310,59 +4473,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.72762956087193753</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="291" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="292">
+        <f>C23*C22*(1/C21)</f>
+        <v>0.14558943313324324</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.16539999999999999</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="293" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="294">
+        <f>Data!C55</f>
+        <v>0.76485172952944758</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="295" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="296">
+        <f>Data!C50</f>
+        <v>0.90933332162498015</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>1.9999999999999997E-2</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="297" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="298">
+        <f>Data!C13</f>
+        <v>0.12245710905455723</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5371,14 +4534,14 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.8885650375487034E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
@@ -5387,14 +4550,14 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>9.9999999999999985E-3</v>
+        <f>Fin_Analysis!I80</f>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5403,14 +4566,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>7.3081874090513838E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>2.9999999999999995E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5431,10 +4594,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G28" s="277" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H28" s="277"/>
     </row>
@@ -5465,21 +4628,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5489,7 +4652,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5500,14 +4663,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5517,7 +4680,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5527,14 +4690,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5544,7 +4707,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5559,14 +4722,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6510,7 +5673,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6521,10 +5683,10 @@
   </sheetPr>
   <dimension ref="A1:N932"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C50" sqref="C50"/>
+      <selection pane="topRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6551,16 +5713,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6578,7 +5740,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6611,7 +5773,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6978,7 +6140,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -7029,7 +6191,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7080,7 +6242,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7131,7 +6293,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7233,7 +6395,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7386,7 +6548,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8457,7 +7619,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8526,7 +7688,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8577,50 +7739,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>4.0883763120383568E-2</v>
+        <f>IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>2.9395857885609465E-2</v>
+        <f>IF(D6="","",MAX(D12,0)/D6)</f>
+        <v>0</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
-        <v>8.9049969572670459E-2</v>
+        <f>IF(E6="","",MAX(E12,0)/E6)</f>
+        <v>0</v>
       </c>
       <c r="F44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f>IF(F6="","",MAX(F12,0)/F6)</f>
+        <v>2.7068908541056925E-4</v>
       </c>
       <c r="G44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f>IF(G6="","",MAX(G12,0)/G6)</f>
+        <v>1.5868817930031392E-4</v>
       </c>
       <c r="H44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f>IF(H6="","",MAX(H12,0)/H6)</f>
+        <v>9.1702453784649294E-4</v>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(I6="","",MAX(I12,0)/I6)</f>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(J6="","",MAX(J12,0)/J6)</f>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(K6="","",MAX(K12,0)/K6)</f>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(L6="","",MAX(L12,0)/L6)</f>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(M6="","",MAX(M12,0)/M6)</f>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -8628,50 +7790,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>3.8885650375487034E-3</v>
+        <f t="shared" ref="C45:M45" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>4.0883763120383568E-2</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.7334505274905901E-3</v>
+        <f t="shared" si="36"/>
+        <v>2.9395857885609465E-2</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.9677447304235723E-3</v>
+        <f t="shared" si="36"/>
+        <v>8.9049969572670459E-2</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.2556042627888463E-3</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.6147664039083583E-3</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
       <c r="H45" s="153">
-        <f t="shared" si="37"/>
-        <v>2.1597113239037349E-3</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -8679,50 +7841,50 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>1.7334505274905901E-3</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>1.9677447304235723E-3</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>2.7068908541056925E-4</v>
+        <f t="shared" si="37"/>
+        <v>3.2556042627888463E-3</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.5868817930031392E-4</v>
+        <f t="shared" si="37"/>
+        <v>5.6147664039083583E-3</v>
       </c>
       <c r="H46" s="153">
-        <f t="shared" si="38"/>
-        <v>9.1702453784649294E-4</v>
+        <f t="shared" si="37"/>
+        <v>2.1597113239037349E-3</v>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
@@ -8730,50 +7892,50 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.4343830423173436E-2</v>
       </c>
       <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
+        <f>IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>2.2200239041350014E-2</v>
       </c>
       <c r="E47" s="153">
-        <f t="shared" si="39"/>
+        <f>IF(E6="","",ABS(MAX(E21,0)-MAX(E19,0))/E6)</f>
         <v>3.8804791663312119E-2</v>
       </c>
       <c r="F47" s="153">
-        <f t="shared" si="39"/>
+        <f>IF(F6="","",ABS(MAX(F21,0)-MAX(F19,0))/F6)</f>
         <v>1.5679014505150749E-2</v>
       </c>
       <c r="G47" s="153">
-        <f t="shared" si="39"/>
+        <f>IF(G6="","",ABS(MAX(G21,0)-MAX(G19,0))/G6)</f>
         <v>0</v>
       </c>
       <c r="H47" s="153">
-        <f t="shared" si="39"/>
+        <f>IF(H6="","",ABS(MAX(H21,0)-MAX(H19,0))/H6)</f>
         <v>0</v>
       </c>
       <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
+        <f>IF(I6="","",ABS(MAX(I21,0)-MAX(I19,0))/I6)</f>
         <v/>
       </c>
       <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
+        <f>IF(J6="","",ABS(MAX(J21,0)-MAX(J19,0))/J6)</f>
         <v/>
       </c>
       <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
+        <f>IF(K6="","",ABS(MAX(K21,0)-MAX(K19,0))/K6)</f>
         <v/>
       </c>
       <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
+        <f>IF(L6="","",ABS(MAX(L21,0)-MAX(L19,0))/L6)</f>
         <v/>
       </c>
       <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
+        <f>IF(M6="","",ABS(MAX(M21,0)-MAX(M19,0))/M6)</f>
         <v/>
       </c>
       <c r="N47" s="87"/>
@@ -8784,47 +7946,47 @@
         <v>121</v>
       </c>
       <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
+        <f>IF(C6="","",C22/C6)</f>
         <v>6.3340950473451521E-2</v>
       </c>
       <c r="D48" s="153">
-        <f t="shared" si="40"/>
+        <f>IF(D6="","",D22/D6)</f>
         <v>6.0454034966559926E-2</v>
       </c>
       <c r="E48" s="153">
-        <f t="shared" si="40"/>
+        <f>IF(E6="","",E22/E6)</f>
         <v>-8.9552533808924892E-3</v>
       </c>
       <c r="F48" s="153">
-        <f t="shared" si="40"/>
+        <f>IF(F6="","",F22/F6)</f>
         <v>8.6629196767003327E-2</v>
       </c>
       <c r="G48" s="153">
-        <f t="shared" si="40"/>
+        <f>IF(G6="","",G22/G6)</f>
         <v>0.10147174384570713</v>
       </c>
       <c r="H48" s="153">
-        <f t="shared" si="40"/>
+        <f>IF(H6="","",H22/H6)</f>
         <v>9.8882155663402055E-2</v>
       </c>
       <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
+        <f>IF(I6="","",I22/I6)</f>
         <v/>
       </c>
       <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
+        <f>IF(J6="","",J22/J6)</f>
         <v/>
       </c>
       <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
+        <f>IF(K6="","",K22/K6)</f>
         <v/>
       </c>
       <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
+        <f>IF(L6="","",L22/L6)</f>
         <v/>
       </c>
       <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+        <f>IF(M6="","",M22/M6)</f>
         <v/>
       </c>
       <c r="N48" s="87"/>
@@ -8832,7 +7994,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8850,50 +8012,50 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272">
         <f>IF(C6="","",C6/C27)</f>
         <v>0.90933332162498015</v>
       </c>
       <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
+        <f>IF(D6="","",D6/D27)</f>
         <v>0.80234713373193545</v>
       </c>
       <c r="E50" s="272">
-        <f t="shared" si="41"/>
+        <f>IF(E6="","",E6/E27)</f>
         <v>0.72365032910366656</v>
       </c>
       <c r="F50" s="272">
-        <f t="shared" si="41"/>
+        <f>IF(F6="","",F6/F27)</f>
         <v>0.6106195690350612</v>
       </c>
       <c r="G50" s="272" t="e">
-        <f t="shared" si="41"/>
+        <f>IF(G6="","",G6/G27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H50" s="272" t="e">
-        <f t="shared" si="41"/>
+        <f>IF(H6="","",H6/H27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(I6="","",I6/I27)</f>
         <v/>
       </c>
       <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(J6="","",J6/J27)</f>
         <v/>
       </c>
       <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(K6="","",K6/K27)</f>
         <v/>
       </c>
       <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(L6="","",L6/L27)</f>
         <v/>
       </c>
       <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(M6="","",M6/M27)</f>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -8904,47 +8066,47 @@
         <v>143</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <f>IF(C29="","",C29/C6)</f>
         <v>1.7341358408692387E-2</v>
       </c>
       <c r="D51" s="153">
-        <f t="shared" si="42"/>
+        <f>IF(D29="","",D29/D6)</f>
         <v>1.7851543232655226E-2</v>
       </c>
       <c r="E51" s="153">
-        <f t="shared" si="42"/>
+        <f>IF(E29="","",E29/E6)</f>
         <v>1.5992004636642819E-2</v>
       </c>
       <c r="F51" s="153">
-        <f t="shared" si="42"/>
+        <f>IF(F29="","",F29/F6)</f>
         <v>3.1297541510393184E-2</v>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f>IF(G29="","",G29/G6)</f>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f>IF(H29="","",H29/H6)</f>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f>IF(I29="","",I29/I6)</f>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f>IF(J29="","",J29/J6)</f>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f>IF(K29="","",K29/K6)</f>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f>IF(L29="","",L29/L6)</f>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f>IF(M29="","",M29/M6)</f>
         <v/>
       </c>
       <c r="N51" s="87"/>
@@ -8955,47 +8117,47 @@
         <v>144</v>
       </c>
       <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <f>IF(C30="","",C30/C6)</f>
         <v>0.63110270011109249</v>
       </c>
       <c r="D52" s="153">
-        <f t="shared" si="43"/>
+        <f>IF(D30="","",D30/D6)</f>
         <v>0.73908217538982812</v>
       </c>
       <c r="E52" s="153">
-        <f t="shared" si="43"/>
+        <f>IF(E30="","",E30/E6)</f>
         <v>0.74709926550990846</v>
       </c>
       <c r="F52" s="153">
-        <f t="shared" si="43"/>
+        <f>IF(F30="","",F30/F6)</f>
         <v>0.82624277267477186</v>
       </c>
       <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(G30="","",G30/G6)</f>
         <v/>
       </c>
       <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(H30="","",H30/H6)</f>
         <v/>
       </c>
       <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(I30="","",I30/I6)</f>
         <v/>
       </c>
       <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(J30="","",J30/J6)</f>
         <v/>
       </c>
       <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(K30="","",K30/K6)</f>
         <v/>
       </c>
       <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(L30="","",L30/L6)</f>
         <v/>
       </c>
       <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(M30="","",M30/M6)</f>
         <v/>
       </c>
       <c r="N52" s="87"/>
@@ -9003,50 +8165,50 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>0.18714483778648183</v>
       </c>
       <c r="D53" s="153">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <f>IF(E6="","",D16/(D6-E6))</f>
         <v>1.4668285834503272</v>
       </c>
       <c r="E53" s="153">
-        <f t="shared" si="44"/>
+        <f>IF(F6="","",E16/(E6-F6))</f>
         <v>0.3633800202192411</v>
       </c>
       <c r="F53" s="153">
-        <f t="shared" si="44"/>
+        <f>IF(G6="","",F16/(F6-G6))</f>
         <v>0.34507864490338203</v>
       </c>
       <c r="G53" s="153" t="e">
-        <f t="shared" si="44"/>
+        <f>IF(H6="","",G16/(G6-H6))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
+        <f>IF(I6="","",H16/(H6-I6))</f>
         <v/>
       </c>
       <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
+        <f>IF(J6="","",I16/(I6-J6))</f>
         <v/>
       </c>
       <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
+        <f>IF(K6="","",J16/(J6-K6))</f>
         <v/>
       </c>
       <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
+        <f>IF(L6="","",K16/(K6-L6))</f>
         <v/>
       </c>
       <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
+        <f>IF(M6="","",L16/(L6-M6))</f>
         <v/>
       </c>
       <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
+        <f>IF(N6="","",M16/(M6-N6))</f>
         <v/>
       </c>
       <c r="N53" s="87"/>
@@ -9054,7 +8216,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -9071,50 +8233,50 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
         <v>0.76485172952944758</v>
       </c>
       <c r="D55" s="156">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <f>IF(D36="","",(D36-D37)/D27)</f>
         <v>0.81866464065459732</v>
       </c>
       <c r="E55" s="156">
-        <f t="shared" si="45"/>
+        <f>IF(E36="","",(E36-E37)/E27)</f>
         <v>0.74462760142880491</v>
       </c>
       <c r="F55" s="156">
-        <f t="shared" si="45"/>
+        <f>IF(F36="","",(F36-F37)/F27)</f>
         <v>0.7803047524886062</v>
       </c>
       <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
+        <f>IF(G36="","",(G36-G37)/G27)</f>
         <v/>
       </c>
       <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
+        <f>IF(H36="","",(H36-H37)/H27)</f>
         <v/>
       </c>
       <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
+        <f>IF(I36="","",(I36-I37)/I27)</f>
         <v/>
       </c>
       <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
+        <f>IF(J36="","",(J36-J37)/J27)</f>
         <v/>
       </c>
       <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
+        <f>IF(K36="","",(K36-K37)/K27)</f>
         <v/>
       </c>
       <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
+        <f>IF(L36="","",(L36-L37)/L27)</f>
         <v/>
       </c>
       <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+        <f>IF(M36="","",(M36-M37)/M27)</f>
         <v/>
       </c>
     </row>
@@ -9124,47 +8286,47 @@
         <v>118</v>
       </c>
       <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <f>IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>0.4770507174230757</v>
       </c>
       <c r="D56" s="157">
-        <f t="shared" si="46"/>
+        <f>IF(OR(D22="",D35=""),"",IF(D35&lt;=0,"-",D22/D35))</f>
         <v>0.6565297651536719</v>
       </c>
       <c r="E56" s="157">
-        <f t="shared" si="46"/>
+        <f>IF(OR(E22="",E35=""),"",IF(E35&lt;=0,"-",E22/E35))</f>
         <v>-6.0376151204880865E-2</v>
       </c>
       <c r="F56" s="157">
-        <f t="shared" si="46"/>
+        <f>IF(OR(F22="",F35=""),"",IF(F35&lt;=0,"-",F22/F35))</f>
         <v>0.67817467889821803</v>
       </c>
       <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
+        <f>IF(OR(G22="",G35=""),"",IF(G35&lt;=0,"-",G22/G35))</f>
         <v/>
       </c>
       <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
+        <f>IF(OR(H22="",H35=""),"",IF(H35&lt;=0,"-",H22/H35))</f>
         <v/>
       </c>
       <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
+        <f>IF(OR(I22="",I35=""),"",IF(I35&lt;=0,"-",I22/I35))</f>
         <v/>
       </c>
       <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
+        <f>IF(OR(J22="",J35=""),"",IF(J35&lt;=0,"-",J22/J35))</f>
         <v/>
       </c>
       <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
+        <f>IF(OR(K22="",K35=""),"",IF(K35&lt;=0,"-",K22/K35))</f>
         <v/>
       </c>
       <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
+        <f>IF(OR(L22="",L35=""),"",IF(L35&lt;=0,"-",L22/L35))</f>
         <v/>
       </c>
       <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
+        <f>IF(OR(M22="",M35=""),"",IF(M35&lt;=0,"-",M22/M35))</f>
         <v/>
       </c>
     </row>
@@ -9174,47 +8336,47 @@
         <v>120</v>
       </c>
       <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <f>IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>6.1391011793840093E-2</v>
       </c>
       <c r="D57" s="153">
-        <f t="shared" si="47"/>
+        <f>IF(D22="","",IF(MAX(D17,0)&lt;=0,"-",D17/D22))</f>
         <v>2.8673859874687374E-2</v>
       </c>
       <c r="E57" s="153">
-        <f t="shared" si="47"/>
+        <f>IF(E22="","",IF(MAX(E17,0)&lt;=0,"-",E17/E22))</f>
         <v>-0.21973077106026734</v>
       </c>
       <c r="F57" s="153">
-        <f t="shared" si="47"/>
+        <f>IF(F22="","",IF(MAX(F17,0)&lt;=0,"-",F17/F22))</f>
         <v>3.7580912490105083E-2</v>
       </c>
       <c r="G57" s="153">
-        <f t="shared" si="47"/>
+        <f>IF(G22="","",IF(MAX(G17,0)&lt;=0,"-",G17/G22))</f>
         <v>5.5333299607483753E-2</v>
       </c>
       <c r="H57" s="153">
-        <f t="shared" si="47"/>
+        <f>IF(H22="","",IF(MAX(H17,0)&lt;=0,"-",H17/H22))</f>
         <v>2.1841264578165751E-2</v>
       </c>
       <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(I22="","",IF(MAX(I17,0)&lt;=0,"-",I17/I22))</f>
         <v/>
       </c>
       <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(J22="","",IF(MAX(J17,0)&lt;=0,"-",J17/J22))</f>
         <v/>
       </c>
       <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(K22="","",IF(MAX(K17,0)&lt;=0,"-",K17/K22))</f>
         <v/>
       </c>
       <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(L22="","",IF(MAX(L17,0)&lt;=0,"-",L17/L22))</f>
         <v/>
       </c>
       <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(M22="","",IF(MAX(M17,0)&lt;=0,"-",M17/M22))</f>
         <v/>
       </c>
     </row>
@@ -9224,197 +8386,197 @@
         <v>20</v>
       </c>
       <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+        <f>IF(C28="","",C28/C31)</f>
         <v>3.5066755118062995</v>
       </c>
       <c r="D58" s="158">
-        <f t="shared" si="48"/>
+        <f>IF(D28="","",D28/D31)</f>
         <v>4.8543433811852026</v>
       </c>
       <c r="E58" s="158">
-        <f t="shared" si="48"/>
+        <f>IF(E28="","",E28/E31)</f>
         <v>3.3265242212912804</v>
       </c>
       <c r="F58" s="158">
-        <f t="shared" si="48"/>
+        <f>IF(F28="","",F28/F31)</f>
         <v>3.9815520169188523</v>
       </c>
       <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
+        <f>IF(G28="","",G28/G31)</f>
         <v/>
       </c>
       <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
+        <f>IF(H28="","",H28/H31)</f>
         <v/>
       </c>
       <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
+        <f>IF(I28="","",I28/I31)</f>
         <v/>
       </c>
       <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
+        <f>IF(J28="","",J28/J31)</f>
         <v/>
       </c>
       <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
+        <f>IF(K28="","",K28/K31)</f>
         <v/>
       </c>
       <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
+        <f>IF(L28="","",L28/L31)</f>
         <v/>
       </c>
       <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+        <f>IF(M28="","",M28/M31)</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
         <v/>
       </c>
       <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <f>IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
         <v/>
       </c>
       <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
+        <f>IFERROR(IF(E13*E50*(1/E55)=E60,"","Error"),"")</f>
         <v/>
       </c>
       <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
+        <f>IFERROR(IF(F13*F50*(1/F55)=F60,"","Error"),"")</f>
         <v/>
       </c>
       <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
+        <f>IFERROR(IF(G13*G50*(1/G55)=G60,"","Error"),"")</f>
         <v/>
       </c>
       <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
+        <f>IFERROR(IF(H13*H50*(1/H55)=H60,"","Error"),"")</f>
         <v/>
       </c>
       <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
+        <f>IFERROR(IF(I13*I50*(1/I55)=I60,"","Error"),"")</f>
         <v/>
       </c>
       <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
+        <f>IFERROR(IF(J13*J50*(1/J55)=J60,"","Error"),"")</f>
         <v/>
       </c>
       <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
+        <f>IFERROR(IF(K13*K50*(1/K55)=K60,"","Error"),"")</f>
         <v/>
       </c>
       <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
+        <f>IFERROR(IF(L13*L50*(1/L55)=L60,"","Error"),"")</f>
         <v/>
       </c>
       <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+        <f>IFERROR(IF(M13*M50*(1/M55)=M60,"","Error"),"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
         <v>0.14558943313324324</v>
       </c>
       <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <f t="shared" ref="D60:M60" si="38">IF(D14="","",D14/(D36-D37))</f>
         <v>0.11151566427524089</v>
       </c>
       <c r="E60" s="274">
-        <f t="shared" si="50"/>
+        <f t="shared" si="38"/>
         <v>0.11746224145268362</v>
       </c>
       <c r="F60" s="274">
-        <f t="shared" si="50"/>
+        <f t="shared" si="38"/>
         <v>8.2607893059814155E-2</v>
       </c>
       <c r="G60" s="274" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="H60" s="274" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
         <v>7.5306147146117483E-2</v>
       </c>
       <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <f t="shared" ref="D61:M61" si="39">IF(D22="","",D22/(D36-D37))</f>
         <v>5.9249073758902385E-2</v>
       </c>
       <c r="E61" s="274">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>-8.7029705101647117E-3</v>
       </c>
       <c r="F61" s="274">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>6.7790799206356847E-2</v>
       </c>
       <c r="G61" s="274" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="H61" s="274" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
     </row>
@@ -10704,8 +9866,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10875,7 +10037,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -12182,11 +11344,11 @@
       </c>
       <c r="D72" s="275"/>
       <c r="E72" s="289" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F72" s="289"/>
       <c r="H72" s="289" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
@@ -12286,7 +11448,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12316,7 +11478,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12346,7 +11508,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12409,7 +11571,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12439,7 +11601,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12572,7 +11734,7 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
@@ -12593,7 +11755,7 @@
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12623,7 +11785,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12669,12 +11831,12 @@
         <v>152</v>
       </c>
       <c r="E92" s="289" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F92" s="289"/>
       <c r="G92" s="87"/>
       <c r="H92" s="289" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I92" s="289"/>
       <c r="K92" s="24"/>
@@ -12693,14 +11855,14 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
         <v>28.122349611581328</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
@@ -12710,7 +11872,7 @@
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12721,14 +11883,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>23.402453627881719</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -12751,14 +11913,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12875,14 +12037,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12929,21 +12091,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12956,7 +12118,7 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C6D89-1532-43F6-A9D4-19A991EC1772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CBEBA2-D8F1-4743-90A0-4E642D82C4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -527,14 +527,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -939,10 +931,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -959,6 +947,42 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>六福珠宝</t>
   </si>
   <si>
@@ -975,30 +999,6 @@
   </si>
   <si>
     <t>HKD</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBIT Margin</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interest Expense</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normalized CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normalized ΔWC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -2327,6 +2327,30 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2368,30 +2392,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2791,7 +2791,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2804,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -2841,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" s="193">
         <v>587107850</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C14" s="219">
         <v>45382</v>
@@ -2898,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C29" s="150">
         <v>59596</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -3419,7 +3419,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -3463,7 +3463,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C44" s="250">
         <f>0.72+0.64</f>
@@ -3497,31 +3497,31 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.855072463768115E-2</v>
+        <v>9.8693759071117562E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.9710144927536239E-2</v>
+        <v>7.982583454281568E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.9710144927536239E-2</v>
+        <v>7.982583454281568E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2463768115942032E-2</v>
+        <v>7.2568940493468792E-2</v>
       </c>
       <c r="G45" s="152">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2463768115942032E-2</v>
+        <v>7.2568940493468792E-2</v>
       </c>
       <c r="H45" s="152">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>8.3454281567489116E-2</v>
       </c>
       <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3546,13 +3546,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3626,7 +3626,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C54" s="59">
         <v>366595</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3744,7 +3744,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C64" s="59">
         <v>103050</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C83" s="59">
         <v>12890860</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3967,16 +3967,16 @@
       <c r="B89" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3985,10 +3985,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>99</v>
       </c>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4219,7 +4219,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4260,62 +4260,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>182</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>13.8</v>
+        <v>13.78</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>183</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="285">
+        <v>157</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>8102.0883299999996</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>8090.3461729999999</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4338,16 +4338,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4372,40 +4372,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4418,29 +4418,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4450,12 +4450,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4465,7 +4465,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -4473,31 +4473,31 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="291" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="292">
+      <c r="B20" s="275" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="276">
         <f>C23*C22*(1/C21)</f>
         <v>0.14558943313324324</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="293" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="294">
+      <c r="B21" s="277" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="278">
         <f>Data!C55</f>
         <v>0.76485172952944758</v>
       </c>
@@ -4505,59 +4505,59 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="295" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" s="296">
+      <c r="B22" s="279" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="280">
         <f>Data!C50</f>
         <v>0.90933332162498015</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="297" t="s">
-        <v>267</v>
-      </c>
-      <c r="C23" s="298">
+      <c r="B23" s="281" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.12245710905455723</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62983151219016198</v>
+        <v>0.62891871289713275</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.8885650375487034E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.716569396156132</v>
+        <v>10.701038136161701</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>1.9999999999999997E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4566,18 +4566,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>2.9999999999999995E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.9710144927536239E-2</v>
+        <v>7.982583454281568E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4587,62 +4587,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>247</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>225</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.873528678401001</v>
+        <v>12.8811758790798</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>25.794471219186686</v>
+        <v>25.810513853832148</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.145327856942355</v>
-      </c>
-      <c r="G29" s="278">
+        <v>15.154324563623295</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.429974973205816</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>22.443925090288825</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4652,7 +4652,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -4663,14 +4663,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4680,7 +4680,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4690,14 +4690,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4707,7 +4707,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4722,14 +4722,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5683,10 +5683,10 @@
   </sheetPr>
   <dimension ref="A1:N932"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="F47" sqref="F47"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5713,16 +5713,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>192</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>194</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5740,7 +5740,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -5773,7 +5773,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6140,7 +6140,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6191,7 +6191,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6242,7 +6242,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6293,7 +6293,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6395,7 +6395,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6548,7 +6548,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7058,7 +7058,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7568,7 +7568,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -7619,7 +7619,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -7688,7 +7688,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -7739,50 +7739,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C44" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>4.0883763120383568E-2</v>
+      </c>
+      <c r="D44" s="153">
+        <f t="shared" si="36"/>
+        <v>2.9395857885609465E-2</v>
+      </c>
+      <c r="E44" s="153">
+        <f t="shared" si="36"/>
+        <v>8.9049969572670459E-2</v>
+      </c>
+      <c r="F44" s="153">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
-        <f>IF(D6="","",MAX(D12,0)/D6)</f>
+      <c r="G44" s="153">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153">
-        <f>IF(E6="","",MAX(E12,0)/E6)</f>
+      <c r="H44" s="153">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153">
-        <f>IF(F6="","",MAX(F12,0)/F6)</f>
-        <v>2.7068908541056925E-4</v>
-      </c>
-      <c r="G44" s="153">
-        <f>IF(G6="","",MAX(G12,0)/G6)</f>
-        <v>1.5868817930031392E-4</v>
-      </c>
-      <c r="H44" s="153">
-        <f>IF(H6="","",MAX(H12,0)/H6)</f>
-        <v>9.1702453784649294E-4</v>
-      </c>
       <c r="I44" s="153" t="str">
-        <f>IF(I6="","",MAX(I12,0)/I6)</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f>IF(J6="","",MAX(J12,0)/J6)</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f>IF(K6="","",MAX(K12,0)/K6)</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f>IF(L6="","",MAX(L12,0)/L6)</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f>IF(M6="","",MAX(M12,0)/M6)</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7790,50 +7790,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>4.0883763120383568E-2</v>
+        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="36"/>
-        <v>2.9395857885609465E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.7334505274905901E-3</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="36"/>
-        <v>8.9049969572670459E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.9677447304235723E-3</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>3.2556042627888463E-3</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>5.6147664039083583E-3</v>
       </c>
       <c r="H45" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>2.1597113239037349E-3</v>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7841,50 +7841,50 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C46" s="153">
-        <f t="shared" ref="C46:M46" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>3.8885650375487034E-3</v>
+        <f>IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>0</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" si="37"/>
-        <v>1.7334505274905901E-3</v>
+        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
+        <v>0</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="37"/>
-        <v>1.9677447304235723E-3</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="37"/>
-        <v>3.2556042627888463E-3</v>
+        <f t="shared" si="38"/>
+        <v>2.7068908541056925E-4</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="37"/>
-        <v>5.6147664039083583E-3</v>
+        <f t="shared" si="38"/>
+        <v>1.5868817930031392E-4</v>
       </c>
       <c r="H46" s="153">
-        <f t="shared" si="37"/>
-        <v>2.1597113239037349E-3</v>
+        <f t="shared" si="38"/>
+        <v>9.1702453784649294E-4</v>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
@@ -7892,50 +7892,50 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.4343830423173436E-2</v>
       </c>
       <c r="D47" s="153">
-        <f>IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
+        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>2.2200239041350014E-2</v>
       </c>
       <c r="E47" s="153">
-        <f>IF(E6="","",ABS(MAX(E21,0)-MAX(E19,0))/E6)</f>
+        <f t="shared" si="39"/>
         <v>3.8804791663312119E-2</v>
       </c>
       <c r="F47" s="153">
-        <f>IF(F6="","",ABS(MAX(F21,0)-MAX(F19,0))/F6)</f>
+        <f t="shared" si="39"/>
         <v>1.5679014505150749E-2</v>
       </c>
       <c r="G47" s="153">
-        <f>IF(G6="","",ABS(MAX(G21,0)-MAX(G19,0))/G6)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H47" s="153">
-        <f>IF(H6="","",ABS(MAX(H21,0)-MAX(H19,0))/H6)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I47" s="153" t="str">
-        <f>IF(I6="","",ABS(MAX(I21,0)-MAX(I19,0))/I6)</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J47" s="153" t="str">
-        <f>IF(J6="","",ABS(MAX(J21,0)-MAX(J19,0))/J6)</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K47" s="153" t="str">
-        <f>IF(K6="","",ABS(MAX(K21,0)-MAX(K19,0))/K6)</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L47" s="153" t="str">
-        <f>IF(L6="","",ABS(MAX(L21,0)-MAX(L19,0))/L6)</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M47" s="153" t="str">
-        <f>IF(M6="","",ABS(MAX(M21,0)-MAX(M19,0))/M6)</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N47" s="87"/>
@@ -7946,47 +7946,47 @@
         <v>121</v>
       </c>
       <c r="C48" s="153">
-        <f>IF(C6="","",C22/C6)</f>
+        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>6.3340950473451521E-2</v>
       </c>
       <c r="D48" s="153">
-        <f>IF(D6="","",D22/D6)</f>
+        <f t="shared" si="40"/>
         <v>6.0454034966559926E-2</v>
       </c>
       <c r="E48" s="153">
-        <f>IF(E6="","",E22/E6)</f>
+        <f t="shared" si="40"/>
         <v>-8.9552533808924892E-3</v>
       </c>
       <c r="F48" s="153">
-        <f>IF(F6="","",F22/F6)</f>
+        <f t="shared" si="40"/>
         <v>8.6629196767003327E-2</v>
       </c>
       <c r="G48" s="153">
-        <f>IF(G6="","",G22/G6)</f>
+        <f t="shared" si="40"/>
         <v>0.10147174384570713</v>
       </c>
       <c r="H48" s="153">
-        <f>IF(H6="","",H22/H6)</f>
+        <f t="shared" si="40"/>
         <v>9.8882155663402055E-2</v>
       </c>
       <c r="I48" s="153" t="str">
-        <f>IF(I6="","",I22/I6)</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J48" s="153" t="str">
-        <f>IF(J6="","",J22/J6)</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K48" s="153" t="str">
-        <f>IF(K6="","",K22/K6)</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L48" s="153" t="str">
-        <f>IF(L6="","",L22/L6)</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M48" s="153" t="str">
-        <f>IF(M6="","",M22/M6)</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
@@ -7994,7 +7994,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8012,50 +8012,50 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C50" s="272">
         <f>IF(C6="","",C6/C27)</f>
         <v>0.90933332162498015</v>
       </c>
       <c r="D50" s="272">
-        <f>IF(D6="","",D6/D27)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>0.80234713373193545</v>
       </c>
       <c r="E50" s="272">
-        <f>IF(E6="","",E6/E27)</f>
+        <f t="shared" si="41"/>
         <v>0.72365032910366656</v>
       </c>
       <c r="F50" s="272">
-        <f>IF(F6="","",F6/F27)</f>
+        <f t="shared" si="41"/>
         <v>0.6106195690350612</v>
       </c>
       <c r="G50" s="272" t="e">
-        <f>IF(G6="","",G6/G27)</f>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="H50" s="272" t="e">
-        <f>IF(H6="","",H6/H27)</f>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="I50" s="272" t="str">
-        <f>IF(I6="","",I6/I27)</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="J50" s="272" t="str">
-        <f>IF(J6="","",J6/J27)</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="K50" s="272" t="str">
-        <f>IF(K6="","",K6/K27)</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="L50" s="272" t="str">
-        <f>IF(L6="","",L6/L27)</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="M50" s="272" t="str">
-        <f>IF(M6="","",M6/M27)</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -8063,50 +8063,50 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C51" s="153">
-        <f>IF(C29="","",C29/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>1.7341358408692387E-2</v>
       </c>
       <c r="D51" s="153">
-        <f>IF(D29="","",D29/D6)</f>
+        <f t="shared" si="42"/>
         <v>1.7851543232655226E-2</v>
       </c>
       <c r="E51" s="153">
-        <f>IF(E29="","",E29/E6)</f>
+        <f t="shared" si="42"/>
         <v>1.5992004636642819E-2</v>
       </c>
       <c r="F51" s="153">
-        <f>IF(F29="","",F29/F6)</f>
+        <f t="shared" si="42"/>
         <v>3.1297541510393184E-2</v>
       </c>
       <c r="G51" s="153" t="str">
-        <f>IF(G29="","",G29/G6)</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f>IF(H29="","",H29/H6)</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f>IF(I29="","",I29/I6)</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f>IF(J29="","",J29/J6)</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f>IF(K29="","",K29/K6)</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f>IF(L29="","",L29/L6)</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f>IF(M29="","",M29/M6)</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
@@ -8114,50 +8114,50 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="C52" s="153">
-        <f>IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
         <v>0.63110270011109249</v>
       </c>
       <c r="D52" s="153">
-        <f>IF(D30="","",D30/D6)</f>
+        <f t="shared" si="43"/>
         <v>0.73908217538982812</v>
       </c>
       <c r="E52" s="153">
-        <f>IF(E30="","",E30/E6)</f>
+        <f t="shared" si="43"/>
         <v>0.74709926550990846</v>
       </c>
       <c r="F52" s="153">
-        <f>IF(F30="","",F30/F6)</f>
+        <f t="shared" si="43"/>
         <v>0.82624277267477186</v>
       </c>
       <c r="G52" s="153" t="str">
-        <f>IF(G30="","",G30/G6)</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="H52" s="153" t="str">
-        <f>IF(H30="","",H30/H6)</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I52" s="153" t="str">
-        <f>IF(I30="","",I30/I6)</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="J52" s="153" t="str">
-        <f>IF(J30="","",J30/J6)</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="K52" s="153" t="str">
-        <f>IF(K30="","",K30/K6)</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="L52" s="153" t="str">
-        <f>IF(L30="","",L30/L6)</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="M52" s="153" t="str">
-        <f>IF(M30="","",M30/M6)</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N52" s="87"/>
@@ -8165,50 +8165,50 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>0.18714483778648183</v>
       </c>
       <c r="D53" s="153">
-        <f>IF(E6="","",D16/(D6-E6))</f>
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>1.4668285834503272</v>
       </c>
       <c r="E53" s="153">
-        <f>IF(F6="","",E16/(E6-F6))</f>
+        <f t="shared" si="44"/>
         <v>0.3633800202192411</v>
       </c>
       <c r="F53" s="153">
-        <f>IF(G6="","",F16/(F6-G6))</f>
+        <f t="shared" si="44"/>
         <v>0.34507864490338203</v>
       </c>
       <c r="G53" s="153" t="e">
-        <f>IF(H6="","",G16/(G6-H6))</f>
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
       <c r="H53" s="153" t="str">
-        <f>IF(I6="","",H16/(H6-I6))</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I53" s="153" t="str">
-        <f>IF(J6="","",I16/(I6-J6))</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J53" s="153" t="str">
-        <f>IF(K6="","",J16/(J6-K6))</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K53" s="153" t="str">
-        <f>IF(L6="","",K16/(K6-L6))</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L53" s="153" t="str">
-        <f>IF(M6="","",L16/(L6-M6))</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M53" s="153" t="str">
-        <f>IF(N6="","",M16/(M6-N6))</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N53" s="87"/>
@@ -8216,7 +8216,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8233,50 +8233,50 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
         <v>0.76485172952944758</v>
       </c>
       <c r="D55" s="156">
-        <f>IF(D36="","",(D36-D37)/D27)</f>
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
         <v>0.81866464065459732</v>
       </c>
       <c r="E55" s="156">
-        <f>IF(E36="","",(E36-E37)/E27)</f>
+        <f t="shared" si="45"/>
         <v>0.74462760142880491</v>
       </c>
       <c r="F55" s="156">
-        <f>IF(F36="","",(F36-F37)/F27)</f>
+        <f t="shared" si="45"/>
         <v>0.7803047524886062</v>
       </c>
       <c r="G55" s="156" t="str">
-        <f>IF(G36="","",(G36-G37)/G27)</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="H55" s="156" t="str">
-        <f>IF(H36="","",(H36-H37)/H27)</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I55" s="156" t="str">
-        <f>IF(I36="","",(I36-I37)/I27)</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J55" s="156" t="str">
-        <f>IF(J36="","",(J36-J37)/J27)</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K55" s="156" t="str">
-        <f>IF(K36="","",(K36-K37)/K27)</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="L55" s="156" t="str">
-        <f>IF(L36="","",(L36-L37)/L27)</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="M55" s="156" t="str">
-        <f>IF(M36="","",(M36-M37)/M27)</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
@@ -8286,47 +8286,47 @@
         <v>118</v>
       </c>
       <c r="C56" s="157">
-        <f>IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>0.4770507174230757</v>
       </c>
       <c r="D56" s="157">
-        <f>IF(OR(D22="",D35=""),"",IF(D35&lt;=0,"-",D22/D35))</f>
+        <f t="shared" si="46"/>
         <v>0.6565297651536719</v>
       </c>
       <c r="E56" s="157">
-        <f>IF(OR(E22="",E35=""),"",IF(E35&lt;=0,"-",E22/E35))</f>
+        <f t="shared" si="46"/>
         <v>-6.0376151204880865E-2</v>
       </c>
       <c r="F56" s="157">
-        <f>IF(OR(F22="",F35=""),"",IF(F35&lt;=0,"-",F22/F35))</f>
+        <f t="shared" si="46"/>
         <v>0.67817467889821803</v>
       </c>
       <c r="G56" s="157" t="str">
-        <f>IF(OR(G22="",G35=""),"",IF(G35&lt;=0,"-",G22/G35))</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="H56" s="157" t="str">
-        <f>IF(OR(H22="",H35=""),"",IF(H35&lt;=0,"-",H22/H35))</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="I56" s="157" t="str">
-        <f>IF(OR(I22="",I35=""),"",IF(I35&lt;=0,"-",I22/I35))</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="J56" s="157" t="str">
-        <f>IF(OR(J22="",J35=""),"",IF(J35&lt;=0,"-",J22/J35))</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="K56" s="157" t="str">
-        <f>IF(OR(K22="",K35=""),"",IF(K35&lt;=0,"-",K22/K35))</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="L56" s="157" t="str">
-        <f>IF(OR(L22="",L35=""),"",IF(L35&lt;=0,"-",L22/L35))</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="M56" s="157" t="str">
-        <f>IF(OR(M22="",M35=""),"",IF(M35&lt;=0,"-",M22/M35))</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
@@ -8336,47 +8336,47 @@
         <v>120</v>
       </c>
       <c r="C57" s="153">
-        <f>IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>6.1391011793840093E-2</v>
       </c>
       <c r="D57" s="153">
-        <f>IF(D22="","",IF(MAX(D17,0)&lt;=0,"-",D17/D22))</f>
+        <f t="shared" si="47"/>
         <v>2.8673859874687374E-2</v>
       </c>
       <c r="E57" s="153">
-        <f>IF(E22="","",IF(MAX(E17,0)&lt;=0,"-",E17/E22))</f>
+        <f t="shared" si="47"/>
         <v>-0.21973077106026734</v>
       </c>
       <c r="F57" s="153">
-        <f>IF(F22="","",IF(MAX(F17,0)&lt;=0,"-",F17/F22))</f>
+        <f t="shared" si="47"/>
         <v>3.7580912490105083E-2</v>
       </c>
       <c r="G57" s="153">
-        <f>IF(G22="","",IF(MAX(G17,0)&lt;=0,"-",G17/G22))</f>
+        <f t="shared" si="47"/>
         <v>5.5333299607483753E-2</v>
       </c>
       <c r="H57" s="153">
-        <f>IF(H22="","",IF(MAX(H17,0)&lt;=0,"-",H17/H22))</f>
+        <f t="shared" si="47"/>
         <v>2.1841264578165751E-2</v>
       </c>
       <c r="I57" s="153" t="str">
-        <f>IF(I22="","",IF(MAX(I17,0)&lt;=0,"-",I17/I22))</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J57" s="153" t="str">
-        <f>IF(J22="","",IF(MAX(J17,0)&lt;=0,"-",J17/J22))</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K57" s="153" t="str">
-        <f>IF(K22="","",IF(MAX(K17,0)&lt;=0,"-",K17/K22))</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="L57" s="153" t="str">
-        <f>IF(L22="","",IF(MAX(L17,0)&lt;=0,"-",L17/L22))</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="M57" s="153" t="str">
-        <f>IF(M22="","",IF(MAX(M17,0)&lt;=0,"-",M17/M22))</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
@@ -8386,197 +8386,197 @@
         <v>20</v>
       </c>
       <c r="C58" s="158">
-        <f>IF(C28="","",C28/C31)</f>
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>3.5066755118062995</v>
       </c>
       <c r="D58" s="158">
-        <f>IF(D28="","",D28/D31)</f>
+        <f t="shared" si="48"/>
         <v>4.8543433811852026</v>
       </c>
       <c r="E58" s="158">
-        <f>IF(E28="","",E28/E31)</f>
+        <f t="shared" si="48"/>
         <v>3.3265242212912804</v>
       </c>
       <c r="F58" s="158">
-        <f>IF(F28="","",F28/F31)</f>
+        <f t="shared" si="48"/>
         <v>3.9815520169188523</v>
       </c>
       <c r="G58" s="158" t="str">
-        <f>IF(G28="","",G28/G31)</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="H58" s="158" t="str">
-        <f>IF(H28="","",H28/H31)</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="I58" s="158" t="str">
-        <f>IF(I28="","",I28/I31)</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="J58" s="158" t="str">
-        <f>IF(J28="","",J28/J31)</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K58" s="158" t="str">
-        <f>IF(K28="","",K28/K31)</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L58" s="158" t="str">
-        <f>IF(L28="","",L28/L31)</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M58" s="158" t="str">
-        <f>IF(M28="","",M28/M31)</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
         <v/>
       </c>
       <c r="D59" s="273" t="str">
-        <f>IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
         <v/>
       </c>
       <c r="E59" s="273" t="str">
-        <f>IFERROR(IF(E13*E50*(1/E55)=E60,"","Error"),"")</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="F59" s="273" t="str">
-        <f>IFERROR(IF(F13*F50*(1/F55)=F60,"","Error"),"")</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="G59" s="273" t="str">
-        <f>IFERROR(IF(G13*G50*(1/G55)=G60,"","Error"),"")</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="H59" s="273" t="str">
-        <f>IFERROR(IF(H13*H50*(1/H55)=H60,"","Error"),"")</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I59" s="273" t="str">
-        <f>IFERROR(IF(I13*I50*(1/I55)=I60,"","Error"),"")</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="J59" s="273" t="str">
-        <f>IFERROR(IF(J13*J50*(1/J55)=J60,"","Error"),"")</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="K59" s="273" t="str">
-        <f>IFERROR(IF(K13*K50*(1/K55)=K60,"","Error"),"")</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="L59" s="273" t="str">
-        <f>IFERROR(IF(L13*L50*(1/L55)=L60,"","Error"),"")</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="M59" s="273" t="str">
-        <f>IFERROR(IF(M13*M50*(1/M55)=M60,"","Error"),"")</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
         <v>0.14558943313324324</v>
       </c>
       <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="38">IF(D14="","",D14/(D36-D37))</f>
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
         <v>0.11151566427524089</v>
       </c>
       <c r="E60" s="274">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.11746224145268362</v>
       </c>
       <c r="F60" s="274">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>8.2607893059814155E-2</v>
       </c>
       <c r="G60" s="274" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
       <c r="H60" s="274" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
       <c r="I60" s="274" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="J60" s="274" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="K60" s="274" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="L60" s="274" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="M60" s="274" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
         <v>7.5306147146117483E-2</v>
       </c>
       <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="39">IF(D22="","",D22/(D36-D37))</f>
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
         <v>5.9249073758902385E-2</v>
       </c>
       <c r="E61" s="274">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>-8.7029705101647117E-3</v>
       </c>
       <c r="F61" s="274">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>6.7790799206356847E-2</v>
       </c>
       <c r="G61" s="274" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>#VALUE!</v>
       </c>
       <c r="H61" s="274" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>#VALUE!</v>
       </c>
       <c r="I61" s="274" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="J61" s="274" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="K61" s="274" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L61" s="274" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="M61" s="274" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
     </row>
@@ -9866,8 +9866,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10037,7 +10037,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10195,7 +10195,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10607,7 +10607,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11075,7 +11075,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11089,11 +11089,11 @@
         <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>2034922</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11104,11 +11104,11 @@
         <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11120,11 +11120,11 @@
         <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11141,7 +11141,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11218,7 +11218,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11264,7 +11264,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11299,7 +11299,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11338,19 +11338,19 @@
       <c r="B72" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>196</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>195</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11360,18 +11360,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11448,7 +11448,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11478,7 +11478,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11508,7 +11508,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11571,7 +11571,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11601,7 +11601,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11682,7 +11682,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11713,7 +11713,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11734,28 +11734,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9862109661793824E-2</v>
+        <v>8.9992533623567114E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2945283703170988E-2</v>
+        <v>8.3065668730316386E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3313444166067225E-2</v>
+        <v>9.3448877321605797E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11785,21 +11785,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.855072463768115E-2</v>
+        <v>9.8693759071117562E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2463768115942032E-2</v>
+        <v>7.2568940493468792E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9710144927536239E-2</v>
+        <v>7.982583454281568E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11821,24 +11821,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>196</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>150</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>195</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11855,24 +11855,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.122349611581328</v>
+        <v>28.137984116171534</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>33.181422223817037</v>
+        <v>33.201978900519904</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11883,18 +11883,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.402453627881719</v>
+        <v>23.413930819686534</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>26.624216955368194</v>
+        <v>26.638483773039045</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11913,14 +11913,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11937,21 +11937,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9685536.5038276892</v>
+        <v>9691536.9230158739</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.981777968803135</v>
+        <v>13.9895510807533</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>16.497031173791477</v>
+        <v>16.507251475203191</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>22.517488195861585</v>
+        <v>22.531438312944594</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12000,27 +12000,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>9634156.80382769</v>
+        <v>9640157.2230158746</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.873528678401001</v>
+        <v>12.8811758790798</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.881137762749001</v>
+        <v>13.888910874699166</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.145327856942355</v>
+        <v>15.154324563623295</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>16.409517951135708</v>
+        <v>16.419738252547422</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>22.429974973205816</v>
+        <v>22.443925090288825</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12030,21 +12030,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12057,31 +12057,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7771512.1271068482</v>
+        <v>7775676.5593126891</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.570641122329855</v>
+        <v>10.576080834428311</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.635155492679853</v>
+        <v>11.640861685431764</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>12.436048379211595</v>
+        <v>12.442448040503894</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>13.236941265743335</v>
+        <v>13.244034395576024</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>18.06765505627553</v>
+        <v>18.077336766008436</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12091,21 +12091,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12118,31 +12118,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7490408.0365821682</v>
+        <v>7494364.9393837331</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.722084900365427</v>
+        <v>11.728628356754054</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.758146627714428</v>
+        <v>12.764886280065465</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.790688118076975</v>
+        <v>13.798386302063594</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.823229608439522</v>
+        <v>14.831886324061724</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.248815014740671</v>
+        <v>20.260630928148629</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12151,7 +12151,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CBEBA2-D8F1-4743-90A0-4E642D82C4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712F3B35-CCD2-4029-964D-6906C7570917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -752,10 +748,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -915,10 +907,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -983,6 +971,18 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>六福珠宝</t>
   </si>
   <si>
@@ -999,6 +999,14 @@
   </si>
   <si>
     <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -2399,7 +2407,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2504,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2804,20 +2828,20 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>267</v>
@@ -2825,7 +2849,7 @@
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -2841,7 +2865,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>268</v>
@@ -2850,15 +2874,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>587107850</v>
@@ -2866,7 +2890,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -2890,7 +2914,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45382</v>
@@ -2898,10 +2922,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,7 +2939,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
         <v>269</v>
@@ -2924,16 +2948,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
         <v>270</v>
@@ -2942,7 +2966,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
         <v>270</v>
@@ -2951,7 +2975,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
         <v>269</v>
@@ -2960,7 +2984,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
         <v>271</v>
@@ -2969,7 +2993,7 @@
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3118,7 +3142,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C29" s="150">
         <v>59596</v>
@@ -3240,20 +3264,14 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>15</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
-      <c r="D34" s="150">
-        <v>11972903</v>
-      </c>
-      <c r="E34" s="150">
-        <v>13002006</v>
-      </c>
-      <c r="F34" s="150">
-        <v>11732726</v>
-      </c>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
       <c r="G34" s="150"/>
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
@@ -3264,7 +3282,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -3286,7 +3304,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -3308,9 +3326,11 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="217"/>
+        <v>264</v>
+      </c>
+      <c r="C37" s="150">
+        <v>3990166</v>
+      </c>
       <c r="D37" s="150">
         <v>2466431</v>
       </c>
@@ -3328,20 +3348,14 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
-      <c r="D38" s="150">
-        <v>241133</v>
-      </c>
-      <c r="E38" s="150">
-        <v>233155</v>
-      </c>
-      <c r="F38" s="150">
-        <v>241043</v>
-      </c>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
       <c r="G38" s="150"/>
       <c r="H38" s="150"/>
       <c r="I38" s="150"/>
@@ -3396,10 +3410,13 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," - Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150">
+        <v>12863898</v>
+      </c>
       <c r="D41" s="150">
         <v>12220942</v>
       </c>
@@ -3419,9 +3436,11 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>250</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>134</v>
+      </c>
+      <c r="C42" s="150">
+        <v>-26962</v>
+      </c>
       <c r="D42" s="150">
         <v>-498</v>
       </c>
@@ -3441,7 +3460,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -3463,7 +3482,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.72+0.64</f>
@@ -3497,31 +3516,31 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8693759071117562E-2</v>
+        <v>9.8265895953757218E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.982583454281568E-2</v>
+        <v>7.947976878612717E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.982583454281568E-2</v>
+        <v>7.947976878612717E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2568940493468792E-2</v>
+        <v>7.2254335260115612E-2</v>
       </c>
       <c r="G45" s="152">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2568940493468792E-2</v>
+        <v>7.2254335260115612E-2</v>
       </c>
       <c r="H45" s="152">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3454281567489116E-2</v>
+        <v>8.3092485549132941E-2</v>
       </c>
       <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3546,13 +3565,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -3572,7 +3591,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3582,7 +3601,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>265773</v>
@@ -3615,7 +3634,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3626,7 +3645,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59">
         <v>366595</v>
@@ -3664,7 +3683,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3733,7 +3752,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3744,7 +3763,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59">
         <v>103050</v>
@@ -3795,7 +3814,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>2522337</v>
@@ -3916,21 +3935,17 @@
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="83">
-        <v>473357</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>273</v>
+      </c>
+      <c r="C82" s="217"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="C83" s="59">
-        <v>12890860</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C83" s="217"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3946,7 +3961,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3954,10 +3969,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3965,7 +3980,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3973,10 +3988,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3998,7 +4013,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4037,7 +4052,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4058,7 +4073,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4076,7 +4091,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4115,7 +4130,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4133,7 +4148,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4155,28 +4170,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4218,8 +4238,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4260,7 +4280,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4272,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>13.78</v>
+        <v>13.84</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>272</v>
@@ -4280,7 +4300,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4300,7 +4320,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4313,7 +4333,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>8090.3461729999999</v>
+        <v>8125.5726439999999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4347,7 +4367,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4372,40 +4392,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4418,29 +4438,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4450,12 +4470,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4465,7 +4485,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -4473,21 +4493,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C20" s="276">
         <f>C23*C22*(1/C21)</f>
         <v>0.14558943313324324</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4495,10 +4515,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C21" s="278">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>0.76485172952944758</v>
       </c>
       <c r="F21" s="87"/>
@@ -4506,58 +4526,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C22" s="280">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>0.90933332162498015</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.12245710905455723</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62891871289713275</v>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>0.63165711077622044</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.8885650375487034E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.701038136161701</v>
+        <v>10.747631916144989</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>1.9999999999999997E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4566,18 +4586,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>2.9999999999999995E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.982583454281568E-2</v>
+        <v>7.947976878612717E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4587,40 +4607,40 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.8811758790798</v>
+        <v>12.858311363695529</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>25.810513853832148</v>
+        <v>25.762548714297665</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.154324563623295</v>
+        <v>15.127425133759447</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.443925090288825</v>
+        <v>22.402216273302319</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4628,21 +4648,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4652,25 +4672,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4680,7 +4700,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4690,14 +4710,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4707,7 +4727,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4722,14 +4742,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5629,27 +5649,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5681,12 +5701,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5713,16 +5733,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5740,7 +5760,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -5773,7 +5793,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5784,7 +5804,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6140,7 +6160,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6191,7 +6211,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6242,7 +6262,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6293,7 +6313,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6395,7 +6415,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6548,7 +6568,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6803,7 +6823,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6854,7 +6874,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6908,20 +6928,20 @@
         <v>14</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>16854064</v>
       </c>
       <c r="D27" s="65">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v>14928506</v>
+        <f>IF(D34="","",D34+D30)</f>
+        <v>14687373</v>
       </c>
       <c r="E27" s="65">
-        <f t="shared" si="20"/>
-        <v>16220269</v>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
+        <v>15987114</v>
       </c>
       <c r="F27" s="65">
         <f t="shared" si="20"/>
-        <v>14512039</v>
+        <v>14270996</v>
       </c>
       <c r="G27" s="65" t="str">
         <f t="shared" si="20"/>
@@ -6956,50 +6976,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>12332308</v>
+        <f>Fin_Analysis!C13</f>
+        <v>265773</v>
       </c>
       <c r="D28" s="199">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v>11972903</v>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v>213823</v>
       </c>
       <c r="E28" s="199">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
-        <v>13002006</v>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <v>187711</v>
       </c>
       <c r="F28" s="199">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
-        <v>11732726</v>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <v>277338</v>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -7007,50 +7027,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>265773</v>
+        <f>Fin_Analysis!C18</f>
+        <v>9672256</v>
       </c>
       <c r="D29" s="199">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
-        <v>213823</v>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <v>8852611</v>
       </c>
       <c r="E29" s="199">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
-        <v>187711</v>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <v>8769304</v>
       </c>
       <c r="F29" s="199">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
-        <v>277338</v>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <v>7321614</v>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -7058,101 +7078,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>143</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>9672256</v>
+        <f>IF(Inputs!C37="",Inputs!C77+Inputs!C82,Inputs!C37)</f>
+        <v>3990166</v>
       </c>
       <c r="D30" s="199">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v>8852611</v>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v>2466431</v>
       </c>
       <c r="E30" s="199">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
-        <v>8769304</v>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <v>3908586</v>
       </c>
       <c r="F30" s="199">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
-        <v>7321614</v>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <v>2946772</v>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>3516809</v>
+        <f>Fin_Analysis!I15</f>
+        <v>1715502</v>
       </c>
       <c r="D31" s="199">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v>2466431</v>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
+        <v>1035175</v>
       </c>
       <c r="E31" s="199">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
-        <v>3908586</v>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
+        <v>1587989</v>
       </c>
       <c r="F31" s="199">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
-        <v>2946772</v>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
+        <v>1050082</v>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7160,101 +7180,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>473357</v>
+        <f>Fin_Analysis!I34</f>
+        <v>319420</v>
       </c>
       <c r="D32" s="199">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
-        <v>241133</v>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <v>67759</v>
       </c>
       <c r="E32" s="199">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
-        <v>233155</v>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <v>153013</v>
       </c>
       <c r="F32" s="199">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
-        <v>241043</v>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <v>81854</v>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>1715502</v>
-      </c>
-      <c r="D33" s="199">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v>1035175</v>
-      </c>
-      <c r="E33" s="199">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v>1587989</v>
-      </c>
-      <c r="F33" s="199">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v>1050082</v>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>19</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>2034922</v>
+      </c>
+      <c r="D33" s="77">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v>1102934</v>
+      </c>
+      <c r="E33" s="77">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v>1741002</v>
+      </c>
+      <c r="F33" s="77">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v>1131936</v>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7262,50 +7282,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>319420</v>
+        <f>Inputs!C41</f>
+        <v>12863898</v>
       </c>
       <c r="D34" s="199">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
-        <v>67759</v>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <v>12220942</v>
       </c>
       <c r="E34" s="199">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
-        <v>153013</v>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <v>12078528</v>
       </c>
       <c r="F34" s="199">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
-        <v>81854</v>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <v>11324224</v>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7313,50 +7333,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>2034922</v>
-      </c>
-      <c r="D35" s="77">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v>1102934</v>
-      </c>
-      <c r="E35" s="77">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v>1741002</v>
-      </c>
-      <c r="F35" s="77">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v>1131936</v>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>134</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>-26962</v>
+      </c>
+      <c r="D35" s="199">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v>-498</v>
+      </c>
+      <c r="E35" s="199">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v>468</v>
+      </c>
+      <c r="F35" s="199">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v>411</v>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7364,50 +7384,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>12863898</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v>12220942</v>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v>3475378</v>
       </c>
       <c r="E36" s="199">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
-        <v>12078528</v>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
+        <v>4499643</v>
       </c>
       <c r="F36" s="199">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
-        <v>11324224</v>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
+        <v>4455433</v>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7415,272 +7435,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>-26962</v>
-      </c>
-      <c r="D37" s="199">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v>-498</v>
-      </c>
-      <c r="E37" s="199">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v>468</v>
-      </c>
-      <c r="F37" s="199">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v>411</v>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>13930119</v>
+      </c>
+      <c r="D37" s="65">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v>11211995</v>
+      </c>
+      <c r="E37" s="65">
+        <f t="shared" si="32"/>
+        <v>11487471</v>
+      </c>
+      <c r="F37" s="65">
+        <f t="shared" si="32"/>
+        <v>9815563</v>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>2923945</v>
-      </c>
-      <c r="D38" s="199">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v>3475378</v>
-      </c>
-      <c r="E38" s="199">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v>4499643</v>
-      </c>
-      <c r="F38" s="199">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v>4455433</v>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>0.13472770763839131</v>
+      </c>
+      <c r="D38" s="155">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>0.12155570886358762</v>
+      </c>
+      <c r="E38" s="155">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>0.12350116052523658</v>
+      </c>
+      <c r="F38" s="155">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v>9.5301342707833817E-2</v>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>13930119</v>
-      </c>
-      <c r="D39" s="65">
-        <f>IF(D38="","",D27-D38)</f>
-        <v>11453128</v>
-      </c>
-      <c r="E39" s="65">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v>11720626</v>
-      </c>
-      <c r="F39" s="65">
-        <f t="shared" si="32"/>
-        <v>10056606</v>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>0.13472770763839131</v>
-      </c>
-      <c r="D40" s="155">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>0.11899648724785054</v>
-      </c>
-      <c r="E40" s="155">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>0.12104438790214789</v>
-      </c>
-      <c r="F40" s="155">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v>9.3017100732924546E-2</v>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.72762956087193742</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.7303022981431383</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.7244946946204498</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.70294374380383995</v>
+      </c>
+      <c r="G40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.70419372087965826</v>
+      </c>
+      <c r="H40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.74565961264792724</v>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.14991333007350532</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.15591411943585173</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.1546380527940365</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.19122175157580659</v>
+      </c>
+      <c r="G41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.18856108069142588</v>
+      </c>
+      <c r="H41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.15238149582692045</v>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.72762956087193742</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.7303022981431383</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.7244946946204498</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.70294374380383995</v>
-      </c>
-      <c r="G42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.70419372087965826</v>
-      </c>
-      <c r="H42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.74565961264792724</v>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>4.0883763120383568E-2</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>2.9395857885609465E-2</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>8.9049969572670459E-2</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7688,50 +7708,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.14991333007350532</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.15591411943585173</v>
+        <f t="shared" si="37"/>
+        <v>1.7334505274905901E-3</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.1546380527940365</v>
+        <f t="shared" si="37"/>
+        <v>1.9677447304235723E-3</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.19122175157580659</v>
+        <f t="shared" si="37"/>
+        <v>3.2556042627888463E-3</v>
       </c>
       <c r="G43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.18856108069142588</v>
+        <f t="shared" si="37"/>
+        <v>5.6147664039083583E-3</v>
       </c>
       <c r="H43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.15238149582692045</v>
+        <f t="shared" si="37"/>
+        <v>2.1597113239037349E-3</v>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7739,50 +7759,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>4.0883763120383568E-2</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>2.9395857885609465E-2</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
-        <v>8.9049969572670459E-2</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="F44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>2.7068908541056925E-4</v>
       </c>
       <c r="G44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.5868817930031392E-4</v>
       </c>
       <c r="H44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>9.1702453784649294E-4</v>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7790,50 +7810,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>3.8885650375487034E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>1.4343830423173436E-2</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.7334505274905901E-3</v>
+        <f t="shared" si="39"/>
+        <v>2.2200239041350014E-2</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.9677447304235723E-3</v>
+        <f t="shared" si="39"/>
+        <v>3.8804791663312119E-2</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.2556042627888463E-3</v>
+        <f t="shared" si="39"/>
+        <v>1.5679014505150749E-2</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.6147664039083583E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="H45" s="153">
-        <f t="shared" si="37"/>
-        <v>2.1597113239037349E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7841,221 +7861,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>6.3340950473451521E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>6.0454034966559926E-2</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>-8.9552533808924892E-3</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>2.7068908541056925E-4</v>
+        <f t="shared" si="40"/>
+        <v>8.6629196767003327E-2</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.5868817930031392E-4</v>
+        <f t="shared" si="40"/>
+        <v>0.10147174384570713</v>
       </c>
       <c r="H46" s="153">
-        <f t="shared" si="38"/>
-        <v>9.1702453784649294E-4</v>
+        <f t="shared" si="40"/>
+        <v>9.8882155663402055E-2</v>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>1.4343830423173436E-2</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>2.2200239041350014E-2</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>3.8804791663312119E-2</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>1.5679014505150749E-2</v>
-      </c>
-      <c r="G47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>6.3340950473451521E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>6.0454034966559926E-2</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>-8.9552533808924892E-3</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>8.6629196767003327E-2</v>
-      </c>
-      <c r="G48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.10147174384570713</v>
-      </c>
-      <c r="H48" s="153">
-        <f t="shared" si="40"/>
-        <v>9.8882155663402055E-2</v>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>0.90933332162498015</v>
+      </c>
+      <c r="D48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.81551983462257005</v>
+      </c>
+      <c r="E48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.73420399704411943</v>
+      </c>
+      <c r="F48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.62093318504188499</v>
+      </c>
+      <c r="G48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>1.7341358408692387E-2</v>
+      </c>
+      <c r="D49" s="153">
+        <f t="shared" si="42"/>
+        <v>1.7851543232655226E-2</v>
+      </c>
+      <c r="E49" s="153">
+        <f t="shared" si="42"/>
+        <v>1.5992004636642819E-2</v>
+      </c>
+      <c r="F49" s="153">
+        <f t="shared" si="42"/>
+        <v>3.1297541510393184E-2</v>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
-        <v>258</v>
-      </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>0.90933332162498015</v>
-      </c>
-      <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>0.80234713373193545</v>
-      </c>
-      <c r="E50" s="272">
-        <f t="shared" si="41"/>
-        <v>0.72365032910366656</v>
-      </c>
-      <c r="F50" s="272">
-        <f t="shared" si="41"/>
-        <v>0.6106195690350612</v>
-      </c>
-      <c r="G50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="B50" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0.63110270011109249</v>
+      </c>
+      <c r="D50" s="153">
+        <f t="shared" si="43"/>
+        <v>0.73908217538982812</v>
+      </c>
+      <c r="E50" s="153">
+        <f t="shared" si="43"/>
+        <v>0.74709926550990846</v>
+      </c>
+      <c r="F50" s="153">
+        <f t="shared" si="43"/>
+        <v>0.82624277267477186</v>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -8063,522 +8083,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>1.7341358408692387E-2</v>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>0.18714483778648183</v>
       </c>
       <c r="D51" s="153">
-        <f t="shared" si="42"/>
-        <v>1.7851543232655226E-2</v>
+        <f t="shared" si="44"/>
+        <v>1.4668285834503272</v>
       </c>
       <c r="E51" s="153">
-        <f t="shared" si="42"/>
-        <v>1.5992004636642819E-2</v>
+        <f t="shared" si="44"/>
+        <v>0.3633800202192411</v>
       </c>
       <c r="F51" s="153">
-        <f t="shared" si="42"/>
-        <v>3.1297541510393184E-2</v>
-      </c>
-      <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <f t="shared" si="44"/>
+        <v>0.34507864490338203</v>
+      </c>
+      <c r="G51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0.63110270011109249</v>
-      </c>
-      <c r="D52" s="153">
-        <f t="shared" si="43"/>
-        <v>0.73908217538982812</v>
-      </c>
-      <c r="E52" s="153">
-        <f t="shared" si="43"/>
-        <v>0.74709926550990846</v>
-      </c>
-      <c r="F52" s="153">
-        <f t="shared" si="43"/>
-        <v>0.82624277267477186</v>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>0.18714483778648183</v>
-      </c>
-      <c r="D53" s="153">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>1.4668285834503272</v>
-      </c>
-      <c r="E53" s="153">
-        <f t="shared" si="44"/>
-        <v>0.3633800202192411</v>
-      </c>
-      <c r="F53" s="153">
-        <f t="shared" si="44"/>
-        <v>0.34507864490338203</v>
-      </c>
-      <c r="G53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>0.76485172952944758</v>
+      </c>
+      <c r="D53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.83210523760784183</v>
+      </c>
+      <c r="E53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.755487200504106</v>
+      </c>
+      <c r="F53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.79348442112940121</v>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>0.4770507174230757</v>
+      </c>
+      <c r="D54" s="157">
+        <f t="shared" si="46"/>
+        <v>0.6565297651536719</v>
+      </c>
+      <c r="E54" s="157">
+        <f t="shared" si="46"/>
+        <v>-6.0376151204880865E-2</v>
+      </c>
+      <c r="F54" s="157">
+        <f t="shared" si="46"/>
+        <v>0.67817467889821803</v>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>254</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.76485172952944758</v>
-      </c>
-      <c r="D55" s="156">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v>0.81866464065459732</v>
-      </c>
-      <c r="E55" s="156">
-        <f t="shared" si="45"/>
-        <v>0.74462760142880491</v>
-      </c>
-      <c r="F55" s="156">
-        <f t="shared" si="45"/>
-        <v>0.7803047524886062</v>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>6.1391011793840093E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>2.8673859874687374E-2</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.21973077106026734</v>
+      </c>
+      <c r="F55" s="153">
+        <f t="shared" si="47"/>
+        <v>3.7580912490105083E-2</v>
+      </c>
+      <c r="G55" s="153">
+        <f t="shared" si="47"/>
+        <v>5.5333299607483753E-2</v>
+      </c>
+      <c r="H55" s="153">
+        <f t="shared" si="47"/>
+        <v>2.1841264578165751E-2</v>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.4770507174230757</v>
-      </c>
-      <c r="D56" s="157">
-        <f t="shared" si="46"/>
-        <v>0.6565297651536719</v>
-      </c>
-      <c r="E56" s="157">
-        <f t="shared" si="46"/>
-        <v>-6.0376151204880865E-2</v>
-      </c>
-      <c r="F56" s="157">
-        <f t="shared" si="46"/>
-        <v>0.67817467889821803</v>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>6.1391011793840093E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>2.8673859874687374E-2</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>-0.21973077106026734</v>
-      </c>
-      <c r="F57" s="153">
-        <f t="shared" si="47"/>
-        <v>3.7580912490105083E-2</v>
-      </c>
-      <c r="G57" s="153">
-        <f t="shared" si="47"/>
-        <v>5.5333299607483753E-2</v>
-      </c>
-      <c r="H57" s="153">
-        <f t="shared" si="47"/>
-        <v>2.1841264578165751E-2</v>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>3.5066755118062995</v>
-      </c>
-      <c r="D58" s="158">
-        <f t="shared" si="48"/>
-        <v>4.8543433811852026</v>
-      </c>
-      <c r="E58" s="158">
-        <f t="shared" si="48"/>
-        <v>3.3265242212912804</v>
-      </c>
-      <c r="F58" s="158">
-        <f t="shared" si="48"/>
-        <v>3.9815520169188523</v>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>0.14558943313324324</v>
+      </c>
+      <c r="D58" s="274">
+        <f t="shared" si="49"/>
+        <v>0.11151566427524089</v>
+      </c>
+      <c r="E58" s="274">
+        <f t="shared" si="49"/>
+        <v>0.11746224145268362</v>
+      </c>
+      <c r="F58" s="274">
+        <f t="shared" si="49"/>
+        <v>8.2607893059814155E-2</v>
+      </c>
+      <c r="G58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
-        <v>255</v>
-      </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" s="274">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>7.5306147146117483E-2</v>
+      </c>
+      <c r="D59" s="274">
+        <f t="shared" si="50"/>
+        <v>5.9249073758902385E-2</v>
+      </c>
+      <c r="E59" s="274">
+        <f t="shared" si="50"/>
+        <v>-8.7029705101647117E-3</v>
+      </c>
+      <c r="F59" s="274">
+        <f t="shared" si="50"/>
+        <v>6.7790799206356847E-2</v>
+      </c>
+      <c r="G59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>0.14558943313324324</v>
-      </c>
-      <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>0.11151566427524089</v>
-      </c>
-      <c r="E60" s="274">
-        <f t="shared" si="50"/>
-        <v>0.11746224145268362</v>
-      </c>
-      <c r="F60" s="274">
-        <f t="shared" si="50"/>
-        <v>8.2607893059814155E-2</v>
-      </c>
-      <c r="G60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>257</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>7.5306147146117483E-2</v>
-      </c>
-      <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>5.9249073758902385E-2</v>
-      </c>
-      <c r="E61" s="274">
-        <f t="shared" si="51"/>
-        <v>-8.7029705101647117E-3</v>
-      </c>
-      <c r="F61" s="274">
-        <f t="shared" si="51"/>
-        <v>6.7790799206356847E-2</v>
-      </c>
-      <c r="G61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9138,12 +9062,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9825,27 +9745,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9866,8 +9789,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9904,7 +9827,7 @@
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
-        <f>C49-I49</f>
+        <f>Inputs!C41</f>
         <v>12863898</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9917,7 +9840,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="204">
-        <f>Inputs!C83</f>
+        <f>D3-D4</f>
         <v>12890860</v>
       </c>
       <c r="K3" s="24"/>
@@ -9928,7 +9851,7 @@
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
-        <f>D3-I3</f>
+        <f>Inputs!C42</f>
         <v>-26962</v>
       </c>
       <c r="E4" s="37"/>
@@ -10037,7 +9960,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10084,7 +10007,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10112,7 +10035,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10195,7 +10118,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10217,7 +10140,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10285,7 +10208,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10607,7 +10530,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10744,7 +10667,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10981,7 +10904,7 @@
         <v>82</v>
       </c>
       <c r="I48" s="207">
-        <f>Inputs!C82</f>
+        <f>I49-I28</f>
         <v>473357</v>
       </c>
       <c r="J48" s="8"/>
@@ -11008,7 +10931,7 @@
         <v>83</v>
       </c>
       <c r="I49" s="52">
-        <f>I28+I48</f>
+        <f>Inputs!C37</f>
         <v>3990166</v>
       </c>
       <c r="J49" s="87"/>
@@ -11075,7 +10998,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11141,7 +11064,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11176,7 +11099,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11197,7 +11120,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11218,7 +11141,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11233,7 +11156,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11264,7 +11187,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11278,7 +11201,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11299,7 +11222,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11314,7 +11237,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11336,7 +11259,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11344,11 +11267,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11376,7 +11299,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11448,7 +11371,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11478,7 +11401,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11508,7 +11431,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11566,12 +11489,12 @@
         <v>1.9999999999999997E-2</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11601,7 +11524,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11631,7 +11554,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11682,7 +11605,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11713,7 +11636,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11734,28 +11657,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9992533623567114E-2</v>
+        <v>8.9602392581846435E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3065668730316386E-2</v>
+        <v>8.2705557449693615E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3448877321605797E-2</v>
+        <v>9.3043752130905183E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11785,21 +11708,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.8693759071117562E-2</v>
+        <v>9.8265895953757218E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2568940493468792E-2</v>
+        <v>7.2254335260115612E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.982583454281568E-2</v>
+        <v>7.947976878612717E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11816,27 +11739,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11855,24 +11778,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.137984116171534</v>
+        <v>28.091236860388047</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>33.201978900519904</v>
+        <v>33.140517433110787</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11883,18 +11806,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.413930819686534</v>
+        <v>23.37961216242973</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>26.638483773039045</v>
+        <v>26.595825226671593</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11913,14 +11836,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11933,31 +11856,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9691536.9230158739</v>
+        <v>9673596.5441449955</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.9895510807533</v>
+        <v>13.966309432738711</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>16.507251475203191</v>
+        <v>16.476694263490081</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>22.531438312944594</v>
+        <v>22.489729495958088</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11975,7 +11898,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12000,27 +11923,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>9640157.2230158746</v>
+        <v>9622216.8441449963</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.8811758790798</v>
+        <v>12.858311363695529</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.888910874699166</v>
+        <v>13.865669226684577</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.154324563623295</v>
+        <v>15.127425133759447</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>16.419738252547422</v>
+        <v>16.389181040834316</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>22.443925090288825</v>
+        <v>22.402216273302319</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12030,21 +11953,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12057,31 +11980,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7775676.5593126891</v>
+        <v>7763224.6847289158</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.576080834428311</v>
+        <v>10.559815542642433</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.640861685431764</v>
+        <v>11.623799247457004</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>12.442448040503894</v>
+        <v>12.423312403108744</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>13.244034395576024</v>
+        <v>13.222825558760483</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>18.077336766008436</v>
+        <v>18.048387937118509</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12091,21 +12014,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12118,31 +12041,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7494364.9393837331</v>
+        <v>7482533.5167480223</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.728628356754054</v>
+        <v>11.70906345316898</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.764886280065465</v>
+        <v>12.744734237070791</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.798386302063594</v>
+        <v>13.775368768434095</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.831886324061724</v>
+        <v>14.8060032997974</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.260630928148629</v>
+        <v>20.225302105210414</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12151,7 +12074,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12160,7 +12083,6 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712F3B35-CCD2-4029-964D-6906C7570917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9A71BC-A844-4E3D-A44E-AFBF4A4AF8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -947,10 +947,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -983,6 +979,22 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>六福珠宝</t>
   </si>
   <si>
@@ -999,14 +1011,6 @@
   </si>
   <si>
     <t>HKD</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlaceHolder_3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1918,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2154,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2358,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2597,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2814,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2832,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="187" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="191" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>587107850</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="191" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45382</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45382</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
+      <c r="B15" s="215" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="176" t="s">
+      <c r="C15" s="175" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
+      <c r="B17" s="237" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="C17" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
+      <c r="C18" s="239" t="s">
         <v>231</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
+      <c r="B19" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="242" t="s">
-        <v>270</v>
+      <c r="C19" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
+      <c r="B20" s="238" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="242" t="s">
-        <v>270</v>
+      <c r="C20" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
+      <c r="B21" s="221" t="s">
         <v>217</v>
       </c>
-      <c r="C21" s="242" t="s">
-        <v>269</v>
+      <c r="C21" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
+      <c r="B22" s="223" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="243" t="s">
-        <v>271</v>
+      <c r="C22" s="240" t="s">
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3044,521 +3048,532 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>15325962</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>11977844</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>11737803</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>8861335</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="148">
         <v>11233771</v>
       </c>
-      <c r="H25" s="149">
+      <c r="H25" s="148">
         <v>15859990</v>
       </c>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>11151623</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>8747447</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>8503976</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>6229020</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="149">
         <v>7910751</v>
       </c>
-      <c r="H26" s="150">
+      <c r="H26" s="149">
         <v>11826154</v>
       </c>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>2297566</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>1867515</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>1815111</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>1694480</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <v>2118252</v>
       </c>
-      <c r="H27" s="150">
+      <c r="H27" s="149">
         <v>2416769</v>
       </c>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="C29" s="150">
+      <c r="C29" s="149">
         <v>59596</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>20763</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>23097</v>
       </c>
-      <c r="F29" s="150">
+      <c r="F29" s="149">
         <v>28849</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>63075</v>
       </c>
-      <c r="H29" s="150">
+      <c r="H29" s="149">
         <v>34253</v>
       </c>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>-9467</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>-30</v>
       </c>
-      <c r="E30" s="150">
+      <c r="E30" s="149">
         <v>-27</v>
       </c>
-      <c r="F30" s="150">
+      <c r="F30" s="149">
         <v>1799</v>
       </c>
-      <c r="G30" s="150">
+      <c r="G30" s="149">
         <v>1337</v>
       </c>
-      <c r="H30" s="150">
+      <c r="H30" s="149">
         <v>10908</v>
       </c>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <v>626583</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <v>352099</v>
       </c>
-      <c r="E31" s="150">
+      <c r="E31" s="149">
         <v>1045251</v>
       </c>
-      <c r="F31" s="150">
+      <c r="F31" s="149">
         <v>-818677</v>
       </c>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>456554</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>373191</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>676387</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>107280</v>
       </c>
-      <c r="E33" s="150">
+      <c r="E33" s="149">
         <v>455483</v>
       </c>
-      <c r="F33" s="150">
+      <c r="F33" s="149">
         <v>138937</v>
       </c>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>265</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149">
+        <v>11972903</v>
+      </c>
+      <c r="E34" s="149">
+        <v>13002006</v>
+      </c>
+      <c r="F34" s="149">
+        <v>11732726</v>
+      </c>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150">
+      <c r="C35" s="214"/>
+      <c r="D35" s="149">
         <v>213823</v>
       </c>
-      <c r="E35" s="150">
+      <c r="E35" s="149">
         <v>187711</v>
       </c>
-      <c r="F35" s="150">
+      <c r="F35" s="149">
         <v>277338</v>
       </c>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150">
+      <c r="C36" s="214"/>
+      <c r="D36" s="149">
         <v>8852611</v>
       </c>
-      <c r="E36" s="150">
+      <c r="E36" s="149">
         <v>8769304</v>
       </c>
-      <c r="F36" s="150">
+      <c r="F36" s="149">
         <v>7321614</v>
       </c>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C37" s="150">
+        <v>263</v>
+      </c>
+      <c r="C37" s="149">
         <v>3990166</v>
       </c>
-      <c r="D37" s="150">
+      <c r="D37" s="149">
         <v>2466431</v>
       </c>
-      <c r="E37" s="150">
+      <c r="E37" s="149">
         <v>3908586</v>
       </c>
-      <c r="F37" s="150">
+      <c r="F37" s="149">
         <v>2946772</v>
       </c>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149">
+        <v>241133</v>
+      </c>
+      <c r="E38" s="149">
+        <v>233155</v>
+      </c>
+      <c r="F38" s="149">
+        <v>241043</v>
+      </c>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150">
+      <c r="C39" s="214"/>
+      <c r="D39" s="149">
         <f>35175+1000000</f>
         <v>1035175</v>
       </c>
-      <c r="E39" s="150">
+      <c r="E39" s="149">
         <v>1587989</v>
       </c>
-      <c r="F39" s="150">
+      <c r="F39" s="149">
         <v>1050082</v>
       </c>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150">
+      <c r="C40" s="214"/>
+      <c r="D40" s="149">
         <v>67759</v>
       </c>
-      <c r="E40" s="150">
+      <c r="E40" s="149">
         <v>153013</v>
       </c>
-      <c r="F40" s="150">
+      <c r="F40" s="149">
         <v>81854</v>
       </c>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," - Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="149">
         <v>12863898</v>
       </c>
-      <c r="D41" s="150">
+      <c r="D41" s="149">
         <v>12220942</v>
       </c>
-      <c r="E41" s="150">
+      <c r="E41" s="149">
         <v>12078528</v>
       </c>
-      <c r="F41" s="150">
+      <c r="F41" s="149">
         <v>11324224</v>
       </c>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="150">
+      <c r="C42" s="149">
         <v>-26962</v>
       </c>
-      <c r="D42" s="150">
+      <c r="D42" s="149">
         <v>-498</v>
       </c>
-      <c r="E42" s="150">
+      <c r="E42" s="149">
         <v>468</v>
       </c>
-      <c r="F42" s="150">
+      <c r="F42" s="149">
         <v>411</v>
       </c>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150">
+      <c r="C43" s="214"/>
+      <c r="D43" s="149">
         <v>3475378</v>
       </c>
-      <c r="E43" s="150">
+      <c r="E43" s="149">
         <v>4499643</v>
       </c>
-      <c r="F43" s="150">
+      <c r="F43" s="149">
         <v>4455433</v>
       </c>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.72+0.64</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <f>0.55+0.55</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E44" s="250">
+      <c r="E44" s="247">
         <f>0.55+0.55</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F44" s="250">
+      <c r="F44" s="247">
         <f>0.5+0.5</f>
         <v>1</v>
       </c>
-      <c r="G44" s="250">
+      <c r="G44" s="247">
         <f>0.5+0.5</f>
         <v>1</v>
       </c>
-      <c r="H44" s="250">
+      <c r="H44" s="247">
         <f>0.6+0.55</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="C45" s="152">
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8265895953757218E-2</v>
-      </c>
-      <c r="D45" s="152">
+        <v>9.8981077147015997E-2</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.947976878612717E-2</v>
-      </c>
-      <c r="E45" s="152">
+        <v>8.0058224163027658E-2</v>
+      </c>
+      <c r="E45" s="151">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.947976878612717E-2</v>
-      </c>
-      <c r="F45" s="152">
+        <v>8.0058224163027658E-2</v>
+      </c>
+      <c r="F45" s="151">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2254335260115612E-2</v>
-      </c>
-      <c r="G45" s="152">
+        <v>7.2780203784570591E-2</v>
+      </c>
+      <c r="G45" s="151">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2254335260115612E-2</v>
-      </c>
-      <c r="H45" s="152">
+        <v>7.2780203784570591E-2</v>
+      </c>
+      <c r="H45" s="151">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3092485549132941E-2</v>
-      </c>
-      <c r="I45" s="152" t="str">
+        <v>8.3697234352256178E-2</v>
+      </c>
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -3567,10 +3582,10 @@
       <c r="B47" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C47" s="194" t="s">
+      <c r="C47" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3677,7 +3692,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3689,7 +3704,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3710,8 +3725,8 @@
       <c r="B59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3781,7 +3796,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3795,7 +3810,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3808,7 +3823,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3862,16 +3877,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>277674</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3899,7 +3914,7 @@
       <c r="B76" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3933,19 +3948,23 @@
       <c r="B81" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="120"/>
+      <c r="C81" s="119"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="C82" s="217"/>
+        <v>268</v>
+      </c>
+      <c r="C82" s="214">
+        <v>473357</v>
+      </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>274</v>
-      </c>
-      <c r="C83" s="217"/>
+        <v>269</v>
+      </c>
+      <c r="C83" s="214">
+        <v>12890860</v>
+      </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3963,7 +3982,7 @@
       <c r="B86" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C86" s="197">
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
@@ -3971,10 +3990,10 @@
       <c r="B87" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C87" s="236" t="s">
+      <c r="C87" s="233" t="s">
         <v>237</v>
       </c>
-      <c r="D87" s="269">
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -4004,10 +4023,10 @@
         <v>98</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4019,12 +4038,12 @@
         <f>C25</f>
         <v>15325962</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91*0.8</f>
         <v>12260769.600000001</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91*0.9</f>
         <v>13793365.800000001</v>
       </c>
@@ -4037,15 +4056,15 @@
         <f>C26</f>
         <v>11151623</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>8921298.4000000004</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>10036460.700000001</v>
       </c>
@@ -4058,15 +4077,15 @@
         <f>C27+C28</f>
         <v>2297566</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.14991333007350532</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*16.54%</f>
         <v>2027931.2918400001</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*16.54%</f>
         <v>2281422.7033199999</v>
       </c>
@@ -4079,12 +4098,12 @@
         <f>C29</f>
         <v>59596</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>53636.4</v>
       </c>
@@ -4097,15 +4116,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>219833</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>1.4343830423173436E-2</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*0.01</f>
         <v>122607.69600000001</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*0.01</f>
         <v>137933.658</v>
       </c>
@@ -4118,12 +4137,12 @@
         <f>MAX(C31,0)</f>
         <v>626583</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>4.0883763120383568E-2</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*2%</f>
         <v>275867.31599999999</v>
       </c>
@@ -4136,12 +4155,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4150,15 +4169,15 @@
       <c r="B98" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <v>1</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>0.55+0.55</f>
         <v>1.1000000000000001</v>
       </c>
@@ -4239,7 +4258,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4291,11 +4310,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>13.84</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>272</v>
+      <c r="G3" s="131">
+        <v>13.74</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4333,7 +4352,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>8125.5726439999999</v>
+        <v>8066.8618589999996</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4343,11 +4362,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45626</v>
       </c>
@@ -4369,11 +4388,11 @@
       <c r="B7" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0003</v>
       </c>
@@ -4381,7 +4400,7 @@
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="132">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4391,10 +4410,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4402,7 +4421,7 @@
       <c r="B10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4410,13 +4429,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4427,10 +4446,10 @@
       <c r="B12" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="174">
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4440,7 +4459,7 @@
       <c r="B14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4451,7 +4470,7 @@
       <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4459,13 +4478,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -4477,47 +4496,47 @@
       <c r="B17" s="87" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="175">
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
+      <c r="B20" s="272" t="s">
         <v>253</v>
       </c>
-      <c r="C20" s="276">
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
         <v>0.14558943313324324</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
+      <c r="B21" s="274" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="278">
+      <c r="C21" s="275">
         <f>Data!C53</f>
         <v>0.76485172952944758</v>
       </c>
@@ -4525,79 +4544,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280">
+      <c r="B22" s="276" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
         <v>0.90933332162498015</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.12245710905455723</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="177">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.63165711077622044</v>
+        <v>0.6270931143110744</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
+      <c r="F24" s="139" t="s">
         <v>244</v>
       </c>
-      <c r="G24" s="268">
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.747631916144989</v>
+        <v>10.669975616172843</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>1.9999999999999997E-2</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.85421929969360477</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>2.9999999999999995E-2</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.947976878612717E-2</v>
+        <v>8.0058224163027658E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4625,22 +4644,22 @@
       <c r="B29" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.858311363695529</v>
-      </c>
-      <c r="D29" s="129">
+        <v>12.896548013661311</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>25.762548714297665</v>
+        <v>25.842763260502178</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.127425133759447</v>
+        <v>15.172409427836836</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.402216273302319</v>
+        <v>22.471968052610592</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4654,17 +4673,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
+      <c r="B32" s="195" t="s">
         <v>209</v>
       </c>
-      <c r="C32" s="224"/>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="245" t="str">
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4674,7 +4693,7 @@
       <c r="B34" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C34" s="225" t="str">
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>agree</v>
@@ -4682,17 +4701,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
+      <c r="B35" s="195" t="s">
         <v>212</v>
       </c>
-      <c r="C35" s="224"/>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C36" s="245" t="str">
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4702,24 +4721,24 @@
       <c r="B37" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="245" t="str">
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
+      <c r="B38" s="195" t="s">
         <v>213</v>
       </c>
-      <c r="C38" s="224"/>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="245" t="str">
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4729,7 +4748,7 @@
       <c r="B40" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C40" s="245" t="str">
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4748,10 +4767,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
+      <c r="B43" s="223" t="s">
         <v>216</v>
       </c>
-      <c r="C43" s="244" t="str">
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5703,10 +5722,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C34" sqref="C34"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5732,16 +5751,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>191</v>
       </c>
       <c r="I2" s="7"/>
@@ -5755,11 +5774,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45382</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F3" s="85">
@@ -5784,7 +5803,7 @@
       <c r="B4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5792,7 +5811,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="93">
@@ -5856,47 +5875,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>15325962</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>11977844</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>11737803</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>8861335</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>11233771</v>
       </c>
-      <c r="H6" s="200">
+      <c r="H6" s="199">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>15859990</v>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5958,47 +5977,47 @@
       <c r="B8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>11151623</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>8747447</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>8503976</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>6229020</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>7910751</v>
       </c>
-      <c r="H8" s="199">
+      <c r="H8" s="198">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>11826154</v>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6009,47 +6028,47 @@
       <c r="B9" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>4174339</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>3230397</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>3233827</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>2632315</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>3323020</v>
       </c>
-      <c r="H9" s="151">
+      <c r="H9" s="150">
         <f t="shared" si="2"/>
         <v>4033836</v>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6060,47 +6079,47 @@
       <c r="B10" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>2297566</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1867515</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>1815111</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>1694480</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>2118252</v>
       </c>
-      <c r="H10" s="199">
+      <c r="H10" s="198">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>2416769</v>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6111,47 +6130,47 @@
       <c r="B11" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6162,47 +6181,47 @@
       <c r="B12" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="199">
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="198">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="198">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2398.6666666666665</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="198">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1782.6666666666667</v>
       </c>
-      <c r="H12" s="199">
+      <c r="H12" s="198">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>14544</v>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6210,50 +6229,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
+      <c r="B13" s="225" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="229">
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.12245710905455723</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.11378358242100998</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>0.12086725258551366</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>0.10556381553494291</v>
       </c>
-      <c r="G13" s="229">
+      <c r="G13" s="226">
         <f t="shared" si="3"/>
         <v>0.10708651024961549</v>
       </c>
-      <c r="H13" s="229">
+      <c r="H13" s="226">
         <f t="shared" si="3"/>
         <v>0.10104186698730579</v>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6261,50 +6280,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="225" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="230">
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1876773</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1362882</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>1418716</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>935436.33333333337</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>1202985.3333333333</v>
       </c>
-      <c r="H14" s="230">
+      <c r="H14" s="227">
         <f t="shared" si="4"/>
         <v>1602523</v>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6312,50 +6331,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
+      <c r="B15" s="228" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="232">
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.37706199069325153</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-3.9355304373814071E-2</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>0.51663555225030455</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="229">
         <f t="shared" si="5"/>
         <v>-0.22240420775426459</v>
       </c>
-      <c r="G15" s="232">
+      <c r="G15" s="229">
         <f t="shared" si="5"/>
         <v>-0.24931789850546091</v>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6366,47 +6385,47 @@
       <c r="B16" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>626583</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>352099</v>
       </c>
-      <c r="E16" s="199">
+      <c r="E16" s="198">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>1045251</v>
       </c>
-      <c r="F16" s="199">
+      <c r="F16" s="198">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>-818677</v>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6417,47 +6436,47 @@
       <c r="B17" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="199">
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>59596</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>20763</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>23097</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="198">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>28849</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="198">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>63075</v>
       </c>
-      <c r="H17" s="199">
+      <c r="H17" s="198">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>34253</v>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6468,47 +6487,47 @@
       <c r="B18" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>2.9789581887257714E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>3.1156775793707115E-2</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6519,47 +6538,47 @@
       <c r="B19" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>456554</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>373191</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6570,47 +6589,47 @@
       <c r="B20" s="97" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="152">
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>4.413341231043115E-2</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>8.9565367523571013E-3</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>3.8804791663312119E-2</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>1.5679014505150749E-2</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="152">
+      <c r="H20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6621,47 +6640,47 @@
       <c r="B21" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>676387</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>107280</v>
       </c>
-      <c r="E21" s="199">
+      <c r="E21" s="198">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>455483</v>
       </c>
-      <c r="F21" s="199">
+      <c r="F21" s="198">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>138937</v>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6672,47 +6691,47 @@
       <c r="B22" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>970761</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>724109</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>-105115</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>767650.33333333337</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>1139910.3333333333</v>
       </c>
-      <c r="H22" s="161">
+      <c r="H22" s="160">
         <f t="shared" si="8"/>
         <v>1568270</v>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6723,47 +6742,47 @@
       <c r="B23" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>4.7505712855088637E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>4.5340526224919943E-2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>-6.7164400356693665E-3</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>6.4971897575252485E-2</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="152">
         <f t="shared" si="9"/>
         <v>7.6103807884280353E-2</v>
       </c>
-      <c r="H23" s="153">
+      <c r="H23" s="152">
         <f t="shared" si="9"/>
         <v>7.4161616747551548E-2</v>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6774,7 +6793,7 @@
       <c r="B24" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>728070.75</v>
       </c>
@@ -6822,50 +6841,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.34062827557729569</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="F25" s="233">
+      <c r="F25" s="230">
         <f t="shared" si="10"/>
         <v>-0.32656954596721205</v>
       </c>
-      <c r="G25" s="233">
+      <c r="G25" s="230">
         <f t="shared" si="10"/>
         <v>-0.27314152962606353</v>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6982,43 +7001,43 @@
         <f>Fin_Analysis!C13</f>
         <v>265773</v>
       </c>
-      <c r="D28" s="199">
+      <c r="D28" s="198">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>213823</v>
       </c>
-      <c r="E28" s="199">
+      <c r="E28" s="198">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v>187711</v>
       </c>
-      <c r="F28" s="199">
+      <c r="F28" s="198">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v>277338</v>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7033,43 +7052,43 @@
         <f>Fin_Analysis!C18</f>
         <v>9672256</v>
       </c>
-      <c r="D29" s="199">
+      <c r="D29" s="198">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>8852611</v>
       </c>
-      <c r="E29" s="199">
+      <c r="E29" s="198">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v>8769304</v>
       </c>
-      <c r="F29" s="199">
+      <c r="F29" s="198">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v>7321614</v>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7078,49 +7097,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>IF(Inputs!C37="",Inputs!C77+Inputs!C82,Inputs!C37)</f>
+        <f>Inputs!C37</f>
         <v>3990166</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>2466431</v>
       </c>
-      <c r="E30" s="199">
+      <c r="E30" s="198">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>3908586</v>
       </c>
-      <c r="F30" s="199">
+      <c r="F30" s="198">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>2946772</v>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7135,43 +7154,43 @@
         <f>Fin_Analysis!I15</f>
         <v>1715502</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>1035175</v>
       </c>
-      <c r="E31" s="199">
+      <c r="E31" s="198">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>1587989</v>
       </c>
-      <c r="F31" s="199">
+      <c r="F31" s="198">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>1050082</v>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7186,43 +7205,43 @@
         <f>Fin_Analysis!I34</f>
         <v>319420</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>67759</v>
       </c>
-      <c r="E32" s="199">
+      <c r="E32" s="198">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>153013</v>
       </c>
-      <c r="F32" s="199">
+      <c r="F32" s="198">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>81854</v>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7288,43 +7307,43 @@
         <f>Inputs!C41</f>
         <v>12863898</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>12220942</v>
       </c>
-      <c r="E34" s="199">
+      <c r="E34" s="198">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>12078528</v>
       </c>
-      <c r="F34" s="199">
+      <c r="F34" s="198">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>11324224</v>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7339,43 +7358,43 @@
         <f>Inputs!C42</f>
         <v>-26962</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>-498</v>
       </c>
-      <c r="E35" s="199">
+      <c r="E35" s="198">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>468</v>
       </c>
-      <c r="F35" s="199">
+      <c r="F35" s="198">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>411</v>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7390,43 +7409,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>3475378</v>
       </c>
-      <c r="E36" s="199">
+      <c r="E36" s="198">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v>4499643</v>
       </c>
-      <c r="F36" s="199">
+      <c r="F36" s="198">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v>4455433</v>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7488,47 +7507,47 @@
       <c r="B38" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.13472770763839131</v>
       </c>
-      <c r="D38" s="155">
+      <c r="D38" s="154">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>0.12155570886358762</v>
       </c>
-      <c r="E38" s="155">
+      <c r="E38" s="154">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>0.12350116052523658</v>
       </c>
-      <c r="F38" s="155">
+      <c r="F38" s="154">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v>9.5301342707833817E-2</v>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7557,47 +7576,47 @@
       <c r="B40" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.7303022981431383</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.7244946946204498</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.70294374380383995</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="34"/>
         <v>0.70419372087965826</v>
       </c>
-      <c r="H40" s="156">
+      <c r="H40" s="155">
         <f t="shared" si="34"/>
         <v>0.74565961264792724</v>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7608,47 +7627,47 @@
       <c r="B41" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="C41" s="153">
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.14991333007350532</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.15591411943585173</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.1546380527940365</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.19122175157580659</v>
       </c>
-      <c r="G41" s="153">
+      <c r="G41" s="152">
         <f t="shared" si="35"/>
         <v>0.18856108069142588</v>
       </c>
-      <c r="H41" s="153">
+      <c r="H41" s="152">
         <f t="shared" si="35"/>
         <v>0.15238149582692045</v>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7659,47 +7678,47 @@
       <c r="B42" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>4.0883763120383568E-2</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>2.9395857885609465E-2</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>8.9049969572670459E-2</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="153">
+      <c r="H42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7710,47 +7729,47 @@
       <c r="B43" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>1.7334505274905901E-3</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>1.9677447304235723E-3</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>3.2556042627888463E-3</v>
       </c>
-      <c r="G43" s="153">
+      <c r="G43" s="152">
         <f t="shared" si="37"/>
         <v>5.6147664039083583E-3</v>
       </c>
-      <c r="H43" s="153">
+      <c r="H43" s="152">
         <f t="shared" si="37"/>
         <v>2.1597113239037349E-3</v>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7761,47 +7780,47 @@
       <c r="B44" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>2.7068908541056925E-4</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="152">
         <f t="shared" si="38"/>
         <v>1.5868817930031392E-4</v>
       </c>
-      <c r="H44" s="153">
+      <c r="H44" s="152">
         <f t="shared" si="38"/>
         <v>9.1702453784649294E-4</v>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7812,47 +7831,47 @@
       <c r="B45" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.4343830423173436E-2</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>2.2200239041350014E-2</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>3.8804791663312119E-2</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>1.5679014505150749E-2</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="153">
+      <c r="H45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7863,47 +7882,47 @@
       <c r="B46" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>6.3340950473451521E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>6.0454034966559926E-2</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>-8.9552533808924892E-3</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>8.6629196767003327E-2</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="152">
         <f t="shared" si="40"/>
         <v>0.10147174384570713</v>
       </c>
-      <c r="H46" s="153">
+      <c r="H46" s="152">
         <f t="shared" si="40"/>
         <v>9.8882155663402055E-2</v>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7914,7 +7933,9 @@
       <c r="B47" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="36"/>
+      <c r="C47" s="280" t="s">
+        <v>267</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7929,50 +7950,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
+      <c r="B48" s="268" t="s">
         <v>255</v>
       </c>
-      <c r="C48" s="272">
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>0.90933332162498015</v>
       </c>
-      <c r="D48" s="272">
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
         <v>0.81551983462257005</v>
       </c>
-      <c r="E48" s="272">
+      <c r="E48" s="269">
         <f t="shared" si="41"/>
         <v>0.73420399704411943</v>
       </c>
-      <c r="F48" s="272">
+      <c r="F48" s="269">
         <f t="shared" si="41"/>
         <v>0.62093318504188499</v>
       </c>
-      <c r="G48" s="272" t="e">
+      <c r="G48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="272" t="e">
+      <c r="H48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7983,47 +8004,47 @@
       <c r="B49" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C49" s="153">
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>1.7341358408692387E-2</v>
       </c>
-      <c r="D49" s="153">
+      <c r="D49" s="152">
         <f t="shared" si="42"/>
         <v>1.7851543232655226E-2</v>
       </c>
-      <c r="E49" s="153">
+      <c r="E49" s="152">
         <f t="shared" si="42"/>
         <v>1.5992004636642819E-2</v>
       </c>
-      <c r="F49" s="153">
+      <c r="F49" s="152">
         <f t="shared" si="42"/>
         <v>3.1297541510393184E-2</v>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8034,47 +8055,47 @@
       <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="153">
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.63110270011109249</v>
       </c>
-      <c r="D50" s="153">
+      <c r="D50" s="152">
         <f t="shared" si="43"/>
         <v>0.73908217538982812</v>
       </c>
-      <c r="E50" s="153">
+      <c r="E50" s="152">
         <f t="shared" si="43"/>
         <v>0.74709926550990846</v>
       </c>
-      <c r="F50" s="153">
+      <c r="F50" s="152">
         <f t="shared" si="43"/>
         <v>0.82624277267477186</v>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8085,47 +8106,47 @@
       <c r="B51" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="C51" s="153">
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>0.18714483778648183</v>
       </c>
-      <c r="D51" s="153">
+      <c r="D51" s="152">
         <f t="shared" si="44"/>
         <v>1.4668285834503272</v>
       </c>
-      <c r="E51" s="153">
+      <c r="E51" s="152">
         <f t="shared" si="44"/>
         <v>0.3633800202192411</v>
       </c>
-      <c r="F51" s="153">
+      <c r="F51" s="152">
         <f t="shared" si="44"/>
         <v>0.34507864490338203</v>
       </c>
-      <c r="G51" s="153" t="e">
+      <c r="G51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8153,47 +8174,47 @@
       <c r="B53" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.76485172952944758</v>
       </c>
-      <c r="D53" s="156">
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
         <v>0.83210523760784183</v>
       </c>
-      <c r="E53" s="156">
+      <c r="E53" s="155">
         <f t="shared" si="45"/>
         <v>0.755487200504106</v>
       </c>
-      <c r="F53" s="156">
+      <c r="F53" s="155">
         <f t="shared" si="45"/>
         <v>0.79348442112940121</v>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8203,47 +8224,47 @@
       <c r="B54" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.4770507174230757</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <f t="shared" si="46"/>
         <v>0.6565297651536719</v>
       </c>
-      <c r="E54" s="157">
+      <c r="E54" s="156">
         <f t="shared" si="46"/>
         <v>-6.0376151204880865E-2</v>
       </c>
-      <c r="F54" s="157">
+      <c r="F54" s="156">
         <f t="shared" si="46"/>
         <v>0.67817467889821803</v>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8253,47 +8274,47 @@
       <c r="B55" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>6.1391011793840093E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>2.8673859874687374E-2</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>-0.21973077106026734</v>
       </c>
-      <c r="F55" s="153">
+      <c r="F55" s="152">
         <f t="shared" si="47"/>
         <v>3.7580912490105083E-2</v>
       </c>
-      <c r="G55" s="153">
+      <c r="G55" s="152">
         <f t="shared" si="47"/>
         <v>5.5333299607483753E-2</v>
       </c>
-      <c r="H55" s="153">
+      <c r="H55" s="152">
         <f t="shared" si="47"/>
         <v>2.1841264578165751E-2</v>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8303,47 +8324,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8353,147 +8374,147 @@
       <c r="B57" s="102" t="s">
         <v>252</v>
       </c>
-      <c r="C57" s="273" t="str">
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
+      <c r="B58" s="268" t="s">
         <v>253</v>
       </c>
-      <c r="C58" s="274">
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>0.14558943313324324</v>
       </c>
-      <c r="D58" s="274">
+      <c r="D58" s="271">
         <f t="shared" si="49"/>
         <v>0.11151566427524089</v>
       </c>
-      <c r="E58" s="274">
+      <c r="E58" s="271">
         <f t="shared" si="49"/>
         <v>0.11746224145268362</v>
       </c>
-      <c r="F58" s="274">
+      <c r="F58" s="271">
         <f t="shared" si="49"/>
         <v>8.2607893059814155E-2</v>
       </c>
-      <c r="G58" s="274" t="e">
+      <c r="G58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="274" t="e">
+      <c r="H58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
+      <c r="B59" s="268" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="274">
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>7.5306147146117483E-2</v>
       </c>
-      <c r="D59" s="274">
+      <c r="D59" s="271">
         <f t="shared" si="50"/>
         <v>5.9249073758902385E-2</v>
       </c>
-      <c r="E59" s="274">
+      <c r="E59" s="271">
         <f t="shared" si="50"/>
         <v>-8.7029705101647117E-3</v>
       </c>
-      <c r="F59" s="274">
+      <c r="F59" s="271">
         <f t="shared" si="50"/>
         <v>6.7790799206356847E-2</v>
       </c>
-      <c r="G59" s="274" t="e">
+      <c r="G59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="274" t="e">
+      <c r="H59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9789,8 +9810,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9826,7 +9847,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
+      <c r="D3" s="204">
         <f>Inputs!C41</f>
         <v>12863898</v>
       </c>
@@ -9839,7 +9860,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="204">
+      <c r="I3" s="282">
         <f>D3-D4</f>
         <v>12890860</v>
       </c>
@@ -9850,7 +9871,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
+      <c r="D4" s="198">
         <f>Inputs!C42</f>
         <v>-26962</v>
       </c>
@@ -9938,11 +9959,11 @@
         <v>29</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45382</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>FY</v>
       </c>
@@ -9985,7 +10006,7 @@
         <f>Inputs!C48</f>
         <v>1998219</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10013,7 +10034,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10041,7 +10062,7 @@
         <f>Inputs!C50</f>
         <v>265773</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10069,7 +10090,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10082,7 +10103,7 @@
       <c r="H14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10097,7 +10118,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10124,7 +10145,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10146,7 +10167,7 @@
         <f>Inputs!C54</f>
         <v>366595</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10168,7 +10189,7 @@
         <f>Inputs!C55</f>
         <v>9672256</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10189,7 +10210,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10197,7 +10218,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10214,7 +10235,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10222,7 +10243,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10241,7 +10262,7 @@
         <f>Inputs!C58</f>
         <v>29465</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10262,7 +10283,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10427,7 +10448,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>3516809</v>
       </c>
@@ -10456,7 +10477,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10482,7 +10503,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10509,7 +10530,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10536,7 +10557,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10552,7 +10573,7 @@
       <c r="H33" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10566,7 +10587,7 @@
         <f>Inputs!C64</f>
         <v>103050</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10593,7 +10614,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10601,7 +10622,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10619,7 +10640,7 @@
         <f>Inputs!C66</f>
         <v>925726</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10627,7 +10648,7 @@
         <f t="shared" si="1"/>
         <v>185145.2</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10646,7 +10667,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10654,7 +10675,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10673,7 +10694,7 @@
         <f>Inputs!C68</f>
         <v>2522337</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10694,7 +10715,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10715,7 +10736,7 @@
         <f>Inputs!C70</f>
         <v>538321</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10736,7 +10757,7 @@
         <f>Inputs!C71</f>
         <v>154648</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10757,7 +10778,7 @@
         <f>Inputs!C72</f>
         <v>277674</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10903,7 +10924,7 @@
       <c r="H48" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="207">
+      <c r="I48" s="281">
         <f>I49-I28</f>
         <v>473357</v>
       </c>
@@ -10930,7 +10951,7 @@
       <c r="H49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="52">
+      <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>3990166</v>
       </c>
@@ -11001,7 +11022,7 @@
         <v>143</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11101,7 +11122,7 @@
       <c r="B62" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>1998219</v>
       </c>
@@ -11109,7 +11130,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>1798397.1</v>
       </c>
@@ -11140,11 +11161,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>2034922</v>
@@ -11221,12 +11242,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>1955244</v>
       </c>
@@ -11305,17 +11326,17 @@
         <f>Data!C6</f>
         <v>15325962</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>12260769.600000001</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>13793365.800000001</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11326,23 +11347,23 @@
         <f>Data!C8</f>
         <v>11151623</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>8921298.4000000004</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>10036460.700000001</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.72762956087193753</v>
       </c>
@@ -11352,21 +11373,21 @@
       <c r="B76" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>4174339</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>3339471.2000000011</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>3756905.0999999996</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11377,23 +11398,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>2297566</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.14991333007350532</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>2027931.2918400001</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.16539999999999999</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>2281422.7033199999</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.16539999999999999</v>
       </c>
@@ -11407,54 +11428,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
+      <c r="B79" s="253" t="s">
         <v>218</v>
       </c>
-      <c r="C79" s="257">
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>1876773</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.12245710905455723</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>1311539.908160001</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.10697043912806263</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>1475482.3966799998</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.10697043912806255</v>
       </c>
@@ -11468,27 +11489,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>626583</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>4.0883763120383568E-2</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>245215.39199999999</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>1.9999999999999997E-2</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>275867.31599999999</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>1.9999999999999997E-2</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11500,23 +11521,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>59596</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>47676.80000000001</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>53636.4</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>3.8885650375487034E-3</v>
       </c>
@@ -11530,23 +11551,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>219833</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>1.4343830423173436E-2</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>122607.69600000001</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0.01</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>137933.658</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>9.9999999999999985E-3</v>
       </c>
@@ -11556,27 +11577,27 @@
       <c r="B83" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>970761</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>6.3340950473451521E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>896040.020160001</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>7.3081874090513935E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>1008045.0226799998</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>7.3081874090513838E-2</v>
       </c>
@@ -11586,49 +11607,49 @@
       <c r="B84" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>728070.75</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>4.7505712855088637E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>672030.01512000081</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>5.4811405567885454E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>756033.76700999984</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>5.4811405567885378E-2</v>
       </c>
@@ -11638,69 +11659,69 @@
       <c r="B86" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.2400971133327547</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.1446449151037597</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.2877255294917278</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9602392581846435E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>9.0254520621015633E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2705557449693615E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>8.3307490182224136E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3043752130905183E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>9.3720926455002018E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>1.0966883039869408</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>1</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.87363337468663993</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.85421929969360477</v>
       </c>
@@ -11710,21 +11731,21 @@
       <c r="B89" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="C89" s="261">
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.8265895953757218E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>9.8981077147015997E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2254335260115612E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>7.2780203784570591E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.947976878612717E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>8.0058224163027658E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11746,7 +11767,7 @@
       <c r="B92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11769,27 +11790,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.091236860388047</v>
+        <v>28.169410684005452</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>33.140517433110787</v>
+        <v>33.243302575927721</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11797,27 +11818,27 @@
       <c r="B94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.37961216242973</v>
+        <v>23.436999048216155</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>26.595825226671593</v>
+        <v>26.667160491190995</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11831,25 +11852,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
+      <c r="F96" s="224" t="s">
         <v>223</v>
       </c>
-      <c r="H96" s="183" t="str">
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K96" s="24"/>
@@ -11860,21 +11881,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9673596.5441449955</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>9703599.153619945</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.966309432738711</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>14.005175639150599</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>16.476694263490081</v>
-      </c>
-      <c r="I97" s="123">
+        <v>16.527796645232975</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>22.489729495958088</v>
+        <v>22.559481275266361</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11886,14 +11907,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11904,17 +11925,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>-51379.699999999953</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>-0.1006402060541346</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>-8.7513222655769218E-2</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11923,27 +11944,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>9622216.8441449963</v>
+        <v>9652219.4536199458</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.858311363695529</v>
+        <v>12.896548013661311</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.865669226684577</v>
+        <v>13.904535433096465</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.127425133759447</v>
+        <v>15.172409427836836</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>16.389181040834316</v>
+        <v>16.440283422577206</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>22.402216273302319</v>
+        <v>22.471968052610592</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11955,25 +11976,25 @@
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
+      <c r="F102" s="224" t="s">
         <v>223</v>
       </c>
-      <c r="H102" s="183" t="str">
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K102" s="24"/>
@@ -11984,27 +12005,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7763224.6847289158</v>
+        <v>7784047.1890764525</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.559815542642433</v>
-      </c>
-      <c r="E103" s="123">
+        <v>10.587014547483523</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.623799247457004</v>
+        <v>11.652330671981234</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>12.423312403108744</v>
-      </c>
-      <c r="H103" s="123">
+        <v>12.455311232333557</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>13.222825558760483</v>
+        <v>13.258291792685879</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>18.048387937118509</v>
+        <v>18.096797283949076</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12016,25 +12037,25 @@
       <c r="B105" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
+      <c r="F105" s="224" t="s">
         <v>223</v>
       </c>
-      <c r="H105" s="184" t="str">
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K105" s="24"/>
@@ -12045,27 +12066,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7482533.5167480223</v>
+        <v>7502318.3558450211</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.70906345316898</v>
-      </c>
-      <c r="E106" s="123">
+        <v>11.741781280572418</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>12.744734237070791</v>
+        <v>12.778433052538849</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.775368768434095</v>
-      </c>
-      <c r="H106" s="123">
+        <v>13.813860330085197</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>14.8060032997974</v>
-      </c>
-      <c r="I106" s="123">
+        <v>14.849287607631542</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>20.225302105210414</v>
+        <v>20.284382668279832</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12076,7 +12097,7 @@
       <c r="B108" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9A71BC-A844-4E3D-A44E-AFBF4A4AF8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E279463F-A008-4578-8811-7D630A0E6DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3535,27 +3535,27 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8981077147015997E-2</v>
+        <v>9.8693759071117562E-2</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.0058224163027658E-2</v>
+        <v>7.982583454281568E-2</v>
       </c>
       <c r="E45" s="151">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.0058224163027658E-2</v>
+        <v>7.982583454281568E-2</v>
       </c>
       <c r="F45" s="151">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2780203784570591E-2</v>
+        <v>7.2568940493468792E-2</v>
       </c>
       <c r="G45" s="151">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2780203784570591E-2</v>
+        <v>7.2568940493468792E-2</v>
       </c>
       <c r="H45" s="151">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3697234352256178E-2</v>
+        <v>8.3454281567489116E-2</v>
       </c>
       <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>13.74</v>
+        <v>13.78</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>8066.8618589999996</v>
+        <v>8090.3461729999999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.6270931143110744</v>
+        <v>0.62891871289713275</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.669975616172843</v>
+        <v>10.701038136161701</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.0058224163027658E-2</v>
+        <v>7.982583454281568E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4646,20 +4646,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.896548013661311</v>
+        <v>12.8811758790798</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>25.842763260502178</v>
+        <v>25.810513853832148</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.172409427836836</v>
+        <v>15.154324563623295</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.471968052610592</v>
+        <v>22.443925090288825</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11682,17 +11682,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0254520621015633E-2</v>
+        <v>8.9992533623567114E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3307490182224136E-2</v>
+        <v>8.3065668730316386E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3720926455002018E-2</v>
+        <v>9.3448877321605797E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11733,17 +11733,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.8981077147015997E-2</v>
+        <v>9.8693759071117562E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2780203784570591E-2</v>
+        <v>7.2568940493468792E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0058224163027658E-2</v>
+        <v>7.982583454281568E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11803,14 +11803,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.169410684005452</v>
+        <v>28.137984116171534</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>33.243302575927721</v>
+        <v>33.201978900519904</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11831,14 +11831,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.436999048216155</v>
+        <v>23.413930819686534</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>26.667160491190995</v>
+        <v>26.638483773039045</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11881,21 +11881,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9703599.153619945</v>
+        <v>9691536.9230158739</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.005175639150599</v>
+        <v>13.9895510807533</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>16.527796645232975</v>
+        <v>16.507251475203191</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>22.559481275266361</v>
+        <v>22.531438312944594</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11944,27 +11944,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>9652219.4536199458</v>
+        <v>9640157.2230158746</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.896548013661311</v>
+        <v>12.8811758790798</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.904535433096465</v>
+        <v>13.888910874699166</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.172409427836836</v>
+        <v>15.154324563623295</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>16.440283422577206</v>
+        <v>16.419738252547422</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>22.471968052610592</v>
+        <v>22.443925090288825</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12005,27 +12005,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7784047.1890764525</v>
+        <v>7775676.5593126891</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.587014547483523</v>
+        <v>10.576080834428311</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.652330671981234</v>
+        <v>11.640861685431764</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>12.455311232333557</v>
+        <v>12.442448040503894</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>13.258291792685879</v>
+        <v>13.244034395576024</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>18.096797283949076</v>
+        <v>18.077336766008436</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12066,27 +12066,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7502318.3558450211</v>
+        <v>7494364.9393837331</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.741781280572418</v>
+        <v>11.728628356754054</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>12.778433052538849</v>
+        <v>12.764886280065465</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.813860330085197</v>
+        <v>13.798386302063594</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>14.849287607631542</v>
+        <v>14.831886324061724</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>20.284382668279832</v>
+        <v>20.260630928148629</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E279463F-A008-4578-8811-7D630A0E6DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190F8CE8-D23E-431A-9D86-9B6B4400617B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -856,10 +853,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -971,10 +964,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -992,6 +981,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="187" t="s">
+      <c r="C8" s="188" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="190" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="190" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="190">
+        <v>587107850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="214">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="191" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="237" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="192">
-        <v>587107850</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="191" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="239" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>274</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>129</v>
+      <c r="B24" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,556 +3039,563 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>15325962</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>11977844</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>11737803</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>8861335</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="147">
         <v>11233771</v>
       </c>
-      <c r="H25" s="148">
+      <c r="H25" s="147">
         <v>15859990</v>
       </c>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="148">
+        <v>11151623</v>
+      </c>
+      <c r="D26" s="148">
+        <v>8747447</v>
+      </c>
+      <c r="E26" s="148">
+        <v>8503976</v>
+      </c>
+      <c r="F26" s="148">
+        <v>6229020</v>
+      </c>
+      <c r="G26" s="148">
+        <v>7910751</v>
+      </c>
+      <c r="H26" s="148">
+        <v>11826154</v>
+      </c>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="148">
+        <v>2297566</v>
+      </c>
+      <c r="D27" s="148">
+        <v>1867515</v>
+      </c>
+      <c r="E27" s="148">
+        <v>1815111</v>
+      </c>
+      <c r="F27" s="148">
+        <v>1694480</v>
+      </c>
+      <c r="G27" s="148">
+        <v>2118252</v>
+      </c>
+      <c r="H27" s="148">
+        <v>2416769</v>
+      </c>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="149">
-        <v>11151623</v>
-      </c>
-      <c r="D26" s="149">
-        <v>8747447</v>
-      </c>
-      <c r="E26" s="149">
-        <v>8503976</v>
-      </c>
-      <c r="F26" s="149">
-        <v>6229020</v>
-      </c>
-      <c r="G26" s="149">
-        <v>7910751</v>
-      </c>
-      <c r="H26" s="149">
-        <v>11826154</v>
-      </c>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="148">
+        <v>59596</v>
+      </c>
+      <c r="D29" s="148">
+        <v>20763</v>
+      </c>
+      <c r="E29" s="148">
+        <v>23097</v>
+      </c>
+      <c r="F29" s="148">
+        <v>28849</v>
+      </c>
+      <c r="G29" s="148">
+        <v>63075</v>
+      </c>
+      <c r="H29" s="148">
+        <v>34253</v>
+      </c>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="148">
+        <v>-9467</v>
+      </c>
+      <c r="D30" s="148">
+        <v>-30</v>
+      </c>
+      <c r="E30" s="148">
+        <v>-27</v>
+      </c>
+      <c r="F30" s="148">
+        <v>1799</v>
+      </c>
+      <c r="G30" s="148">
+        <v>1337</v>
+      </c>
+      <c r="H30" s="148">
+        <v>10908</v>
+      </c>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="148">
+        <v>626583</v>
+      </c>
+      <c r="D31" s="148">
+        <v>352099</v>
+      </c>
+      <c r="E31" s="148">
+        <v>1045251</v>
+      </c>
+      <c r="F31" s="148">
+        <v>-818677</v>
+      </c>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="149">
-        <v>2297566</v>
-      </c>
-      <c r="D27" s="149">
-        <v>1867515</v>
-      </c>
-      <c r="E27" s="149">
-        <v>1815111</v>
-      </c>
-      <c r="F27" s="149">
-        <v>1694480</v>
-      </c>
-      <c r="G27" s="149">
-        <v>2118252</v>
-      </c>
-      <c r="H27" s="149">
-        <v>2416769</v>
-      </c>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148">
+        <v>456554</v>
+      </c>
+      <c r="D32" s="148">
+        <v>373191</v>
+      </c>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" s="149">
-        <v>59596</v>
-      </c>
-      <c r="D29" s="149">
-        <v>20763</v>
-      </c>
-      <c r="E29" s="149">
-        <v>23097</v>
-      </c>
-      <c r="F29" s="149">
-        <v>28849</v>
-      </c>
-      <c r="G29" s="149">
-        <v>63075</v>
-      </c>
-      <c r="H29" s="149">
-        <v>34253</v>
-      </c>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="149">
-        <v>-9467</v>
-      </c>
-      <c r="D30" s="149">
-        <v>-30</v>
-      </c>
-      <c r="E30" s="149">
-        <v>-27</v>
-      </c>
-      <c r="F30" s="149">
-        <v>1799</v>
-      </c>
-      <c r="G30" s="149">
-        <v>1337</v>
-      </c>
-      <c r="H30" s="149">
-        <v>10908</v>
-      </c>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="149">
-        <v>626583</v>
-      </c>
-      <c r="D31" s="149">
-        <v>352099</v>
-      </c>
-      <c r="E31" s="149">
-        <v>1045251</v>
-      </c>
-      <c r="F31" s="149">
-        <v>-818677</v>
-      </c>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="149">
-        <v>456554</v>
-      </c>
-      <c r="D32" s="149">
-        <v>373191</v>
-      </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="C33" s="148">
         <v>676387</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <v>107280</v>
       </c>
-      <c r="E33" s="149">
+      <c r="E33" s="148">
         <v>455483</v>
       </c>
-      <c r="F33" s="149">
+      <c r="F33" s="148">
         <v>138937</v>
       </c>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149">
+      <c r="B34" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148">
         <v>11972903</v>
       </c>
-      <c r="E34" s="149">
+      <c r="E34" s="148">
         <v>13002006</v>
       </c>
-      <c r="F34" s="149">
+      <c r="F34" s="148">
         <v>11732726</v>
       </c>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149">
+      <c r="B35" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148">
         <v>213823</v>
       </c>
-      <c r="E35" s="149">
+      <c r="E35" s="148">
         <v>187711</v>
       </c>
-      <c r="F35" s="149">
+      <c r="F35" s="148">
         <v>277338</v>
       </c>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149">
+      <c r="B36" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148">
         <v>8852611</v>
       </c>
-      <c r="E36" s="149">
+      <c r="E36" s="148">
         <v>8769304</v>
       </c>
-      <c r="F36" s="149">
+      <c r="F36" s="148">
         <v>7321614</v>
       </c>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="148">
         <v>3990166</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="148">
         <v>2466431</v>
       </c>
-      <c r="E37" s="149">
+      <c r="E37" s="148">
         <v>3908586</v>
       </c>
-      <c r="F37" s="149">
+      <c r="F37" s="148">
         <v>2946772</v>
       </c>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149">
-        <v>241133</v>
-      </c>
-      <c r="E38" s="149">
-        <v>233155</v>
-      </c>
-      <c r="F38" s="149">
-        <v>241043</v>
-      </c>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" s="148">
+        <f>20356+1075000</f>
+        <v>1095356</v>
+      </c>
+      <c r="D38" s="148">
+        <f>24308+1075000</f>
+        <v>1099308</v>
+      </c>
+      <c r="E38" s="148">
+        <f>32736+1075000</f>
+        <v>1107736</v>
+      </c>
+      <c r="F38" s="148">
+        <f>47325+1075000</f>
+        <v>1122325</v>
+      </c>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149">
+      <c r="C39" s="212"/>
+      <c r="D39" s="148">
         <f>35175+1000000</f>
         <v>1035175</v>
       </c>
-      <c r="E39" s="149">
+      <c r="E39" s="148">
         <v>1587989</v>
       </c>
-      <c r="F39" s="149">
+      <c r="F39" s="148">
         <v>1050082</v>
       </c>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149">
+      <c r="C40" s="212"/>
+      <c r="D40" s="148">
         <v>67759</v>
       </c>
-      <c r="E40" s="149">
+      <c r="E40" s="148">
         <v>153013</v>
       </c>
-      <c r="F40" s="149">
+      <c r="F40" s="148">
         <v>81854</v>
       </c>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="148">
+        <v>12863898</v>
+      </c>
+      <c r="D41" s="148">
+        <v>12220942</v>
+      </c>
+      <c r="E41" s="148">
+        <v>12078528</v>
+      </c>
+      <c r="F41" s="148">
+        <v>11324224</v>
+      </c>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149">
-        <v>12863898</v>
-      </c>
-      <c r="D41" s="149">
-        <v>12220942</v>
-      </c>
-      <c r="E41" s="149">
-        <v>12078528</v>
-      </c>
-      <c r="F41" s="149">
-        <v>11324224</v>
-      </c>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>-26962</v>
       </c>
-      <c r="D42" s="149">
+      <c r="D42" s="148">
         <v>-498</v>
       </c>
-      <c r="E42" s="149">
+      <c r="E42" s="148">
         <v>468</v>
       </c>
-      <c r="F42" s="149">
+      <c r="F42" s="148">
         <v>411</v>
       </c>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149">
+      <c r="B43" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148">
         <v>3475378</v>
       </c>
-      <c r="E43" s="149">
+      <c r="E43" s="148">
         <v>4499643</v>
       </c>
-      <c r="F43" s="149">
+      <c r="F43" s="148">
         <v>4455433</v>
       </c>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="247">
+        <v>193</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.72+0.64</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <f>0.55+0.55</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E44" s="247">
+      <c r="E44" s="245">
         <f>0.55+0.55</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F44" s="247">
+      <c r="F44" s="245">
         <f>0.5+0.5</f>
         <v>1</v>
       </c>
-      <c r="G44" s="247">
+      <c r="G44" s="245">
         <f>0.5+0.5</f>
         <v>1</v>
       </c>
-      <c r="H44" s="247">
+      <c r="H44" s="245">
         <f>0.6+0.55</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>238</v>
-      </c>
-      <c r="C45" s="151">
+        <v>236</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8693759071117562E-2</v>
-      </c>
-      <c r="D45" s="151">
+        <v>9.9125364431486868E-2</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.982583454281568E-2</v>
-      </c>
-      <c r="E45" s="151">
+        <v>8.0174927113702624E-2</v>
+      </c>
+      <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.982583454281568E-2</v>
-      </c>
-      <c r="F45" s="151">
+        <v>8.0174927113702624E-2</v>
+      </c>
+      <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2568940493468792E-2</v>
-      </c>
-      <c r="G45" s="151">
+        <v>7.2886297376093284E-2</v>
+      </c>
+      <c r="G45" s="150">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2568940493468792E-2</v>
-      </c>
-      <c r="H45" s="151">
+        <v>7.2886297376093284E-2</v>
+      </c>
+      <c r="H45" s="150">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3454281567489116E-2</v>
-      </c>
-      <c r="I45" s="151" t="str">
+        <v>8.3819241982507273E-2</v>
+      </c>
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>33</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>1998219</v>
@@ -3602,21 +3603,21 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>265773</v>
@@ -3625,42 +3626,42 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59">
         <v>366595</v>
@@ -3668,11 +3669,11 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>9672256</v>
@@ -3681,36 +3682,36 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>68</v>
+      <c r="E56" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>43</v>
+      <c r="E57" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59">
         <v>29465</v>
@@ -3719,66 +3720,66 @@
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>47</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59">
         <v>103050</v>
@@ -3786,23 +3787,23 @@
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>68</v>
+      <c r="E65" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59">
         <v>925726</v>
@@ -3810,26 +3811,26 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>68</v>
+      <c r="E66" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>43</v>
+      <c r="E67" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>2522337</v>
@@ -3838,22 +3839,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>538321</v>
@@ -3861,11 +3862,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>154648</v>
@@ -3874,23 +3875,23 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="242">
         <v>277674</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>1427805</v>
@@ -3898,7 +3899,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>287697</v>
@@ -3906,33 +3907,33 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>3516809</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>319420</v>
@@ -3940,77 +3941,77 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>268</v>
-      </c>
-      <c r="C82" s="214">
+        <v>265</v>
+      </c>
+      <c r="C82" s="212">
         <v>473357</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>269</v>
-      </c>
-      <c r="C83" s="214">
+        <v>266</v>
+      </c>
+      <c r="C83" s="212">
         <v>12890860</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" s="196">
+        <v>234</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>237</v>
-      </c>
-      <c r="D87" s="266">
+        <v>233</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>192</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4019,165 +4020,165 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>99</v>
+      <c r="F90" s="250" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>15325962</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91*0.8</f>
         <v>12260769.600000001</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91*0.9</f>
         <v>13793365.800000001</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>103</v>
+      <c r="B92" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>11151623</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>8921298.4000000004</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>10036460.700000001</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>233</v>
+      <c r="B93" s="103" t="s">
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>2297566</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.14991333007350532</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*16.54%</f>
         <v>2027931.2918400001</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*16.54%</f>
         <v>2281422.7033199999</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>242</v>
+      <c r="B94" s="103" t="s">
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>59596</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>53636.4</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>219833</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>1.4343830423173436E-2</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*0.01</f>
         <v>122607.69600000001</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*0.01</f>
         <v>137933.658</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>626583</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>4.0883763120383568E-2</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*2%</f>
         <v>275867.31599999999</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <v>1</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>0.55+0.55</f>
         <v>1.1000000000000001</v>
       </c>
@@ -4190,32 +4191,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4274,13 +4275,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4291,82 +4292,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0590.HK : 六福珠宝</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>180</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>13.78</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>13.72</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>181</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="293">
+        <v>155</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
-        <v>45593</v>
-      </c>
-      <c r="D5" s="294"/>
+        <v>45643</v>
+      </c>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="287">
+        <v>96</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>8090.3461729999999</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>8055.119702</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45626</v>
       </c>
@@ -4377,30 +4378,30 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0003</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4410,280 +4411,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>173</v>
+      <c r="B9" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="171">
+        <v>163</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>171</v>
+      <c r="F10" s="109" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>166</v>
+      <c r="D11" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="171">
+        <v>164</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>170</v>
+      <c r="F14" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>167</v>
+      <c r="F16" s="109" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>0.14558943313324324</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.76485172952944758</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>0.90933332162498015</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>172</v>
+      <c r="F22" s="140" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.12245710905455723</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62891871289713275</v>
+        <v>0.62618031501804516</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>244</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.701038136161701</v>
+        <v>10.654444356178415</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>1.9999999999999997E-2</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.85421929969360477</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>2.9999999999999995E-2</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.982583454281568E-2</v>
+        <v>8.0174927113702624E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>243</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>222</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.8811758790798</v>
-      </c>
-      <c r="D29" s="128">
+        <v>12.904273208778189</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>25.810513853832148</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>25.858970587235444</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.154324563623295</v>
-      </c>
-      <c r="G29" s="286">
+        <v>15.181497892680223</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.443925090288825</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>22.486061380204735</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4691,9 +4692,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>agree</v>
@@ -4701,17 +4702,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4719,26 +4720,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4746,9 +4747,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4761,16 +4762,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5722,10 +5723,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5751,59 +5752,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>191</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45382</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="85">
+      <c r="E3" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="84">
         <f>H14</f>
         <v>1602523</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>1876773</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5811,19 +5812,19 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="93">
+      <c r="E4" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="92">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>2.6678764368153862E-2</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>129</v>
+      <c r="B5" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5872,928 +5873,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>15325962</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>11977844</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>11737803</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>8861335</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>11233771</v>
       </c>
-      <c r="H6" s="199">
+      <c r="H6" s="197">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>15859990</v>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.27952593137796744</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>2.0450249505806095E-2</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>0.32460887665346139</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f t="shared" si="1"/>
         <v>-0.21118785490642455</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="91">
         <f t="shared" si="1"/>
         <v>-0.29169116752280422</v>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>11151623</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>8747447</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>8503976</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>6229020</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>7910751</v>
       </c>
-      <c r="H8" s="198">
+      <c r="H8" s="196">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>11826154</v>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>4174339</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>3230397</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>3233827</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>2632315</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>3323020</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="149">
         <f t="shared" si="2"/>
         <v>4033836</v>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>2297566</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1867515</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>1815111</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>1694480</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>2118252</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="196">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>2416769</v>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="196">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="198">
+      <c r="F12" s="196">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2398.6666666666665</v>
       </c>
-      <c r="G12" s="198">
+      <c r="G12" s="196">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1782.6666666666667</v>
       </c>
-      <c r="H12" s="198">
+      <c r="H12" s="196">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>14544</v>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.12245710905455723</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.11378358242100998</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>0.12086725258551366</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>0.10556381553494291</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="224">
         <f t="shared" si="3"/>
         <v>0.10708651024961549</v>
       </c>
-      <c r="H13" s="226">
+      <c r="H13" s="224">
         <f t="shared" si="3"/>
         <v>0.10104186698730579</v>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1876773</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1362882</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>1418716</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>935436.33333333337</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>1202985.3333333333</v>
       </c>
-      <c r="H14" s="227">
+      <c r="H14" s="225">
         <f t="shared" si="4"/>
         <v>1602523</v>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.37706199069325153</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-3.9355304373814071E-2</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>0.51663555225030455</v>
       </c>
-      <c r="F15" s="229">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>-0.22240420775426459</v>
       </c>
-      <c r="G15" s="229">
+      <c r="G15" s="227">
         <f t="shared" si="5"/>
         <v>-0.24931789850546091</v>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>626583</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>352099</v>
       </c>
-      <c r="E16" s="198">
+      <c r="E16" s="196">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>1045251</v>
       </c>
-      <c r="F16" s="198">
+      <c r="F16" s="196">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>-818677</v>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>59596</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>20763</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>23097</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="196">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>28849</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="196">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>63075</v>
       </c>
-      <c r="H17" s="198">
+      <c r="H17" s="196">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>34253</v>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>2.9789581887257714E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>3.1156775793707115E-2</v>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>456554</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>373191</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>4.413341231043115E-2</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>8.9565367523571013E-3</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>3.8804791663312119E-2</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>1.5679014505150749E-2</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="151">
+      <c r="H20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>676387</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>107280</v>
       </c>
-      <c r="E21" s="198">
+      <c r="E21" s="196">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>455483</v>
       </c>
-      <c r="F21" s="198">
+      <c r="F21" s="196">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>138937</v>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>970761</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>724109</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>-105115</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>767650.33333333337</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>1139910.3333333333</v>
       </c>
-      <c r="H22" s="160">
+      <c r="H22" s="158">
         <f t="shared" si="8"/>
         <v>1568270</v>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>4.7505712855088637E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>4.5340526224919943E-2</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>-6.7164400356693665E-3</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>6.4971897575252485E-2</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f t="shared" si="9"/>
         <v>7.6103807884280353E-2</v>
       </c>
-      <c r="H23" s="152">
+      <c r="H23" s="151">
         <f t="shared" si="9"/>
         <v>7.4161616747551548E-2</v>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>728070.75</v>
       </c>
@@ -6837,63 +6838,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.34062827557729569</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="F25" s="230">
+      <c r="F25" s="228">
         <f t="shared" si="10"/>
         <v>-0.32656954596721205</v>
       </c>
-      <c r="G25" s="230">
+      <c r="G25" s="228">
         <f t="shared" si="10"/>
         <v>-0.27314152962606353</v>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>130</v>
+      <c r="B26" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6939,11 +6940,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41729</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="65">
@@ -6990,266 +6991,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>113</v>
+      <c r="B28" s="93" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>265773</v>
       </c>
-      <c r="D28" s="198">
+      <c r="D28" s="196">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>213823</v>
       </c>
-      <c r="E28" s="198">
+      <c r="E28" s="196">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v>187711</v>
       </c>
-      <c r="F28" s="198">
+      <c r="F28" s="196">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v>277338</v>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>142</v>
+      <c r="B29" s="93" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>9672256</v>
       </c>
-      <c r="D29" s="198">
+      <c r="D29" s="196">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>8852611</v>
       </c>
-      <c r="E29" s="198">
+      <c r="E29" s="196">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v>8769304</v>
       </c>
-      <c r="F29" s="198">
+      <c r="F29" s="196">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v>7321614</v>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>263</v>
+      <c r="B30" s="93" t="s">
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>3990166</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>2466431</v>
       </c>
-      <c r="E30" s="198">
+      <c r="E30" s="196">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>3908586</v>
       </c>
-      <c r="F30" s="198">
+      <c r="F30" s="196">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>2946772</v>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>1715502</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="196">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>1035175</v>
       </c>
-      <c r="E31" s="198">
+      <c r="E31" s="196">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>1587989</v>
       </c>
-      <c r="F31" s="198">
+      <c r="F31" s="196">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>1050082</v>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>319420</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="196">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>67759</v>
       </c>
-      <c r="E32" s="198">
+      <c r="E32" s="196">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>153013</v>
       </c>
-      <c r="F32" s="198">
+      <c r="F32" s="196">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>81854</v>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="77">
@@ -7296,165 +7297,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>133</v>
+      <c r="B34" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>12863898</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>12220942</v>
       </c>
-      <c r="E34" s="198">
+      <c r="E34" s="196">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>12078528</v>
       </c>
-      <c r="F34" s="198">
+      <c r="F34" s="196">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>11324224</v>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>134</v>
+      <c r="B35" s="93" t="s">
+        <v>133</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>-26962</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>-498</v>
       </c>
-      <c r="E35" s="198">
+      <c r="E35" s="196">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>468</v>
       </c>
-      <c r="F35" s="198">
+      <c r="F35" s="196">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>411</v>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>132</v>
+      <c r="B36" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="196">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>3475378</v>
       </c>
-      <c r="E36" s="198">
+      <c r="E36" s="196">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v>4499643</v>
       </c>
-      <c r="F36" s="198">
+      <c r="F36" s="196">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v>4455433</v>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>136</v>
+      <c r="B37" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7500,63 +7501,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.13472770763839131</v>
       </c>
-      <c r="D38" s="154">
+      <c r="D38" s="153">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>0.12155570886358762</v>
       </c>
-      <c r="E38" s="154">
+      <c r="E38" s="153">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>0.12350116052523658</v>
       </c>
-      <c r="F38" s="154">
+      <c r="F38" s="153">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v>9.5301342707833817E-2</v>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7569,372 +7570,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.7303022981431383</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.7244946946204498</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.70294374380383995</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="154">
         <f t="shared" si="34"/>
         <v>0.70419372087965826</v>
       </c>
-      <c r="H40" s="155">
+      <c r="H40" s="154">
         <f t="shared" si="34"/>
         <v>0.74565961264792724</v>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.14991333007350532</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.15591411943585173</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.1546380527940365</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.19122175157580659</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="151">
         <f t="shared" si="35"/>
         <v>0.18856108069142588</v>
       </c>
-      <c r="H41" s="152">
+      <c r="H41" s="151">
         <f t="shared" si="35"/>
         <v>0.15238149582692045</v>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>4.0883763120383568E-2</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>2.9395857885609465E-2</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>8.9049969572670459E-2</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152">
+      <c r="G42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="152">
+      <c r="H42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>1.7334505274905901E-3</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>1.9677447304235723E-3</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>3.2556042627888463E-3</v>
       </c>
-      <c r="G43" s="152">
+      <c r="G43" s="151">
         <f t="shared" si="37"/>
         <v>5.6147664039083583E-3</v>
       </c>
-      <c r="H43" s="152">
+      <c r="H43" s="151">
         <f t="shared" si="37"/>
         <v>2.1597113239037349E-3</v>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>2.7068908541056925E-4</v>
       </c>
-      <c r="G44" s="152">
+      <c r="G44" s="151">
         <f t="shared" si="38"/>
         <v>1.5868817930031392E-4</v>
       </c>
-      <c r="H44" s="152">
+      <c r="H44" s="151">
         <f t="shared" si="38"/>
         <v>9.1702453784649294E-4</v>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.4343830423173436E-2</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>2.2200239041350014E-2</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>3.8804791663312119E-2</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>1.5679014505150749E-2</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="152">
+      <c r="H45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>6.3340950473451521E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>6.0454034966559926E-2</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>-8.9552533808924892E-3</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>8.6629196767003327E-2</v>
       </c>
-      <c r="G46" s="152">
+      <c r="G46" s="151">
         <f t="shared" si="40"/>
         <v>0.10147174384570713</v>
       </c>
-      <c r="H46" s="152">
+      <c r="H46" s="151">
         <f t="shared" si="40"/>
         <v>9.8882155663402055E-2</v>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>267</v>
+      <c r="B47" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>264</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7946,216 +7947,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>0.90933332162498015</v>
       </c>
-      <c r="D48" s="269">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>0.81551983462257005</v>
       </c>
-      <c r="E48" s="269">
+      <c r="E48" s="267">
         <f t="shared" si="41"/>
         <v>0.73420399704411943</v>
       </c>
-      <c r="F48" s="269">
+      <c r="F48" s="267">
         <f t="shared" si="41"/>
         <v>0.62093318504188499</v>
       </c>
-      <c r="G48" s="269" t="e">
+      <c r="G48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="269" t="e">
+      <c r="H48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>1.7341358408692387E-2</v>
       </c>
-      <c r="D49" s="152">
+      <c r="D49" s="151">
         <f t="shared" si="42"/>
         <v>1.7851543232655226E-2</v>
       </c>
-      <c r="E49" s="152">
+      <c r="E49" s="151">
         <f t="shared" si="42"/>
         <v>1.5992004636642819E-2</v>
       </c>
-      <c r="F49" s="152">
+      <c r="F49" s="151">
         <f t="shared" si="42"/>
         <v>3.1297541510393184E-2</v>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.63110270011109249</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="151">
         <f t="shared" si="43"/>
         <v>0.73908217538982812</v>
       </c>
-      <c r="E50" s="152">
+      <c r="E50" s="151">
         <f t="shared" si="43"/>
         <v>0.74709926550990846</v>
       </c>
-      <c r="F50" s="152">
+      <c r="F50" s="151">
         <f t="shared" si="43"/>
         <v>0.82624277267477186</v>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>0.18714483778648183</v>
       </c>
-      <c r="D51" s="152">
+      <c r="D51" s="151">
         <f t="shared" si="44"/>
         <v>1.4668285834503272</v>
       </c>
-      <c r="E51" s="152">
+      <c r="E51" s="151">
         <f t="shared" si="44"/>
         <v>0.3633800202192411</v>
       </c>
-      <c r="F51" s="152">
+      <c r="F51" s="151">
         <f t="shared" si="44"/>
         <v>0.34507864490338203</v>
       </c>
-      <c r="G51" s="152" t="e">
+      <c r="G51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>250</v>
+      <c r="B52" s="101" t="s">
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8171,350 +8172,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.76485172952944758</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>0.83210523760784183</v>
       </c>
-      <c r="E53" s="155">
+      <c r="E53" s="154">
         <f t="shared" si="45"/>
         <v>0.755487200504106</v>
       </c>
-      <c r="F53" s="155">
+      <c r="F53" s="154">
         <f t="shared" si="45"/>
         <v>0.79348442112940121</v>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.4770507174230757</v>
       </c>
-      <c r="D54" s="156">
+      <c r="D54" s="155">
         <f t="shared" si="46"/>
         <v>0.6565297651536719</v>
       </c>
-      <c r="E54" s="156">
+      <c r="E54" s="155">
         <f t="shared" si="46"/>
         <v>-6.0376151204880865E-2</v>
       </c>
-      <c r="F54" s="156">
+      <c r="F54" s="155">
         <f t="shared" si="46"/>
         <v>0.67817467889821803</v>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>6.1391011793840093E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>2.8673859874687374E-2</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>-0.21973077106026734</v>
       </c>
-      <c r="F55" s="152">
+      <c r="F55" s="151">
         <f t="shared" si="47"/>
         <v>3.7580912490105083E-2</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="151">
         <f t="shared" si="47"/>
         <v>5.5333299607483753E-2</v>
       </c>
-      <c r="H55" s="152">
+      <c r="H55" s="151">
         <f t="shared" si="47"/>
         <v>2.1841264578165751E-2</v>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>6.499061591317086E-2</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>7.4847149316627282E-2</v>
+      </c>
+      <c r="E56" s="151">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v>6.9289303873106806E-2</v>
+      </c>
+      <c r="F56" s="151">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v>7.8643775108618905E-2</v>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>0.14558943313324324</v>
       </c>
-      <c r="D58" s="271">
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
         <v>0.11151566427524089</v>
       </c>
-      <c r="E58" s="271">
+      <c r="E58" s="269">
         <f t="shared" si="49"/>
         <v>0.11746224145268362</v>
       </c>
-      <c r="F58" s="271">
+      <c r="F58" s="269">
         <f t="shared" si="49"/>
         <v>8.2607893059814155E-2</v>
       </c>
-      <c r="G58" s="271" t="e">
+      <c r="G58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="271" t="e">
+      <c r="H58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>7.5306147146117483E-2</v>
       </c>
-      <c r="D59" s="271">
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
         <v>5.9249073758902385E-2</v>
       </c>
-      <c r="E59" s="271">
+      <c r="E59" s="269">
         <f t="shared" si="50"/>
         <v>-8.7029705101647117E-3</v>
       </c>
-      <c r="F59" s="271">
+      <c r="F59" s="269">
         <f t="shared" si="50"/>
         <v>6.7790799206356847E-2</v>
       </c>
-      <c r="G59" s="271" t="e">
+      <c r="G59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="271" t="e">
+      <c r="H59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9793,7 +9794,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9810,8 +9811,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9829,25 +9830,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>21</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>12863898</v>
       </c>
@@ -9855,12 +9856,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="282">
+        <v>22</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>12890860</v>
       </c>
@@ -9868,28 +9869,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>23</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>-26962</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9902,7 +9903,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in HKD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>3511699.0500000007</v>
@@ -9911,16 +9912,16 @@
         <f>1-D6/D3</f>
         <v>0.72701127994018599</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>0.74800394334750619</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9928,7 +9929,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>5.9813525743183318</v>
@@ -9938,287 +9939,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>0.64376313868623514</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>28</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45382</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>FY</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>1998219</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>1798397.1</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>1427805</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>287697</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>265773</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>159463.79999999999</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="84">
+        <v>50</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>1715502</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>366595</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>36659.5</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>9672256</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>4836128</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10229,21 +10230,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10256,45 +10257,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>29465</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>26518.5</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10302,17 +10303,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10322,19 +10323,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.86478260523888784</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>1957860.9000000001</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.28552038014416714</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10344,17 +10345,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.1</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>36659.5</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>5.3461583383656594E-3</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10363,7 +10364,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10373,17 +10374,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>4836128</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0.70526619382707456</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10396,7 +10397,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10406,17 +10407,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0.9</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>26518.5</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>3.8672676903926603E-3</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10443,12 +10444,12 @@
         <f>SUM(E24:E27)</f>
         <v>6857166.9000000004</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>3516809</v>
       </c>
@@ -10458,171 +10459,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>319420</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>103050</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>41220</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="84">
+        <v>74</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>319420</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10630,25 +10631,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>925726</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>185145.2</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10656,26 +10657,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10683,113 +10684,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>2522337</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>252233.7</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>538321</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>26916.050000000003</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>154648</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>139183.20000000001</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>277674</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10797,17 +10798,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10817,16 +10818,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10836,16 +10837,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.4</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>41220</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10855,14 +10856,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.12684771130921912</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>437378.9</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10875,7 +10876,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10885,14 +10886,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.17112290512577744</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>166099.25</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10905,13 +10906,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="81">
+        <v>80</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>4521756</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.1425769435590952</v>
       </c>
@@ -10919,12 +10920,12 @@
         <f>SUM(E30:E42)</f>
         <v>644698.15</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="281">
+        <v>81</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>473357</v>
       </c>
@@ -10935,63 +10936,63 @@
         <v>14</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>16854064</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.44510718898421181</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>7501865.0500000007</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>3990166</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>84</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>P/B Approach</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="88">
+        <v>85</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10999,45 +11000,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>86</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>2034922</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11045,61 +11046,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>87</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>89</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>90</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11113,35 +11114,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>185145.2</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="116">
+        <v>134</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>1998219</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>1798397.1</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11155,29 +11156,29 @@
         <f>E61+E62</f>
         <v>1983542.3</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>2034922</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11191,9 +11192,9 @@
         <f>E63-E64</f>
         <v>-51379.699999999953</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11201,28 +11202,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11236,29 +11237,29 @@
         <f>E49-E63</f>
         <v>5518322.7500000009</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>1955244</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11272,29 +11273,29 @@
         <f>E68-E69</f>
         <v>3563078.7500000009</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11304,66 +11305,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>15325962</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>12260769.600000001</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>13793365.800000001</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>103</v>
+      <c r="B75" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>11151623</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>8921298.4000000004</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>10036460.700000001</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.72762956087193753</v>
       </c>
@@ -11371,50 +11372,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="160">
+        <v>92</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>4174339</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>3339471.2000000011</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>3756905.0999999996</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>233</v>
+      <c r="B77" s="103" t="s">
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>2297566</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.14991333007350532</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>2027931.2918400001</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.16539999999999999</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>2281422.7033199999</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.16539999999999999</v>
       </c>
@@ -11422,60 +11423,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>1876773</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.12245710905455723</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>1311539.908160001</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.10697043912806263</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>1475482.3966799998</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.10697043912806255</v>
       </c>
@@ -11483,61 +11484,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>626583</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>4.0883763120383568E-2</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>245215.39199999999</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>1.9999999999999997E-2</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>275867.31599999999</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>1.9999999999999997E-2</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>127</v>
+      <c r="K80" s="178" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>242</v>
+      <c r="B81" s="103" t="s">
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>59596</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>47676.80000000001</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>53636.4</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>3.8885650375487034E-3</v>
       </c>
@@ -11545,59 +11546,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>219833</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>1.4343830423173436E-2</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>122607.69600000001</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0.01</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>137933.658</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>970761</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>6.3340950473451521E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>896040.020160001</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>7.3081874090513935E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>1008045.0226799998</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>7.3081874090513838E-2</v>
       </c>
@@ -11605,184 +11606,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>93</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>728070.75</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>4.7505712855088637E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>672030.01512000081</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>5.4811405567885454E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>756033.76700999984</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>5.4811405567885378E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.2400971133327547</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.1446449151037597</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.2877255294917278</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9992533623567114E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>9.0386086977606028E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3065668730316386E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>8.3428929672285684E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3448877321605797E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>9.3857545881321267E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>1.0966883039869408</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>1</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.87363337468663993</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.85421929969360477</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.8693759071117562E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>9.9125364431486868E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2568940493468792E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>7.2886297376093284E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.982583454281568E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>8.0174927113702624E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>147</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11790,55 +11791,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.137984116171534</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I93" s="143">
+        <v>28.185203272681257</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>33.201978900519904</v>
+        <v>33.264070285424104</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="181">
+        <v>197</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.413930819686534</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="I94" s="143">
+        <v>23.448590459280108</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>26.638483773039045</v>
+        <v>26.681570866791425</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11848,123 +11849,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>112</v>
+      <c r="I96" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="91">
+        <v>125</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9691536.9230158739</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>9709661.172513267</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.9895510807533</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>14.013027346830343</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>16.507251475203191</v>
-      </c>
-      <c r="I97" s="122">
+        <v>16.538121867240008</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>22.531438312944594</v>
+        <v>22.573574602860504</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="212"/>
+      <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="B99" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>-51379.699999999953</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>-0.1006402060541346</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>-8.7513222655769218E-2</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="91">
+        <v>111</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>9640157.2230158746</v>
-      </c>
-      <c r="D100" s="109">
+        <v>9658281.4725132678</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.8811758790798</v>
-      </c>
-      <c r="E100" s="109">
+        <v>12.904273208778189</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.888910874699166</v>
-      </c>
-      <c r="F100" s="109">
+        <v>13.912387140776209</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>15.154324563623295</v>
-      </c>
-      <c r="H100" s="109">
+        <v>15.181497892680223</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>16.419738252547422</v>
-      </c>
-      <c r="I100" s="109">
+        <v>16.450608644584239</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>22.443925090288825</v>
+        <v>22.486061380204735</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11974,58 +11975,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>154</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>112</v>
+      <c r="I102" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="91">
+        <v>153</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7775676.5593126891</v>
-      </c>
-      <c r="D103" s="109">
+        <v>7788253.5253199795</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.576080834428311</v>
-      </c>
-      <c r="E103" s="122">
+        <v>10.592508727930955</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.640861685431764</v>
-      </c>
-      <c r="F103" s="109">
+        <v>11.658093651891512</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>12.442448040503894</v>
-      </c>
-      <c r="H103" s="122">
+        <v>12.461774974036418</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>13.244034395576024</v>
-      </c>
-      <c r="I103" s="109">
+        <v>13.265456296181323</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>18.077336766008436</v>
+        <v>18.106576414581028</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12035,58 +12036,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>183</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>112</v>
+      <c r="I105" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7494364.9393837331</v>
-      </c>
-      <c r="D106" s="109">
+        <v>7506315.0008247215</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>11.728628356754054</v>
-      </c>
-      <c r="E106" s="122">
+        <v>11.748390968354572</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>12.764886280065465</v>
-      </c>
-      <c r="F106" s="109">
+        <v>12.785240396333862</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>13.798386302063594</v>
-      </c>
-      <c r="H106" s="122">
+        <v>13.821636433358321</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>14.831886324061724</v>
-      </c>
-      <c r="I106" s="122">
+        <v>14.858032470382781</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>20.260630928148629</v>
+        <v>20.296318897392879</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12095,15 +12096,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>157</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190F8CE8-D23E-431A-9D86-9B6B4400617B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CE62818-C028-4335-9B2A-44260969A186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -989,6 +989,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2842,7 +2856,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>201</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>209</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>224</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>216</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>215</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3535,27 +3552,27 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9125364431486868E-2</v>
+        <v>9.855072463768115E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.0174927113702624E-2</v>
+        <v>7.9710144927536239E-2</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.0174927113702624E-2</v>
+        <v>7.9710144927536239E-2</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2886297376093284E-2</v>
+        <v>7.2463768115942032E-2</v>
       </c>
       <c r="G45" s="150">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2886297376093284E-2</v>
+        <v>7.2463768115942032E-2</v>
       </c>
       <c r="H45" s="150">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3819241982507273E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4002,11 +4019,11 @@
       <c r="B89" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>192</v>
       </c>
@@ -4020,10 +4037,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
@@ -4244,8 +4261,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4258,8 +4278,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4302,60 +4322,60 @@
       <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>13.72</v>
+        <v>13.8</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45643</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>8055.119702</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>8102.0883299999996</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4378,11 +4398,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4523,7 +4543,7 @@
         <v>251</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.14558943313324324</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4535,20 +4555,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.76485172952944758</v>
+        <v>256</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.12245710905455723</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>0.90933332162498015</v>
       </c>
@@ -4557,26 +4577,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.12245710905455723</v>
+      <c r="B23" s="275" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.3074429479491672</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>175</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62618031501804516</v>
+        <v>0.62983151219016198</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>3.8885650375487034E-3</v>
       </c>
@@ -4585,7 +4605,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.654444356178415</v>
+        <v>10.716569396156132</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4617,7 +4637,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.0174927113702624E-2</v>
+        <v>7.9710144927536239E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4636,10 +4656,10 @@
       <c r="F28" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>241</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4647,22 +4667,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.904273208778189</v>
+        <v>12.873528678401001</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>25.858970587235444</v>
+        <v>25.794471219186686</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.181497892680223</v>
-      </c>
-      <c r="G29" s="285">
+        <v>15.145327856942355</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.486061380204735</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>22.429974973205816</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5693,7 +5713,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7934,7 +7954,7 @@
       <c r="B47" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>264</v>
       </c>
       <c r="D47" s="36"/>
@@ -9811,7 +9831,7 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -9861,7 +9881,7 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>12890860</v>
       </c>
@@ -10908,7 +10928,7 @@
       <c r="B48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>4521756</v>
       </c>
@@ -10925,7 +10945,7 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>473357</v>
       </c>
@@ -11034,11 +11054,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>2034922</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11049,11 +11069,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -11065,11 +11085,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11283,19 +11303,19 @@
       <c r="B72" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11305,18 +11325,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11683,17 +11703,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0386086977606028E-2</v>
+        <v>8.9862109661793824E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3428929672285684E-2</v>
+        <v>8.2945283703170988E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3857545881321267E-2</v>
+        <v>9.3313444166067225E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11734,17 +11754,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9125364431486868E-2</v>
+        <v>9.855072463768115E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2886297376093284E-2</v>
+        <v>7.2463768115942032E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0174927113702624E-2</v>
+        <v>7.9710144927536239E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11775,15 +11795,15 @@
       <c r="D92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11804,14 +11824,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.185203272681257</v>
+        <v>28.122349611581328</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>33.264070285424104</v>
+        <v>33.181422223817037</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11832,14 +11852,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.448590459280108</v>
+        <v>23.402453627881719</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>26.681570866791425</v>
+        <v>26.624216955368194</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11882,21 +11902,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9709661.172513267</v>
+        <v>9685536.5038276892</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.013027346830343</v>
+        <v>13.981777968803135</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>16.538121867240008</v>
+        <v>16.497031173791477</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>22.573574602860504</v>
+        <v>22.517488195861585</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11945,27 +11965,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>9658281.4725132678</v>
+        <v>9634156.80382769</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.904273208778189</v>
+        <v>12.873528678401001</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.912387140776209</v>
+        <v>13.881137762749001</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>15.181497892680223</v>
+        <v>15.145327856942355</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>16.450608644584239</v>
+        <v>16.409517951135708</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>22.486061380204735</v>
+        <v>22.429974973205816</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12006,27 +12026,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7788253.5253199795</v>
+        <v>7771512.1271068482</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.592508727930955</v>
+        <v>10.570641122329855</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.658093651891512</v>
+        <v>11.635155492679853</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>12.461774974036418</v>
+        <v>12.436048379211595</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>13.265456296181323</v>
+        <v>13.236941265743335</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>18.106576414581028</v>
+        <v>18.06765505627553</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12067,27 +12087,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7506315.0008247215</v>
+        <v>7490408.0365821682</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>11.748390968354572</v>
+        <v>11.722084900365427</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>12.785240396333862</v>
+        <v>12.758146627714428</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>13.821636433358321</v>
+        <v>13.790688118076975</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>14.858032470382781</v>
+        <v>14.823229608439522</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>20.296318897392879</v>
+        <v>20.248815014740671</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CE62818-C028-4335-9B2A-44260969A186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0C03421-17A3-4B25-A5B9-CAF1F44F4F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3552,27 +3552,27 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.855072463768115E-2</v>
+        <v>9.7701149425287348E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.9710144927536239E-2</v>
+        <v>7.9022988505747127E-2</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.9710144927536239E-2</v>
+        <v>7.9022988505747127E-2</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2463768115942032E-2</v>
+        <v>7.183908045977011E-2</v>
       </c>
       <c r="G45" s="150">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2463768115942032E-2</v>
+        <v>7.183908045977011E-2</v>
       </c>
       <c r="H45" s="150">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>8.2614942528735621E-2</v>
       </c>
       <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>13.8</v>
+        <v>13.92</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>8102.0883299999996</v>
+        <v>8172.5412720000004</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62983151219016198</v>
+        <v>0.63530830794833737</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.716569396156132</v>
+        <v>10.809756956122706</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.9710144927536239E-2</v>
+        <v>7.9022988505747127E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4667,20 +4667,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.873528678401001</v>
+        <v>12.828181513502498</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>25.794471219186686</v>
+        <v>25.699347187436246</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.145327856942355</v>
+        <v>15.091978251179409</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.429974973205816</v>
+        <v>22.347258423857607</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9832,7 +9832,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11703,17 +11703,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9862109661793824E-2</v>
+        <v>8.9087436302640433E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2945283703170988E-2</v>
+        <v>8.2230238154005722E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3313444166067225E-2</v>
+        <v>9.2509017923256304E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11754,17 +11754,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.855072463768115E-2</v>
+        <v>9.7701149425287348E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2463768115942032E-2</v>
+        <v>7.183908045977011E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9710144927536239E-2</v>
+        <v>7.9022988505747127E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11824,14 +11824,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.122349611581328</v>
+        <v>28.029629212940176</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>33.181422223817037</v>
+        <v>33.059532396455005</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11852,14 +11852,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.402453627881719</v>
+        <v>23.334375789384804</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>26.624216955368194</v>
+        <v>26.539602905474876</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11902,21 +11902,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9685536.5038276892</v>
+        <v>9649957.3063961584</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.981777968803135</v>
+        <v>13.935679543711171</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>16.497031173791477</v>
+        <v>16.43643038735755</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>22.517488195861585</v>
+        <v>22.434771646513376</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11943,7 +11943,7 @@
         <v>140</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>-51379.699999999953</v>
       </c>
       <c r="D99" s="209"/>
@@ -11965,27 +11965,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>9634156.80382769</v>
+        <v>9598577.6063961592</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.873528678401001</v>
+        <v>12.828181513502498</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.881137762749001</v>
+        <v>13.835039337657037</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>15.145327856942355</v>
+        <v>15.091978251179409</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>16.409517951135708</v>
+        <v>16.348917164701781</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>22.429974973205816</v>
+        <v>22.347258423857607</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12026,27 +12026,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7771512.1271068482</v>
+        <v>7746813.5935885897</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.570641122329855</v>
+        <v>10.538377309134891</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.635155492679853</v>
+        <v>11.601308775189793</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>12.436048379211595</v>
+        <v>12.3980909519234</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>13.236941265743335</v>
+        <v>13.194873128657008</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>18.06765505627553</v>
+        <v>18.010234495552574</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12087,27 +12087,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7490408.0365821682</v>
+        <v>7466939.8261925299</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>11.722084900365427</v>
+        <v>11.683279411318694</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>12.758146627714428</v>
+        <v>12.718174056423415</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>13.790688118076975</v>
+        <v>13.745034601551405</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>14.823229608439522</v>
+        <v>14.771895146679395</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>20.248815014740671</v>
+        <v>20.178746459705089</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{421B5E23-1CF5-4CE0-BAB3-D8383FACAE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74750CB1-DA77-48DB-8441-FCE92F226596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3765,27 +3765,27 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.6317280453257784E-2</v>
+        <v>9.6453900709219859E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.7903682719546757E-2</v>
+        <v>7.8014184397163122E-2</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.7903682719546757E-2</v>
+        <v>7.8014184397163122E-2</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0821529745042494E-2</v>
+        <v>7.0921985815602842E-2</v>
       </c>
       <c r="G45" s="87">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0821529745042494E-2</v>
+        <v>7.0921985815602842E-2</v>
       </c>
       <c r="H45" s="87">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.1444759206798861E-2</v>
+        <v>8.1560283687943255E-2</v>
       </c>
       <c r="I45" s="87" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>14.12</v>
+        <v>14.1</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>8289.9628420000008</v>
+        <v>8278.2206850000002</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4766,7 +4766,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.64443630087862946</v>
+        <v>0.64352350158560023</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.965069556066998</v>
+        <v>10.94953829607257</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.7903682719546757E-2</v>
+        <v>7.8014184397163122E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4885,20 +4885,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>14.303896328986104</v>
+        <v>12.767417813992301</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>25.050395439880102</v>
+        <v>25.560203658148925</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>16.828113328218947</v>
+        <v>15.020491545873295</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>21.782952556417481</v>
+        <v>22.226264050564286</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11935,17 +11935,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7825574598637032E-2</v>
+        <v>8.795014988175566E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.106550390253256E-2</v>
+        <v>8.1180490432890759E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1198691890349001E-2</v>
+        <v>9.1328051737001981E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11986,17 +11986,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6317280453257784E-2</v>
+        <v>9.6453900709219859E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0821529745042494E-2</v>
+        <v>7.0921985815602842E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7903682719546757E-2</v>
+        <v>7.8014184397163122E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -12049,21 +12049,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>23.854760479828677</v>
+        <v>27.893950999983698</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>27.598346581294471</v>
+        <v>32.881236959946698</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12084,14 +12084,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.253474230671486</v>
+        <v>23.234718843593914</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.723791756838047</v>
+        <v>26.415772154835484</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12134,21 +12134,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10653870.913059028</v>
+        <v>9597913.5167382341</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.684892236264442</v>
+        <v>13.868223492742363</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>18.146360865484986</v>
+        <v>16.347786044315765</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>21.87046577907325</v>
+        <v>22.313777273220055</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12198,23 +12198,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.303896328986104</v>
+        <v>12.767417813992301</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.597379013608673</v>
+        <v>13.780710270086594</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>16.828113328218947</v>
+        <v>15.020491545873295</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>18.058847642829218</v>
+        <v>16.260272821659996</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>21.782952556417481</v>
+        <v>22.226264050564286</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12253,23 +12253,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>12.00975625524225</v>
+        <v>10.491154333736409</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>13.316988069809479</v>
+        <v>11.55176166023168</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>14.129125006167353</v>
+        <v>12.342534510278128</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>14.941261942525227</v>
+        <v>13.133307360324578</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>18.007597249523453</v>
+        <v>17.926200802029761</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12308,23 +12308,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>13.156826292114177</v>
+        <v>11.629286073864355</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>14.457183541709076</v>
+        <v>12.666235965159137</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>15.47861916719315</v>
+        <v>13.681513028075711</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>16.500054792677222</v>
+        <v>14.696790090992288</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>19.895274902970467</v>
+        <v>20.076232426297025</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74750CB1-DA77-48DB-8441-FCE92F226596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A59F877-1F27-4190-ABB8-1D863EF2EC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="289">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1052,6 +1052,9 @@
   </si>
   <si>
     <t>Consumer Monopoly</t>
+  </si>
+  <si>
+    <t>HOLD</t>
   </si>
 </sst>
 </file>
@@ -2588,18 +2591,6 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2613,6 +2604,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2820,11 +2823,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,8 +3042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -3063,6 +3066,9 @@
       </c>
       <c r="C4" s="66" t="s">
         <v>282</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -4450,7 +4456,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4473,6 +4479,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4492,7 +4501,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4528,18 +4537,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="313" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v>HOLD</v>
+      </c>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4555,40 +4567,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45643</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>8278.2206850000002</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4611,11 +4623,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4683,10 +4695,10 @@
         <v>222</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4733,7 +4745,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4874,10 +4886,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="318" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4885,22 +4897,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.767417813992301</v>
+        <v>14.016733592928356</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>25.560203658148925</v>
+        <v>28.767459750523201</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.020491545873295</v>
-      </c>
-      <c r="G29" s="312">
+        <v>16.49027481520983</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.226264050564286</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>25.015182391759307</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5882,7 +5894,7 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
@@ -5891,6 +5903,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5918,7 +5931,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11263,7 +11276,7 @@
         <f>I15+I34</f>
         <v>2034922</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11274,11 +11287,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11290,11 +11303,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -12045,7 +12058,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -12056,14 +12069,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>27.893950999983698</v>
+        <v>30.607615916271698</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>32.881236959946698</v>
+        <v>36.080090329353268</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12084,14 +12097,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.234718843593914</v>
+        <v>25.495110043310056</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>26.415772154835484</v>
+        <v>28.985632341844362</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12134,21 +12147,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9597913.5167382341</v>
+        <v>10531647.184656205</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.868223492742363</v>
+        <v>15.217394556515938</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>16.347786044315765</v>
+        <v>17.938181519215259</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>22.313777273220055</v>
+        <v>25.102695614415076</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12198,23 +12211,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.767417813992301</v>
+        <v>14.016733592928356</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.780710270086594</v>
+        <v>15.129881333860169</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>15.020491545873295</v>
+        <v>16.49027481520983</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>16.260272821659996</v>
+        <v>17.85066829655949</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>22.226264050564286</v>
+        <v>25.015182391759307</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12253,23 +12266,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.491154333736409</v>
+        <v>11.511786995163252</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.55176166023168</v>
+        <v>12.675575577403535</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>12.342534510278128</v>
+        <v>13.54327881783912</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>13.133307360324578</v>
+        <v>14.410982058274705</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>17.926200802029761</v>
+        <v>20.166731824302136</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12308,23 +12321,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>11.629286073864355</v>
+        <v>12.764260294045805</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>12.666235965159137</v>
+        <v>13.902728455631852</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>13.681513028075711</v>
+        <v>15.016776816524475</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>14.696790090992288</v>
+        <v>16.130825177417098</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>20.076232426297025</v>
+        <v>22.590957108030722</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A59F877-1F27-4190-ABB8-1D863EF2EC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F590A1D-F029-4448-9F0B-FA630B981EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2591,6 +2591,18 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2604,18 +2616,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3771,27 +3771,27 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.6453900709219859E-2</v>
+        <v>9.6590909090909088E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8014184397163122E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8014184397163122E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0921985815602842E-2</v>
+        <v>7.1022727272727279E-2</v>
       </c>
       <c r="G45" s="87">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0921985815602842E-2</v>
+        <v>7.1022727272727279E-2</v>
       </c>
       <c r="H45" s="87">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.1560283687943255E-2</v>
+        <v>8.1676136363636354E-2</v>
       </c>
       <c r="I45" s="87" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4537,27 +4537,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="313" t="str">
+      <c r="G2" s="317" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v>HOLD</v>
       </c>
-      <c r="H2" s="313"/>
+      <c r="H2" s="317"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="311" t="str">
+      <c r="C3" s="315" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="312"/>
+      <c r="D3" s="316"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>14.1</v>
+        <v>14.08</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4567,40 +4567,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="313" t="str">
+      <c r="C4" s="317" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
-      <c r="D4" s="314"/>
+      <c r="D4" s="318"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="317">
+      <c r="G4" s="321">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="317"/>
+      <c r="H4" s="321"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="315">
+      <c r="C5" s="319">
         <f>Inputs!C6</f>
         <v>45643</v>
       </c>
-      <c r="D5" s="316"/>
+      <c r="D5" s="320"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="320">
+      <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>8278.2206850000002</v>
-      </c>
-      <c r="H5" s="320"/>
+        <v>8266.4785279999996</v>
+      </c>
+      <c r="H5" s="313"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4623,11 +4623,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="321" t="str">
+      <c r="G6" s="314" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="321"/>
+      <c r="H6" s="314"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4778,7 +4778,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.64352350158560023</v>
+        <v>0.64261070229257111</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.94953829607257</v>
+        <v>10.934007036078141</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.8014184397163122E-2</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4886,10 +4886,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="318" t="s">
+      <c r="G28" s="311" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="318"/>
+      <c r="H28" s="311"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4897,22 +4897,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>14.016733592928356</v>
+        <v>14.845019667309911</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>28.767459750523201</v>
+        <v>28.355685365455269</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>16.49027481520983</v>
-      </c>
-      <c r="G29" s="319">
+        <v>17.464729020364601</v>
+      </c>
+      <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>25.015182391759307</v>
-      </c>
-      <c r="H29" s="319"/>
+        <v>24.657117709091541</v>
+      </c>
+      <c r="H29" s="312"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5895,6 +5895,7 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
@@ -5903,7 +5904,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11276,7 +11276,7 @@
         <f>I15+I34</f>
         <v>2034922</v>
       </c>
-      <c r="E56" s="316"/>
+      <c r="E56" s="320"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11287,11 +11287,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="317">
+      <c r="D57" s="321">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="316"/>
+      <c r="E57" s="320"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11303,11 +11303,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="317">
+      <c r="D58" s="321">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="316"/>
+      <c r="E58" s="320"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11948,17 +11948,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.795014988175566E-2</v>
+        <v>8.8075079071928603E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1180490432890759E-2</v>
+        <v>8.1295803629528388E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1328051737001981E-2</v>
+        <v>9.1457779083219309E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11999,17 +11999,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6453900709219859E-2</v>
+        <v>9.6590909090909088E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0921985815602842E-2</v>
+        <v>7.1022727272727279E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8014184397163122E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -12062,21 +12062,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>30.607615916271698</v>
+        <v>28.321520860949931</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>36.080090329353268</v>
+        <v>33.076441908163332</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12097,14 +12097,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>25.495110043310056</v>
+        <v>23.815651390384566</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>28.985632341844362</v>
+        <v>26.899045517002296</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12147,21 +12147,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10531647.184656205</v>
+        <v>11103127.101090508</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.217394556515938</v>
+        <v>16.192921472378924</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.938181519215259</v>
+        <v>18.911563013661812</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>25.102695614415076</v>
+        <v>24.744630931747309</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12211,23 +12211,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.016733592928356</v>
+        <v>14.845019667309911</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.129881333860169</v>
+        <v>16.105408249723155</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>16.49027481520983</v>
+        <v>17.464729020364601</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>17.85066829655949</v>
+        <v>18.824049791006043</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>25.015182391759307</v>
+        <v>24.657117709091541</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12266,23 +12266,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>11.511786995163252</v>
+        <v>12.3234243363278</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>12.675575577403535</v>
+        <v>13.616675978364613</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>13.54327881783912</v>
+        <v>14.498146278032706</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>14.410982058274705</v>
+        <v>15.379616577700798</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.166731824302136</v>
+        <v>20.123293659655111</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12321,23 +12321,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>12.764260294045805</v>
+        <v>13.584222001818855</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>13.902728455631852</v>
+        <v>14.861042114043883</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>15.016776816524475</v>
+        <v>15.981437649198654</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>16.130825177417098</v>
+        <v>17.101833184353421</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>22.590957108030722</v>
+        <v>22.390205684373328</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A22A202-D90A-4517-9B72-11601DF91E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{240E836C-6F2E-4570-83D6-C25D6AD3F1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2604,31 +2604,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3796,27 +3796,27 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.6590909090909088E-2</v>
+        <v>9.4839609483960946E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8125E-2</v>
+        <v>7.6708507670850773E-2</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8125E-2</v>
+        <v>7.6708507670850773E-2</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1022727272727279E-2</v>
+        <v>6.9735006973500699E-2</v>
       </c>
       <c r="G45" s="82">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1022727272727279E-2</v>
+        <v>6.9735006973500699E-2</v>
       </c>
       <c r="H45" s="82">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.1676136363636354E-2</v>
+        <v>8.0195258019525803E-2</v>
       </c>
       <c r="I45" s="82" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4567,27 +4567,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v>HOLD</v>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>14.08</v>
+        <v>14.34</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4597,40 +4597,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45643</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>8266.4785279999996</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>8419.126569</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4653,11 +4653,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.64261070229257111</v>
+        <v>0.6544770931019509</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.737011299851897</v>
+        <v>11.953745883513935</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.8125E-2</v>
+        <v>7.6708507670850773E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4916,10 +4916,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4927,22 +4927,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>13.584968156655057</v>
+        <v>13.511053205559854</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>25.948084835886878</v>
+        <v>25.800080073504109</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.982315478417714</v>
-      </c>
-      <c r="G29" s="314">
+        <v>15.895356712423357</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.563552031205983</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>22.434852237829663</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5925,15 +5925,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11400,7 +11400,7 @@
         <f>I15+I34</f>
         <v>2034922</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11411,11 +11411,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11427,11 +11427,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -12072,17 +12072,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1340465887919137E-2</v>
+        <v>8.968436260124836E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5733835997934706E-2</v>
+        <v>7.4360698106758771E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5200565497676434E-2</v>
+        <v>8.36557853701035E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12123,17 +12123,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6590909090909088E-2</v>
+        <v>9.4839609483960946E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1022727272727279E-2</v>
+        <v>6.9735006973500699E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8125E-2</v>
+        <v>7.6708507670850773E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12193,14 +12193,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>25.962663020398235</v>
+        <v>25.830354772424297</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>30.249798648815549</v>
+        <v>30.07792404635666</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12221,14 +12221,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.923904351249952</v>
+        <v>23.809054197998936</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>27.021313905715942</v>
+        <v>26.879585932908231</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12271,21 +12271,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10154277.177476643</v>
+        <v>10096582.170200801</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.844236846150919</v>
+        <v>14.768589175953091</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.295420555996046</v>
+        <v>17.197150694205163</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>22.651065253861752</v>
+        <v>22.522365460485432</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12335,23 +12335,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.584968156655057</v>
+        <v>13.511053205559854</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>14.75672362349515</v>
+        <v>14.681075953297322</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>15.982315478417714</v>
+        <v>15.895356712423357</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>17.207907333340277</v>
+        <v>17.109637471549394</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>22.563552031205983</v>
+        <v>22.434852237829663</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12390,23 +12390,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>12.379439901492926</v>
+        <v>12.317092666555968</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>13.678569960084454</v>
+        <v>13.612904012206329</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>14.564046942932855</v>
+        <v>14.490697254771728</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.449523925781255</v>
+        <v>15.368490497337126</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.233574167853824</v>
+        <v>20.127448186731279</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12445,23 +12445,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>12.982204029073991</v>
+        <v>12.914072936057911</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>14.217646791789802</v>
+        <v>14.146989982751826</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>15.273181210675284</v>
+        <v>15.193026983597543</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>16.328715629560765</v>
+        <v>16.239063984443259</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>21.398563099529902</v>
+        <v>21.281150212280473</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{240E836C-6F2E-4570-83D6-C25D6AD3F1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1C2E90-FCD1-49D4-8E6E-39D24EFD0869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2604,6 +2604,18 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2617,18 +2629,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3796,27 +3796,27 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.4839609483960946E-2</v>
+        <v>9.8408104196816198E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6708507670850773E-2</v>
+        <v>7.9594790159189591E-2</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6708507670850773E-2</v>
+        <v>7.9594790159189591E-2</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9735006973500699E-2</v>
+        <v>7.2358900144717797E-2</v>
       </c>
       <c r="G45" s="82">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9735006973500699E-2</v>
+        <v>7.2358900144717797E-2</v>
       </c>
       <c r="H45" s="82">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.0195258019525803E-2</v>
+        <v>8.3212735166425467E-2</v>
       </c>
       <c r="I45" s="82" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4567,27 +4567,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="314" t="str">
+      <c r="G2" s="318" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v>HOLD</v>
       </c>
-      <c r="H2" s="314"/>
+      <c r="H2" s="318"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="312" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="313"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>14.34</v>
+        <v>13.82</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4597,40 +4597,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="314" t="str">
+      <c r="C4" s="318" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
-      <c r="D4" s="315"/>
+      <c r="D4" s="319"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="318">
+      <c r="G4" s="322">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="318"/>
+      <c r="H4" s="322"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="316">
+      <c r="C5" s="320">
         <f>Inputs!C6</f>
         <v>45643</v>
       </c>
-      <c r="D5" s="317"/>
+      <c r="D5" s="321"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="321">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>8419.126569</v>
-      </c>
-      <c r="H5" s="321"/>
+        <v>8113.8304870000002</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4653,11 +4653,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="322" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="322"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.6544770931019509</v>
+        <v>0.63074431148319121</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.953745883513935</v>
+        <v>11.52027671618986</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.6708507670850773E-2</v>
+        <v>7.9594790159189591E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4916,10 +4916,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="319" t="s">
+      <c r="G28" s="312" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="319"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4927,22 +4927,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>13.511053205559854</v>
+        <v>13.661983642100228</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>25.800080073504109</v>
+        <v>26.102328144593766</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.895356712423357</v>
-      </c>
-      <c r="G29" s="320">
+        <v>16.072921931882622</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.434852237829663</v>
-      </c>
-      <c r="H29" s="320"/>
+        <v>22.697676647472843</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5925,6 +5925,7 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
@@ -5933,7 +5934,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11400,7 +11400,7 @@
         <f>I15+I34</f>
         <v>2034922</v>
       </c>
-      <c r="E56" s="317"/>
+      <c r="E56" s="321"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11411,11 +11411,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="318">
+      <c r="D57" s="322">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="317"/>
+      <c r="E57" s="321"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11427,11 +11427,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="318">
+      <c r="D58" s="322">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="317"/>
+      <c r="E58" s="321"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -12072,17 +12072,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.968436260124836E-2</v>
+        <v>9.3058882757011671E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4360698106758771E-2</v>
+        <v>7.7158640437837961E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.36557853701035E-2</v>
+        <v>8.6803470492567592E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12123,17 +12123,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.4839609483960946E-2</v>
+        <v>9.8408104196816198E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9735006973500699E-2</v>
+        <v>7.2358900144717797E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6708507670850773E-2</v>
+        <v>7.9594790159189591E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12193,14 +12193,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>25.830354772424297</v>
+        <v>26.100486241176593</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>30.07792404635666</v>
+        <v>30.428917934838108</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12221,14 +12221,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.809054197998936</v>
+        <v>24.043514669218538</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>26.879585932908231</v>
+        <v>27.168966360380963</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12271,21 +12271,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10096582.170200801</v>
+        <v>10214404.086062727</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.768589175953091</v>
+        <v>14.923037719949029</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.197150694205163</v>
+        <v>17.397832589127752</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>22.522365460485432</v>
+        <v>22.785189870128612</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12335,23 +12335,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.511053205559854</v>
+        <v>13.661983642100228</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>14.681075953297322</v>
+        <v>14.83552449729326</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>15.895356712423357</v>
+        <v>16.072921931882622</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>17.109637471549394</v>
+        <v>17.310319366471983</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>22.434852237829663</v>
+        <v>22.697676647472843</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12390,23 +12390,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>12.317092666555968</v>
+        <v>12.444383453506694</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>13.612904012206329</v>
+        <v>13.746957547589407</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>14.490697254771728</v>
+        <v>14.640451121772582</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.368490497337126</v>
+        <v>15.533944695955759</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.127448186731279</v>
+        <v>20.344136404129774</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12445,23 +12445,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>12.914072936057911</v>
+        <v>13.05318354780346</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>14.146989982751826</v>
+        <v>14.291241022441334</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>15.193026983597543</v>
+        <v>15.356686526827602</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>16.239063984443259</v>
+        <v>16.42213203121387</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>21.281150212280473</v>
+        <v>21.520906525801308</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1C2E90-FCD1-49D4-8E6E-39D24EFD0869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F198D706-E360-451D-8CC0-16DABB1E796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Data" sheetId="2" r:id="rId3"/>
     <sheet name="Fin_Analysis" sheetId="3" r:id="rId4"/>
     <sheet name="Note" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="292">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1063,6 +1064,10 @@
   </si>
   <si>
     <t>Consumer Monopoly</t>
+  </si>
+  <si>
+    <t>Investment Thesis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1088,7 +1093,7 @@
     <numFmt numFmtId="190" formatCode="[$-13C09]d\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="191" formatCode="&quot;for &quot;0&quot; Yrs&quot;"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1378,6 +1383,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1845,7 +1858,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="189" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2604,6 +2617,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2620,9 +2636,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2640,6 +2653,7 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
@@ -4530,8 +4544,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4567,21 +4581,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v>HOLD</v>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4597,7 +4611,7 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
@@ -4626,11 +4640,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
         <v>8113.8304870000002</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4653,11 +4667,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4916,10 +4930,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4938,11 +4952,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>16.072921931882622</v>
       </c>
-      <c r="G29" s="313">
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>22.697676647472843</v>
       </c>
-      <c r="H29" s="313"/>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5925,15 +5939,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10173,8 +10187,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100:I100"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12568,7 +12582,7 @@
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -12634,4 +12648,26 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E03CB28-CABF-4F73-9474-1674E7E6FB22}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B2" s="326" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/financial_models/opportunities/0590.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F198D706-E360-451D-8CC0-16DABB1E796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2B7212-DC64-40AD-AB4C-945C309D0DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="1" r:id="rId2"/>
-    <sheet name="Data" sheetId="2" r:id="rId3"/>
-    <sheet name="Fin_Analysis" sheetId="3" r:id="rId4"/>
-    <sheet name="Note" sheetId="5" r:id="rId5"/>
-    <sheet name="Summary" sheetId="6" r:id="rId6"/>
+    <sheet name="Summary" sheetId="6" r:id="rId3"/>
+    <sheet name="Data" sheetId="2" r:id="rId4"/>
+    <sheet name="Fin_Analysis" sheetId="3" r:id="rId5"/>
+    <sheet name="Note" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="299">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1066,7 +1066,35 @@
     <t>Consumer Monopoly</t>
   </si>
   <si>
-    <t>Investment Thesis</t>
+    <t xml:space="preserve">The company name is </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valuation Summary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Listco Information</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value Indicators</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost Structure</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1858,7 +1886,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="189" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2611,31 +2639,20 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2644,6 +2661,18 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2653,7 +2682,13 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
@@ -3077,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -4278,11 +4313,11 @@
       <c r="B89" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C89" s="310">
+      <c r="C89" s="311">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="310"/>
+      <c r="D89" s="311"/>
       <c r="E89" s="49" t="s">
         <v>180</v>
       </c>
@@ -4296,10 +4331,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="311" t="s">
+      <c r="C90" s="312" t="s">
         <v>93</v>
       </c>
-      <c r="D90" s="311"/>
+      <c r="D90" s="312"/>
       <c r="E90" s="288" t="s">
         <v>94</v>
       </c>
@@ -4544,8 +4579,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4581,21 +4616,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="315" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v>HOLD</v>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="315"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="313" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="314"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4611,40 +4646,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="315" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="316"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="319">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="319"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="317">
         <f>Inputs!C6</f>
         <v>45643</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="318"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="322">
         <f>G3*G4/1000000</f>
         <v>8113.8304870000002</v>
       </c>
-      <c r="H5" s="315"/>
+      <c r="H5" s="322"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4667,11 +4702,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="323" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="323"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4930,10 +4965,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="320" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="320"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4952,11 +4987,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>16.072921931882622</v>
       </c>
-      <c r="G29" s="314">
+      <c r="G29" s="321">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>22.697676647472843</v>
       </c>
-      <c r="H29" s="314"/>
+      <c r="H29" s="321"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5939,15 +5974,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5999,6 +6034,108 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E03CB28-CABF-4F73-9474-1674E7E6FB22}">
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="2" max="2" width="41.53125" customWidth="1"/>
+    <col min="3" max="5" width="18.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B2" s="310" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B4" s="310" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="327" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Dashboard!C4</f>
+        <v>六福珠宝</v>
+      </c>
+      <c r="D6" s="328" t="str">
+        <f>Inputs!C4</f>
+        <v>0590.HK</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="327"/>
+    </row>
+    <row r="9" spans="2:5" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B9" s="310" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B10" s="329"/>
+      <c r="C10" s="331">
+        <f>YEAR(Data!C5)</f>
+        <v>2024</v>
+      </c>
+      <c r="D10" s="331">
+        <f>C10-1</f>
+        <v>2023</v>
+      </c>
+      <c r="E10" s="331">
+        <f>D10-1</f>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="330" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="329"/>
+      <c r="D11" s="329"/>
+      <c r="E11" s="329"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="330" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="329"/>
+      <c r="D12" s="329"/>
+      <c r="E12" s="329"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="330" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="329"/>
+      <c r="D13" s="329"/>
+      <c r="E13" s="329"/>
+    </row>
+    <row r="15" spans="2:5" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B15" s="310" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B17" s="310" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6008,7 +6145,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C36" sqref="C36"/>
+      <selection pane="topRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10178,7 +10315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFB6D7A8"/>
@@ -10187,8 +10324,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11410,11 +11547,11 @@
         <v>82</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="323">
+      <c r="D56" s="324">
         <f>I15+I34</f>
         <v>2034922</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="318"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11425,11 +11562,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="319">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="318"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11441,11 +11578,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="319">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="318"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11686,19 +11823,19 @@
       <c r="B72" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="310">
+      <c r="C72" s="311">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="310"/>
-      <c r="E72" s="324" t="s">
+      <c r="D72" s="311"/>
+      <c r="E72" s="325" t="s">
         <v>180</v>
       </c>
-      <c r="F72" s="324"/>
-      <c r="H72" s="324" t="s">
+      <c r="F72" s="325"/>
+      <c r="H72" s="325" t="s">
         <v>179</v>
       </c>
-      <c r="I72" s="324"/>
+      <c r="I72" s="325"/>
       <c r="K72" s="160" t="s">
         <v>8</v>
       </c>
@@ -11708,18 +11845,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="311" t="s">
+      <c r="C73" s="312" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="311"/>
-      <c r="E73" s="325" t="s">
+      <c r="D73" s="312"/>
+      <c r="E73" s="326" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="311"/>
-      <c r="H73" s="325" t="s">
+      <c r="F73" s="312"/>
+      <c r="H73" s="326" t="s">
         <v>94</v>
       </c>
-      <c r="I73" s="311"/>
+      <c r="I73" s="312"/>
       <c r="K73" s="75"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12178,15 +12315,15 @@
       <c r="D92" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="E92" s="324" t="s">
+      <c r="E92" s="325" t="s">
         <v>180</v>
       </c>
-      <c r="F92" s="324"/>
+      <c r="F92" s="325"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="324" t="s">
+      <c r="H92" s="325" t="s">
         <v>179</v>
       </c>
-      <c r="I92" s="324"/>
+      <c r="I92" s="325"/>
       <c r="K92" s="75"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12538,7 +12675,7 @@
       <formula>LEN(TRIM(I84))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation allowBlank="1" sqref="D52" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F20 F35:F37" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
@@ -12577,7 +12714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A4E3F7-3175-4D7E-9B2C-B9C406E28DB9}">
   <dimension ref="B2:C11"/>
   <sheetViews>
@@ -12648,26 +12785,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E03CB28-CABF-4F73-9474-1674E7E6FB22}">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B2" s="326" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>